--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\MMC_project\MMCCCL_inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110BBF22-A5AC-4ECB-87EF-8EE8F20C9E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93310C-4A66-49C1-8472-892311E202E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2172" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
+    <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="658">
   <si>
     <t>Alinity C</t>
   </si>
   <si>
-    <t>Albumin BCP Reagent (1/2)</t>
-  </si>
-  <si>
     <t>08P0320</t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>Glass Cabinet</t>
   </si>
   <si>
-    <t>Albumin BCP Reagent (2/2)</t>
-  </si>
-  <si>
     <t>74818UN24</t>
   </si>
   <si>
-    <t>Acid Probe Wash (1/3)</t>
-  </si>
-  <si>
     <t>01R6070</t>
   </si>
   <si>
@@ -89,15 +80,9 @@
     <t>Fridge1</t>
   </si>
   <si>
-    <t>Acid Probe Wash (2/3)</t>
-  </si>
-  <si>
     <t>14431UN25</t>
   </si>
   <si>
-    <t>Acid Probe Wash (3/3)</t>
-  </si>
-  <si>
     <t>25548UN25</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
     <t>10x1500 tests</t>
   </si>
   <si>
-    <t>Creatinine Reagent Kit (1/2)</t>
-  </si>
-  <si>
     <t>07P9920</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t>10x300</t>
   </si>
   <si>
-    <t>ALT2 Reagent (1/2)</t>
-  </si>
-  <si>
     <t>04T8420</t>
   </si>
   <si>
@@ -191,15 +170,9 @@
     <t>4x300</t>
   </si>
   <si>
-    <t>ALT2 Reagent (2/2)</t>
-  </si>
-  <si>
     <t>64394UD00</t>
   </si>
   <si>
-    <t>Creatinine Reagent Kit (2/2)</t>
-  </si>
-  <si>
     <t>07P9921</t>
   </si>
   <si>
@@ -209,9 +182,6 @@
     <t>10x300 test</t>
   </si>
   <si>
-    <t>Acid Wash (1/2)</t>
-  </si>
-  <si>
     <t>08P7740</t>
   </si>
   <si>
@@ -224,9 +194,6 @@
     <t>Black Cabinet</t>
   </si>
   <si>
-    <t>Acid Wash (2/2)</t>
-  </si>
-  <si>
     <t>30278UN25</t>
   </si>
   <si>
@@ -240,9 +207,6 @@
   </si>
   <si>
     <t>10x290</t>
-  </si>
-  <si>
-    <t>Chol Reagent (1/2)</t>
   </si>
   <si>
     <t>07P7620</t>
@@ -346,24 +310,15 @@
     <t>2, Blue Tray</t>
   </si>
   <si>
-    <t>Detergent A (1/3)</t>
-  </si>
-  <si>
     <t>08P9670</t>
   </si>
   <si>
     <t>67671UQ07</t>
   </si>
   <si>
-    <t>Detergent A (2/3)</t>
-  </si>
-  <si>
     <t>67671UQ01</t>
   </si>
   <si>
-    <t>Detergent A (3/3)</t>
-  </si>
-  <si>
     <t>68051UQ03</t>
   </si>
   <si>
@@ -391,9 +346,6 @@
     <t>4x200 tests</t>
   </si>
   <si>
-    <t>Microalbumin Reagent (1/2)</t>
-  </si>
-  <si>
     <t>08P0424</t>
   </si>
   <si>
@@ -433,9 +385,6 @@
     <t>71089UD00</t>
   </si>
   <si>
-    <t>Ultra HDL Reagent (1/2)</t>
-  </si>
-  <si>
     <t>07P7520</t>
   </si>
   <si>
@@ -493,9 +442,6 @@
     <t xml:space="preserve">Alinity C </t>
   </si>
   <si>
-    <t>Ultra HDL Reagent (2/2)</t>
-  </si>
-  <si>
     <t>67911UQ01</t>
   </si>
   <si>
@@ -541,9 +487,6 @@
     <t>3, Blue Tray</t>
   </si>
   <si>
-    <t>Concentrated Wash Buffer (1/2)</t>
-  </si>
-  <si>
     <t>06P1368</t>
   </si>
   <si>
@@ -553,57 +496,36 @@
     <t>2L/bottle</t>
   </si>
   <si>
-    <t>Concentrated Wash Buffer (2/2)</t>
-  </si>
-  <si>
     <t>75343FZ00</t>
   </si>
   <si>
-    <t>Trigger Solution (1/2)</t>
-  </si>
-  <si>
     <t>06P1160</t>
   </si>
   <si>
     <t>63147FZ00</t>
   </si>
   <si>
-    <t>Trigger Solution (2/2)</t>
-  </si>
-  <si>
     <t>71637FZ00</t>
   </si>
   <si>
-    <t>Detergent B (1/2)</t>
-  </si>
-  <si>
     <t>08P9781</t>
   </si>
   <si>
     <t>65450UQ01</t>
   </si>
   <si>
-    <t>Detergent B (2/2)</t>
-  </si>
-  <si>
     <t>1/1/20247</t>
   </si>
   <si>
     <t>68116UQ01</t>
   </si>
   <si>
-    <t>HAVAb IgM Reagent Kit (1/2)</t>
-  </si>
-  <si>
     <t>08P2821</t>
   </si>
   <si>
     <t>65640BE00</t>
   </si>
   <si>
-    <t>HAVAb IgM Reagent Kit (2/2)</t>
-  </si>
-  <si>
     <t>68528BE00</t>
   </si>
   <si>
@@ -730,9 +652,6 @@
     <t>one set (cal 1-5)</t>
   </si>
   <si>
-    <t>Multiconstituent Calibrator (MC Cal) (1/2)</t>
-  </si>
-  <si>
     <t>08P6001</t>
   </si>
   <si>
@@ -742,9 +661,6 @@
     <t>3x2.5 ml</t>
   </si>
   <si>
-    <t>Multiconstituent Calibrator (MC Cal) (2/2)</t>
-  </si>
-  <si>
     <t>28939FD01</t>
   </si>
   <si>
@@ -760,18 +676,12 @@
     <t>3x5 ml</t>
   </si>
   <si>
-    <t>Reagent Cartidge Clear (Large) (1/2)</t>
-  </si>
-  <si>
     <t>04S1740</t>
   </si>
   <si>
     <t>61004MM00</t>
   </si>
   <si>
-    <t>Reagent Cartidge Clear (Large) (2/2)</t>
-  </si>
-  <si>
     <t>59042MM00</t>
   </si>
   <si>
@@ -928,9 +838,6 @@
     <t>5L</t>
   </si>
   <si>
-    <t>Anti HBc IgM Cals (1/2)</t>
-  </si>
-  <si>
     <t>07P8602</t>
   </si>
   <si>
@@ -940,9 +847,6 @@
     <t>Drawer1</t>
   </si>
   <si>
-    <t>Anti HBc IgM Cals (2/2)</t>
-  </si>
-  <si>
     <t>70310BE00</t>
   </si>
   <si>
@@ -970,18 +874,12 @@
     <t>07006</t>
   </si>
   <si>
-    <t>TSH Reagent Kit (1/2)</t>
-  </si>
-  <si>
     <t>07P4820</t>
   </si>
   <si>
     <t>71591UD00</t>
   </si>
   <si>
-    <t>TSH Reagent Kit (2/2)</t>
-  </si>
-  <si>
     <t>73537UD00</t>
   </si>
   <si>
@@ -994,18 +892,12 @@
     <t>12328UP00</t>
   </si>
   <si>
-    <t>TSH Cals (1/2)</t>
-  </si>
-  <si>
     <t>07P4801</t>
   </si>
   <si>
     <t>67160UD00</t>
   </si>
   <si>
-    <t>TSH Cals (2/2)</t>
-  </si>
-  <si>
     <t>74310UD00</t>
   </si>
   <si>
@@ -1204,18 +1096,12 @@
     <t>4K12R1</t>
   </si>
   <si>
-    <t>Total T4 Cals (1/2)</t>
-  </si>
-  <si>
     <t>07P9501</t>
   </si>
   <si>
     <t>66373UD00</t>
   </si>
   <si>
-    <t>Total T4 Cals (2/2)</t>
-  </si>
-  <si>
     <t>70547UD00</t>
   </si>
   <si>
@@ -1273,9 +1159,6 @@
     <t>71067BE00</t>
   </si>
   <si>
-    <t>Testosterone calibrator (1/2)</t>
-  </si>
-  <si>
     <t>07P6801</t>
   </si>
   <si>
@@ -1285,9 +1168,6 @@
     <t>2 units</t>
   </si>
   <si>
-    <t>Testosterone calibrator (2/2)</t>
-  </si>
-  <si>
     <t>12241UP00</t>
   </si>
   <si>
@@ -1336,9 +1216,6 @@
     <t>64447UD00</t>
   </si>
   <si>
-    <t>ICT Serum Calibrator (1/2)</t>
-  </si>
-  <si>
     <t>08P6901</t>
   </si>
   <si>
@@ -1351,9 +1228,6 @@
     <t>Top</t>
   </si>
   <si>
-    <t>ICT Serum Calibrator (2/2)</t>
-  </si>
-  <si>
     <t>25047UN25</t>
   </si>
   <si>
@@ -1417,18 +1291,12 @@
     <t>3026UN25</t>
   </si>
   <si>
-    <t>Tox Drug Screen Control1 (1/2)</t>
-  </si>
-  <si>
     <t>C4090AN</t>
   </si>
   <si>
     <t>-22C</t>
   </si>
   <si>
-    <t>Tox Drug Screen Control1 (2/2)</t>
-  </si>
-  <si>
     <t>C4016AN</t>
   </si>
   <si>
@@ -1483,24 +1351,15 @@
     <t>0135062301</t>
   </si>
   <si>
-    <t>Multichem S Plus Control 2 (1/2)</t>
-  </si>
-  <si>
     <t>0135062302</t>
   </si>
   <si>
-    <t>Multichem S Plus Control 2 (2/2)</t>
-  </si>
-  <si>
     <t>0157042502</t>
   </si>
   <si>
     <t>0135062303</t>
   </si>
   <si>
-    <t>Multichem IA Plus (1/3)</t>
-  </si>
-  <si>
     <t>08P86-10</t>
   </si>
   <si>
@@ -1510,13 +1369,7 @@
     <t>?</t>
   </si>
   <si>
-    <t>Multichem IA Plus (2/3)</t>
-  </si>
-  <si>
     <t>032411230</t>
-  </si>
-  <si>
-    <t>Multichem IA Plus (3/3)</t>
   </si>
   <si>
     <t>034012240</t>
@@ -1715,13 +1568,7 @@
     <t>Lab Guard Aptima</t>
   </si>
   <si>
-    <t>Reclosable Specimen Bags (1/2)</t>
-  </si>
-  <si>
     <t>ACC Drawer</t>
-  </si>
-  <si>
-    <t>Reclosable Specimen Bags (2/2)</t>
   </si>
   <si>
     <t>Nitrile Exam Gloves Powder Free Large</t>
@@ -2110,6 +1957,81 @@
   </si>
   <si>
     <t>shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albumin BCP Reagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid Probe Wash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatinine Reagent Kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALT2 Reagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acid Wash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reclosable Specimen Bags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multichem S Plus Control 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multichem IA Plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tox Drug Screen Control1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT Serum Calibrator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testosterone calibrator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total T4 Cals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH Cals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH Reagent Kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti HBc IgM Cals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiconstituent Calibrator (MC Cal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagent Cartidge Clear (Large) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrated Wash Buffer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAVAb IgM Reagent Kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra HDL Reagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger Solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergent B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chol Reagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergent A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microalbumin Reagent </t>
   </si>
 </sst>
 </file>
@@ -2658,11 +2580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="24.21875" customWidth="1"/>
@@ -2670,31 +2594,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>678</v>
+        <v>627</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>676</v>
+        <v>625</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>680</v>
+        <v>629</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>675</v>
+        <v>624</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>681</v>
+        <v>630</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>683</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2702,25 +2626,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="7">
         <v>45854</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -2731,25 +2655,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>633</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <v>45959</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="9">
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -2760,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>634</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
         <v>45914</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" s="9">
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -2789,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="15">
         <v>46026</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="16">
         <v>8</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -2818,25 +2742,25 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>634</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
         <v>46169</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G6" s="9">
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -2847,25 +2771,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>634</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
         <v>46224</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" s="9">
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
@@ -2876,54 +2800,54 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="15">
         <v>45939</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="15">
         <v>45991</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G9" s="16">
         <v>4</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2931,28 +2855,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="15">
         <v>45889</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="16">
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -2963,25 +2887,25 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>635</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
         <v>46046</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G11" s="9">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -2989,19 +2913,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12" s="15">
         <v>45732</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6">
         <v>300</v>
@@ -3010,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -3018,28 +2942,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" s="15">
         <v>46112</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G13" s="16">
         <v>10</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -3047,28 +2971,28 @@
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>636</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
         <v>45876</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G14" s="9">
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -3076,28 +3000,28 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>636</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7">
         <v>45991</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G15" s="9">
         <v>6</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -3108,25 +3032,25 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>635</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
         <v>46046</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G16" s="9">
         <v>10</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
@@ -3137,54 +3061,54 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>637</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
         <v>46064</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>637</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
         <v>46242</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G18" s="9">
         <v>8</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -3192,86 +3116,86 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D19" s="15">
         <v>46022</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G19" s="16">
         <v>6</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>655</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7">
         <v>46128</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9">
         <v>8</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>655</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
         <v>46183</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9">
         <v>8</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -3282,25 +3206,25 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D22" s="15">
         <v>45930</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" s="16">
         <v>15</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I22" s="6">
         <v>2</v>
@@ -3311,21 +3235,21 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="16">
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -3333,10 +3257,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C24" s="6">
         <v>3469</v>
@@ -3348,13 +3272,13 @@
         <v>240580</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -3365,28 +3289,28 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D25" s="15">
         <v>45965</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G25" s="16">
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3394,25 +3318,25 @@
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D26" s="15">
         <v>45934</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G26" s="16">
         <v>14</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I26" s="6">
         <v>2</v>
@@ -3420,28 +3344,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D27" s="15">
         <v>46084</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G27" s="16">
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
@@ -3449,115 +3373,115 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D28" s="15">
         <v>46146</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>656</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D29" s="7">
         <v>46120</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G29" s="9">
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>102</v>
+        <v>656</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D30" s="7">
         <v>46120</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G30" s="9">
         <v>20</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>104</v>
+        <v>656</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D31" s="7">
         <v>46197</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G31" s="9">
         <v>20</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="6">
         <v>2</v>
@@ -3568,25 +3492,25 @@
         <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D32" s="15">
         <v>45945</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G32" s="16">
         <v>8</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I32" s="6">
         <v>2</v>
@@ -3597,83 +3521,83 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D33" s="15">
         <v>46021</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>657</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D34" s="7">
         <v>46123</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>657</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D35" s="7">
         <v>46334</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G35" s="9">
         <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I35" s="6">
         <v>2</v>
@@ -3684,25 +3608,25 @@
         <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D36" s="15">
         <v>45912</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G36" s="16">
         <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I36" s="6">
         <v>2</v>
@@ -3710,57 +3634,57 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D37" s="15">
         <v>45964</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G37" s="16">
         <v>2</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>128</v>
+        <v>652</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D38" s="7">
         <v>46329</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G38" s="9">
         <v>4</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I38" s="6">
         <v>2</v>
@@ -3771,23 +3695,23 @@
         <v>0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D39" s="15">
         <v>45894</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="16">
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I39" s="6">
         <v>2</v>
@@ -3795,136 +3719,136 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D40" s="15">
         <v>46100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="16">
         <v>1</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D41" s="15">
         <v>46026</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="16">
         <v>2</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D42" s="15">
         <v>45939</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="16">
         <v>2</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D43" s="15">
         <v>45939</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="16">
         <v>4</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>148</v>
+        <v>652</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D44" s="7">
         <v>46417</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G44" s="9">
         <v>4</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I44" s="6">
         <v>2</v>
@@ -3932,42 +3856,42 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D45" s="15">
         <v>46002</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G45" s="16">
         <v>19</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D46" s="15">
         <v>46337</v>
@@ -3976,13 +3900,13 @@
         <v>24118720</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G46" s="16">
         <v>8</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I46" s="6">
         <v>2</v>
@@ -3990,285 +3914,285 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D47" s="15">
         <v>45993</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G47" s="16">
         <v>1</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>650</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D48" s="7">
         <v>45995</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G48" s="9">
         <v>2</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I48" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>168</v>
+        <v>650</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D49" s="7">
         <v>46090</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G49" s="9">
         <v>4</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I49" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>170</v>
+        <v>653</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D50" s="7">
         <v>45925</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G50" s="9">
         <v>3</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I50" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>173</v>
+        <v>653</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D51" s="7">
         <v>46215</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G51" s="9">
         <v>4</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I51" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>175</v>
+        <v>654</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D52" s="7">
         <v>45953</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G52" s="9">
         <v>14</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>178</v>
+        <v>654</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G53" s="9">
         <v>20</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I53" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>651</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D54" s="7">
         <v>45832</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="9">
         <v>1</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>184</v>
+        <v>651</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D55" s="7">
         <v>45918</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="9">
         <v>1</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D56" s="15">
         <v>46160</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G56" s="16">
         <v>6</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I56" s="6">
         <v>2</v>
@@ -4276,26 +4200,26 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D57" s="15">
         <v>46089</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="16">
         <v>4</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I57" s="6">
         <v>2</v>
@@ -4303,10 +4227,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C58" s="6">
         <v>87334</v>
@@ -4315,14 +4239,14 @@
         <v>46203</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="16">
         <v>2</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I58" s="6">
         <v>3</v>
@@ -4333,25 +4257,25 @@
         <v>0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D59" s="15">
         <v>45968</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="G59" s="16">
         <v>5</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I59" s="6">
         <v>2</v>
@@ -4359,13 +4283,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -4374,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I60" s="6">
         <v>3</v>
@@ -4382,13 +4306,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -4397,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I61" s="6">
         <v>3</v>
@@ -4405,24 +4329,24 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="G62" s="16">
         <v>9</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I62" s="6">
         <v>3</v>
@@ -4430,24 +4354,24 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G63" s="16">
         <v>10</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I63" s="6">
         <v>3</v>
@@ -4458,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C64" s="6">
         <v>87331</v>
@@ -4467,14 +4391,14 @@
         <v>46022</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="16">
         <v>2</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I64" s="6">
         <v>3</v>
@@ -4485,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C65" s="6">
         <v>94600</v>
@@ -4494,14 +4418,14 @@
         <v>46081</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="16" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I65" s="6">
         <v>3</v>
@@ -4512,25 +4436,25 @@
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D66" s="15">
         <v>45957</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G66" s="16">
         <v>1</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I66" s="6">
         <v>4</v>
@@ -4538,28 +4462,28 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="D67" s="15">
         <v>45980</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G67" s="16">
         <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I67" s="6">
         <v>4</v>
@@ -4567,86 +4491,86 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="D68" s="15">
         <v>46150</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G68" s="16">
         <v>1</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I68" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>227</v>
+        <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D69" s="7">
         <v>46099</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="G69" s="9">
         <v>2</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I69" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>231</v>
+        <v>648</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D70" s="7">
         <v>46243</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="G70" s="9">
         <v>4</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I70" s="6">
         <v>4</v>
@@ -4657,83 +4581,83 @@
         <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="D71" s="15">
         <v>46142</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="G71" s="16">
         <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I71" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>237</v>
+        <v>649</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D72" s="7">
         <v>53327</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G72" s="9">
         <v>19</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I72" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>240</v>
+        <v>649</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D73" s="7">
         <v>53327</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G73" s="9">
         <v>20</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I73" s="6">
         <v>4</v>
@@ -4741,28 +4665,28 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D74" s="15">
         <v>53327</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G74" s="16">
         <v>10</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I74" s="6">
         <v>4</v>
@@ -4773,23 +4697,23 @@
         <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I75" s="6">
         <v>4</v>
@@ -4800,23 +4724,23 @@
         <v>0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I76" s="6">
         <v>4</v>
@@ -4827,25 +4751,25 @@
         <v>0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D77" s="15">
         <v>46354</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G77" s="16">
         <v>8</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I77" s="6">
         <v>4</v>
@@ -4856,25 +4780,25 @@
         <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D78" s="15">
         <v>46384</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="G78" s="16">
         <v>9</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I78" s="6">
         <v>4</v>
@@ -4882,26 +4806,26 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D79" s="15">
         <v>45956</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="16">
         <v>1</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I79" s="6">
         <v>4</v>
@@ -4909,26 +4833,26 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D80" s="15">
         <v>46234</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="16">
         <v>1</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I80" s="6">
         <v>4</v>
@@ -4936,13 +4860,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="D81" s="15">
         <v>45601</v>
@@ -4955,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I81" s="6">
         <v>4</v>
@@ -4963,13 +4887,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D82" s="15">
         <v>45781</v>
@@ -4982,7 +4906,7 @@
         <v>6</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I82" s="6">
         <v>4</v>
@@ -4990,13 +4914,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D83" s="15">
         <v>45639</v>
@@ -5009,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I83" s="6">
         <v>4</v>
@@ -5017,13 +4941,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="D84" s="15">
         <v>45774</v>
@@ -5036,7 +4960,7 @@
         <v>5</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I84" s="6">
         <v>4</v>
@@ -5044,13 +4968,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D85" s="15">
         <v>45809</v>
@@ -5063,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I85" s="6">
         <v>4</v>
@@ -5071,28 +4995,28 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D86" s="15">
         <v>53327</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I86" s="6">
         <v>4</v>
@@ -5100,28 +5024,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D87" s="15">
         <v>47057</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="G87" s="16">
         <v>1</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I87" s="6">
         <v>4</v>
@@ -5129,22 +5053,22 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="G88" s="16">
         <v>1</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I88" s="6">
         <v>4</v>
@@ -5152,115 +5076,115 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="D89" s="15">
         <v>46073</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="G89" s="16">
         <v>1</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I89" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>293</v>
+        <v>647</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="D90" s="7">
         <v>45860</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>297</v>
+        <v>647</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="D91" s="7">
         <v>45978</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G91" s="9">
         <v>2</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D92" s="15">
         <v>45851</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="G92" s="16">
         <v>15</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I92" s="6">
         <v>4</v>
@@ -5268,85 +5192,85 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D93" s="15">
         <v>45746</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="G93" s="16">
         <v>15</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I93" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>307</v>
+        <v>646</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D94" s="7">
         <v>46190</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="9">
         <v>1</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>310</v>
+        <v>646</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D95" s="7">
         <v>46258</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="9">
         <v>2</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5354,113 +5278,113 @@
         <v>0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="D96" s="15">
         <v>45997</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G96" s="16">
         <v>3</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>315</v>
+        <v>645</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="D97" s="7">
         <v>45905</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>318</v>
+        <v>645</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="D98" s="7">
         <v>46122</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G98" s="9">
         <v>1</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="D99" s="15">
         <v>45974</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="16" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -5468,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -5480,10 +5404,10 @@
         <v>1</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5491,26 +5415,26 @@
         <v>0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="G101" s="16">
         <v>2</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5518,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -5530,21 +5454,21 @@
         <v>3</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -5553,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5564,37 +5488,37 @@
         <v>0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D104" s="15">
         <v>45639</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="G104" s="16">
         <v>1</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -5603,37 +5527,37 @@
         <v>2</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="G106" s="16">
         <v>3</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -5641,26 +5565,26 @@
         <v>0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G107" s="16">
         <v>1</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -5668,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -5680,10 +5604,10 @@
         <v>9</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -5691,24 +5615,24 @@
         <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5716,24 +5640,24 @@
         <v>0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5741,24 +5665,24 @@
         <v>0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5766,24 +5690,24 @@
         <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5791,22 +5715,22 @@
         <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="16" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -5814,22 +5738,22 @@
         <v>0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="18" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -5837,84 +5761,84 @@
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="18" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="D116" s="15">
         <v>45786</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="16">
         <v>1</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="D117" s="7">
         <v>46008</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="9">
         <v>1</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="C118" s="6">
         <v>11561694</v>
@@ -5923,25 +5847,25 @@
         <v>45838</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="16">
         <v>6</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C119" s="6">
         <v>900025</v>
@@ -5950,75 +5874,75 @@
         <v>45808</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="16">
         <v>1</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>385</v>
+        <v>644</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D120" s="7">
         <v>45854</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G120" s="9">
         <v>1</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>388</v>
+        <v>644</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D121" s="7">
         <v>45865</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G121" s="9">
         <v>1</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6026,231 +5950,231 @@
         <v>0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="D122" s="15">
         <v>45925</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G122" s="16">
         <v>1</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="D123" s="15">
         <v>45932</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G123" s="16">
         <v>1</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="D124" s="15">
         <v>45875</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G124" s="16">
         <v>1</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D125" s="15">
         <v>45949</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G125" s="16">
         <v>1</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="D126" s="7">
         <v>46039</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G126" s="16">
         <v>1</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="D127" s="15">
         <v>46001</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G127" s="16">
         <v>2</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>408</v>
+        <v>643</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="D128" s="7">
         <v>45853</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="G128" s="9">
         <v>1</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>412</v>
+        <v>643</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="D129" s="7">
         <v>45965</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="G129" s="9">
         <v>1</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6258,198 +6182,198 @@
         <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="D130" s="15">
         <v>45887</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G130" s="16">
         <v>1</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="D131" s="15">
         <v>45897</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G131" s="16">
         <v>1</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="D132" s="15">
         <v>45906</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G132" s="16">
         <v>1</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="D133" s="15">
         <v>46179</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="16">
         <v>1</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="D134" s="15">
         <v>45868</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="16">
         <v>1</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>429</v>
+        <v>642</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="D135" s="7">
         <v>46152</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="G135" s="9">
         <v>2</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>434</v>
+        <v>642</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="D136" s="7">
         <v>46217</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="G136" s="9">
         <v>10</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -6457,25 +6381,25 @@
         <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="D137" s="15">
         <v>45930</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="G137" s="16">
         <v>7</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I137" s="6"/>
     </row>
@@ -6484,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="D138" s="15">
         <v>45808</v>
@@ -6496,25 +6420,25 @@
         <v>130112201</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="G138" s="16">
         <v>12</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D139" s="15">
         <v>45808</v>
@@ -6523,13 +6447,13 @@
         <v>130112202</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="G139" s="16">
         <v>12</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I139" s="6"/>
     </row>
@@ -6538,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="D140" s="15">
         <v>45808</v>
@@ -6550,98 +6474,98 @@
         <v>130112203</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="G140" s="16">
         <v>12</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="D141" s="7">
         <v>46011</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="G141" s="9">
         <v>2</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I141" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="D142" s="7">
         <v>46210</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="G142" s="9">
         <v>4</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I142" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="D143" s="7">
         <v>46232</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="G143" s="9">
         <v>2</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -6649,10 +6573,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>456</v>
+        <v>641</v>
       </c>
       <c r="C144" s="6">
         <v>94613</v>
@@ -6661,23 +6585,23 @@
         <v>46043</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>459</v>
+        <v>641</v>
       </c>
       <c r="C145" s="6">
         <v>94613</v>
@@ -6686,23 +6610,23 @@
         <v>46121</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="C146" s="6">
         <v>94614</v>
@@ -6711,26 +6635,26 @@
         <v>46045</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="16" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="D147" s="15">
         <v>46059</v>
@@ -6743,19 +6667,19 @@
         <v>16</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D148" s="15">
         <v>45781</v>
@@ -6768,19 +6692,19 @@
         <v>6</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="D149" s="15">
         <v>45639</v>
@@ -6793,19 +6717,19 @@
         <v>5</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="D150" s="15">
         <v>45835</v>
@@ -6818,14 +6742,14 @@
         <v>5</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="19" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="C151" s="6">
         <v>26657</v>
@@ -6834,279 +6758,279 @@
         <v>46234</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="16">
         <v>10</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="D152" s="15">
         <v>45808</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="16">
         <v>8</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D153" s="15">
         <v>45808</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="16">
         <v>4</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="D154" s="15">
         <v>45808</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="16">
         <v>5</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="I154" s="6"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="D155" s="15">
         <v>46022</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="16">
         <v>20</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>478</v>
+        <v>639</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D156" s="7">
         <v>46022</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="9">
         <v>12</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>480</v>
+        <v>639</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="D157" s="7">
         <v>46842</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="9">
         <v>12</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I157" s="6"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="D158" s="15">
         <v>46022</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="16">
         <v>12</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>483</v>
+        <v>640</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="D159" s="7">
         <v>45657</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="9" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>487</v>
+        <v>640</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="D160" s="7">
         <v>46112</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="9">
         <v>7</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>489</v>
+        <v>640</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="D161" s="7">
         <v>46721</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="9">
         <v>4</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="6"/>
@@ -7114,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I162" s="6"/>
     </row>
@@ -7123,15 +7047,15 @@
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G163" s="16">
         <v>1</v>
@@ -7141,13 +7065,13 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
       <c r="D164" s="15">
         <v>45061</v>
@@ -7162,356 +7086,356 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="17" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="G165" s="16">
         <v>4</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I165" s="6"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="17" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G166" s="16">
         <v>40</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I166" s="6"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="16" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I167" s="6"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="C168" s="6">
         <v>559</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="G168" s="16">
         <v>4</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I168" s="6"/>
     </row>
     <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="G169" s="16">
         <v>2</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I169" s="6"/>
     </row>
     <row r="170" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="G170" s="16">
         <v>1</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I170" s="6"/>
     </row>
     <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="6" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="G171" s="16">
         <v>3</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I171" s="6"/>
     </row>
     <row r="172" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G172" s="16">
         <v>4</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G173" s="16">
         <v>1</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="G174" s="16">
         <v>2</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="G175" s="16">
         <v>2</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="6" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="G176" s="16">
         <v>2</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="6">
         <v>4003763</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="G177" s="16">
         <v>70</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="D178" s="15">
         <v>45492</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="G178" s="16">
         <v>5</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
       <c r="C179" s="6">
         <v>6095719</v>
@@ -7527,16 +7451,16 @@
         <v>10</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="C180" s="6">
         <v>6095719</v>
@@ -7552,73 +7476,73 @@
         <v>10</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="G181" s="16">
         <v>7</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="C182" s="6" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="G182" s="16">
         <v>9</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I182" s="6"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="C183" s="6">
         <v>602562</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="F183" s="6">
         <v>1</v>
@@ -7627,23 +7551,23 @@
         <v>1</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I183" s="6"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="F184" s="6">
         <v>1</v>
@@ -7652,82 +7576,82 @@
         <v>3</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I184" s="6"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>568</v>
+        <v>517</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="G185" s="16">
         <v>11</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I185" s="6"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="6">
         <v>861853</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="G186" s="16">
         <v>6</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="C187" s="6">
         <v>34181200</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="6" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="I187" s="6"/>
     </row>
@@ -7758,21 +7682,21 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="D190" s="4">
         <v>45730</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="3"/>
       <c r="H190" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I190" s="2"/>
     </row>
@@ -7781,23 +7705,23 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>580</v>
+        <v>529</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="D191" s="4">
         <v>45736</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>582</v>
+        <v>531</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I191" s="2"/>
     </row>
@@ -7806,10 +7730,10 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="D192" s="4">
         <v>45748</v>
@@ -7818,11 +7742,11 @@
         <v>240701</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="2" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="I192" s="2"/>
     </row>
@@ -7831,23 +7755,23 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>587</v>
+        <v>536</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="D193" s="4">
         <v>45749</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I193" s="2"/>
     </row>
@@ -7856,148 +7780,148 @@
         <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="D194" s="4">
         <v>45751</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I194" s="2"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>593</v>
+        <v>542</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="D195" s="4">
         <v>45754</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="3"/>
       <c r="H195" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>597</v>
+        <v>546</v>
       </c>
       <c r="D196" s="4">
         <v>45755</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>598</v>
+        <v>547</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="2" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="I196" s="2"/>
     </row>
     <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>599</v>
+        <v>548</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="D197" s="7">
         <v>45757</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="D198" s="4">
         <v>45782</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="D199" s="4">
         <v>45785</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I199" s="2"/>
     </row>
@@ -8006,23 +7930,23 @@
         <v>0</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="D200" s="12">
         <v>45796</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G200" s="13"/>
       <c r="H200" s="11" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I200" s="2"/>
     </row>
@@ -8031,23 +7955,23 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="D201" s="4">
         <v>45799</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I201" s="2"/>
     </row>
@@ -8056,23 +7980,23 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="D202" s="4">
         <v>45801</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I202" s="2"/>
     </row>
@@ -8081,85 +8005,85 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="D203" s="4">
         <v>45801</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>623</v>
+        <v>572</v>
       </c>
       <c r="D204" s="4">
         <v>45821</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>624</v>
+        <v>573</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>625</v>
+        <v>574</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>626</v>
+        <v>575</v>
       </c>
       <c r="D205" s="4">
         <v>45830</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>627</v>
+        <v>576</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I205" s="2"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="D206" s="4">
         <v>45838</v>
@@ -8170,57 +8094,57 @@
       <c r="F206" s="2"/>
       <c r="G206" s="3"/>
       <c r="H206" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I206" s="2"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>631</v>
+        <v>580</v>
       </c>
       <c r="D207" s="4">
         <v>45871</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C208" s="2" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="D208" s="4">
         <v>45889</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="2" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="I208" s="2"/>
     </row>
@@ -8229,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>637</v>
+        <v>586</v>
       </c>
       <c r="C209" s="2">
         <v>900025</v>
@@ -8238,14 +8162,14 @@
         <v>46081</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I209" s="2"/>
     </row>
@@ -8254,10 +8178,10 @@
         <v>0</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="D210" s="4">
         <v>46112</v>
@@ -8266,7 +8190,7 @@
         <v>32411230</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="2">
@@ -8279,67 +8203,67 @@
         <v>0</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>643</v>
+        <v>592</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I211" s="2"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="I212" s="2"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
         <v>806455</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="2" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="I213" s="2"/>
     </row>
@@ -8348,10 +8272,10 @@
         <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>649</v>
+        <v>598</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -8365,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -8382,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -8399,10 +8323,10 @@
         <v>0</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8416,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>656</v>
+        <v>605</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8433,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8450,10 +8374,10 @@
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8467,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>661</v>
+        <v>610</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>662</v>
+        <v>611</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8484,10 +8408,10 @@
         <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>663</v>
+        <v>612</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8501,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>665</v>
+        <v>614</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>666</v>
+        <v>615</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8518,10 +8442,10 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>667</v>
+        <v>616</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>668</v>
+        <v>617</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8532,13 +8456,13 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>670</v>
+        <v>619</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8549,13 +8473,13 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8566,10 +8490,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>673</v>
+        <v>622</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>674</v>
+        <v>623</v>
       </c>
       <c r="C227" s="2">
         <v>2161</v>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93310C-4A66-49C1-8472-892311E202E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3793D-21A2-4548-AAEF-92820D6D1BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="653">
   <si>
     <t>Alinity C</t>
   </si>
@@ -355,9 +355,6 @@
     <t>2x320</t>
   </si>
   <si>
-    <t>Microalbumin Reagent (2/2)</t>
-  </si>
-  <si>
     <t>73003UD00</t>
   </si>
   <si>
@@ -805,9 +802,6 @@
     <t>2cart/box</t>
   </si>
   <si>
-    <t>2 carts</t>
-  </si>
-  <si>
     <t>Alinity</t>
   </si>
   <si>
@@ -910,9 +904,6 @@
     <t>73457BE00</t>
   </si>
   <si>
-    <t>3(?)</t>
-  </si>
-  <si>
     <t>Reagent Probe Tubing(1/pkg)</t>
   </si>
   <si>
@@ -1306,9 +1297,6 @@
     <t>C4091AN</t>
   </si>
   <si>
-    <t>4 boxes</t>
-  </si>
-  <si>
     <t>GC1 Test Set</t>
   </si>
   <si>
@@ -1433,9 +1421,6 @@
   </si>
   <si>
     <t>Cotton-Tipped Applicators</t>
-  </si>
-  <si>
-    <t>10 boxes</t>
   </si>
   <si>
     <t>Transfer Pipettors 7ml, 3ml Draw</t>
@@ -1631,9 +1616,6 @@
     <t>10/bag</t>
   </si>
   <si>
-    <t>7 coats</t>
-  </si>
-  <si>
     <t>HbA1C Control</t>
   </si>
   <si>
@@ -2032,6 +2014,9 @@
   </si>
   <si>
     <t xml:space="preserve">Microalbumin Reagent </t>
+  </si>
+  <si>
+    <t>2 00</t>
   </si>
 </sst>
 </file>
@@ -2580,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2594,31 +2579,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>626</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2626,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -2655,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -2684,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2742,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2771,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -2887,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>31</v>
@@ -2974,7 +2959,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>41</v>
@@ -3003,7 +2988,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>41</v>
@@ -3032,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>45</v>
@@ -3061,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>48</v>
@@ -3090,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>48</v>
@@ -3148,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
@@ -3177,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>57</v>
@@ -3405,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>87</v>
@@ -3434,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>87</v>
@@ -3463,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>87</v>
@@ -3550,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>99</v>
@@ -3579,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>99</v>
@@ -3588,7 +3573,7 @@
         <v>46334</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>101</v>
@@ -3608,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D36" s="15">
         <v>45912</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G36" s="16">
         <v>8</v>
@@ -3634,19 +3619,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="D37" s="15">
         <v>45964</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>73</v>
@@ -3663,22 +3648,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="7">
         <v>46329</v>
       </c>
       <c r="E38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="G38" s="9">
         <v>4</v>
@@ -3695,16 +3680,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="D39" s="15">
         <v>45894</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="16">
@@ -3722,16 +3707,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="D40" s="15">
         <v>46100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="16">
@@ -3749,16 +3734,16 @@
         <v>22</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="D41" s="15">
         <v>46026</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="16">
@@ -3776,16 +3761,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D42" s="15">
         <v>45939</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="16">
@@ -3803,16 +3788,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D43" s="15">
         <v>45939</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="16">
@@ -3827,22 +3812,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="7">
         <v>46417</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" s="9">
         <v>4</v>
@@ -3856,22 +3841,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D45" s="15">
         <v>46002</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="G45" s="16">
         <v>19</v>
@@ -3880,18 +3865,18 @@
         <v>20</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D46" s="15">
         <v>46337</v>
@@ -3900,7 +3885,7 @@
         <v>24118720</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G46" s="16">
         <v>8</v>
@@ -3917,16 +3902,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D47" s="15">
         <v>45993</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>73</v>
@@ -3938,7 +3923,7 @@
         <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3946,19 +3931,19 @@
         <v>22</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="7">
         <v>45995</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="G48" s="9">
         <v>2</v>
@@ -3975,19 +3960,19 @@
         <v>22</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="7">
         <v>46090</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="9">
         <v>4</v>
@@ -4004,16 +3989,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="7">
         <v>45925</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>94</v>
@@ -4033,16 +4018,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="7">
         <v>46215</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>94</v>
@@ -4062,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="7">
         <v>45953</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>8</v>
@@ -4091,16 +4076,16 @@
         <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>8</v>
@@ -4120,16 +4105,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="7">
         <v>45832</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="9">
@@ -4139,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4147,16 +4132,16 @@
         <v>22</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="7">
         <v>45918</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="9">
@@ -4166,24 +4151,24 @@
         <v>20</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D56" s="15">
         <v>46160</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>12</v>
@@ -4200,19 +4185,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D57" s="15">
         <v>46089</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="16">
@@ -4227,10 +4212,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="C58" s="6">
         <v>87334</v>
@@ -4239,7 +4224,7 @@
         <v>46203</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="16">
@@ -4257,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="D59" s="15">
         <v>45968</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="G59" s="16">
         <v>5</v>
@@ -4286,10 +4271,10 @@
         <v>22</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -4309,10 +4294,10 @@
         <v>22</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -4329,18 +4314,18 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G62" s="16">
         <v>9</v>
@@ -4354,13 +4339,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -4382,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" s="6">
         <v>87331</v>
@@ -4391,7 +4376,7 @@
         <v>46022</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="16">
@@ -4409,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="6">
         <v>94600</v>
@@ -4418,11 +4403,11 @@
         <v>46081</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>13</v>
@@ -4436,19 +4421,19 @@
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="D66" s="15">
         <v>45957</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="G66" s="16">
         <v>1</v>
@@ -4465,19 +4450,19 @@
         <v>22</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="D67" s="15">
         <v>45980</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="G67" s="16">
         <v>3</v>
@@ -4494,19 +4479,19 @@
         <v>22</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="D68" s="15">
         <v>46150</v>
       </c>
       <c r="E68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="G68" s="16">
         <v>1</v>
@@ -4523,19 +4508,19 @@
         <v>0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="7">
         <v>46099</v>
       </c>
       <c r="E69" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="G69" s="9">
         <v>2</v>
@@ -4552,19 +4537,19 @@
         <v>0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="7">
         <v>46243</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G70" s="9">
         <v>4</v>
@@ -4581,19 +4566,19 @@
         <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="D71" s="15">
         <v>46142</v>
       </c>
       <c r="E71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="G71" s="16">
         <v>1</v>
@@ -4610,16 +4595,16 @@
         <v>22</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="7">
         <v>53327</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>81</v>
@@ -4639,16 +4624,16 @@
         <v>22</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="7">
         <v>53327</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>81</v>
@@ -4668,16 +4653,16 @@
         <v>22</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D74" s="15">
         <v>53327</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>81</v>
@@ -4697,20 +4682,20 @@
         <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>69</v>
+      <c r="G75" s="16">
+        <v>200</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>51</v>
@@ -4724,20 +4709,20 @@
         <v>0</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>69</v>
+        <v>652</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>51</v>
@@ -4751,19 +4736,19 @@
         <v>0</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D77" s="15">
         <v>46354</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="G77" s="16">
         <v>8</v>
@@ -4780,19 +4765,19 @@
         <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D78" s="15">
         <v>46384</v>
       </c>
       <c r="E78" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="G78" s="16">
         <v>9</v>
@@ -4806,19 +4791,19 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="D79" s="15">
         <v>45956</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="16">
@@ -4833,19 +4818,19 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D80" s="15">
         <v>46234</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="16">
@@ -4860,13 +4845,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="D81" s="15">
         <v>45601</v>
@@ -4887,13 +4872,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="D82" s="15">
         <v>45781</v>
@@ -4914,13 +4899,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D83" s="15">
         <v>45639</v>
@@ -4941,13 +4926,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D84" s="15">
         <v>45774</v>
@@ -4968,13 +4953,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="D85" s="15">
         <v>45809</v>
@@ -4998,22 +4983,22 @@
         <v>22</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D86" s="15">
         <v>53327</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>252</v>
+      <c r="G86" s="16">
+        <v>2</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>51</v>
@@ -5024,22 +5009,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="D87" s="15">
         <v>47057</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G87" s="16">
         <v>1</v>
@@ -5053,16 +5038,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G88" s="16">
         <v>1</v>
@@ -5076,22 +5061,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D89" s="15">
         <v>46073</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G89" s="16">
         <v>1</v>
@@ -5108,16 +5093,16 @@
         <v>22</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D90" s="7">
         <v>45860</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
@@ -5129,7 +5114,7 @@
         <v>20</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5137,16 +5122,16 @@
         <v>22</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="7">
         <v>45978</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>19</v>
@@ -5158,7 +5143,7 @@
         <v>20</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5166,19 +5151,19 @@
         <v>22</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="15">
         <v>45851</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G92" s="16">
         <v>15</v>
@@ -5195,19 +5180,19 @@
         <v>22</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D93" s="15">
         <v>45746</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G93" s="16">
         <v>15</v>
@@ -5224,16 +5209,16 @@
         <v>22</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="7">
         <v>46190</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="9">
@@ -5243,7 +5228,7 @@
         <v>20</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5251,16 +5236,16 @@
         <v>22</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D95" s="7">
         <v>46258</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="9">
@@ -5270,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5278,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D96" s="15">
         <v>45997</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>73</v>
@@ -5299,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -5307,16 +5292,16 @@
         <v>0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D97" s="7">
         <v>45905</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>19</v>
@@ -5328,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -5336,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D98" s="7">
         <v>46122</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
@@ -5357,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -5365,20 +5350,20 @@
         <v>22</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="15">
         <v>45974</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F99" s="6"/>
-      <c r="G99" s="16" t="s">
-        <v>287</v>
+      <c r="G99" s="16">
+        <v>1</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>20</v>
@@ -5392,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -5407,7 +5392,7 @@
         <v>51</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5415,17 +5400,17 @@
         <v>0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G101" s="16">
         <v>2</v>
@@ -5434,7 +5419,7 @@
         <v>51</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5442,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -5457,7 +5442,7 @@
         <v>51</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5465,10 +5450,10 @@
         <v>22</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -5480,7 +5465,7 @@
         <v>51</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5488,17 +5473,17 @@
         <v>0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D104" s="15">
         <v>45639</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G104" s="16">
         <v>1</v>
@@ -5507,18 +5492,18 @@
         <v>51</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -5530,7 +5515,7 @@
         <v>51</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -5538,17 +5523,17 @@
         <v>22</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G106" s="16">
         <v>3</v>
@@ -5557,7 +5542,7 @@
         <v>51</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -5565,17 +5550,17 @@
         <v>0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G107" s="16">
         <v>1</v>
@@ -5584,7 +5569,7 @@
         <v>51</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -5592,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -5607,7 +5592,7 @@
         <v>51</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -5615,24 +5600,24 @@
         <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5640,24 +5625,24 @@
         <v>0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5665,24 +5650,24 @@
         <v>0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5690,24 +5675,24 @@
         <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5715,22 +5700,22 @@
         <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -5738,22 +5723,22 @@
         <v>0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -5761,22 +5746,22 @@
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -5784,16 +5769,16 @@
         <v>22</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D116" s="15">
         <v>45786</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="16">
@@ -5803,7 +5788,7 @@
         <v>20</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -5811,16 +5796,16 @@
         <v>22</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D117" s="7">
         <v>46008</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="9">
@@ -5830,15 +5815,15 @@
         <v>20</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C118" s="6">
         <v>11561694</v>
@@ -5847,7 +5832,7 @@
         <v>45838</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="16">
@@ -5857,15 +5842,15 @@
         <v>20</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C119" s="6">
         <v>900025</v>
@@ -5874,7 +5859,7 @@
         <v>45808</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="16">
@@ -5884,7 +5869,7 @@
         <v>20</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -5892,16 +5877,16 @@
         <v>0</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D120" s="7">
         <v>45854</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
@@ -5913,7 +5898,7 @@
         <v>20</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -5921,16 +5906,16 @@
         <v>0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D121" s="7">
         <v>45865</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>19</v>
@@ -5942,7 +5927,7 @@
         <v>20</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -5950,16 +5935,16 @@
         <v>0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D122" s="15">
         <v>45925</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
@@ -5971,7 +5956,7 @@
         <v>20</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -5979,16 +5964,16 @@
         <v>22</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D123" s="15">
         <v>45932</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>19</v>
@@ -6000,7 +5985,7 @@
         <v>20</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -6008,16 +5993,16 @@
         <v>22</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D124" s="15">
         <v>45875</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
@@ -6029,7 +6014,7 @@
         <v>20</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -6037,16 +6022,16 @@
         <v>22</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D125" s="15">
         <v>45949</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>19</v>
@@ -6058,7 +6043,7 @@
         <v>20</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -6066,16 +6051,16 @@
         <v>0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D126" s="7">
         <v>46039</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
@@ -6087,7 +6072,7 @@
         <v>20</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -6095,16 +6080,16 @@
         <v>22</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D127" s="15">
         <v>46001</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>19</v>
@@ -6116,7 +6101,7 @@
         <v>20</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -6124,19 +6109,19 @@
         <v>22</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D128" s="7">
         <v>45853</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G128" s="9">
         <v>1</v>
@@ -6145,7 +6130,7 @@
         <v>20</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -6153,19 +6138,19 @@
         <v>22</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D129" s="7">
         <v>45965</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G129" s="9">
         <v>1</v>
@@ -6174,7 +6159,7 @@
         <v>20</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6182,16 +6167,16 @@
         <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D130" s="15">
         <v>45887</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>19</v>
@@ -6203,7 +6188,7 @@
         <v>20</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -6211,16 +6196,16 @@
         <v>22</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D131" s="15">
         <v>45897</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>19</v>
@@ -6232,7 +6217,7 @@
         <v>20</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6240,16 +6225,16 @@
         <v>22</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D132" s="15">
         <v>45906</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>19</v>
@@ -6261,24 +6246,24 @@
         <v>20</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D133" s="15">
         <v>46179</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="16">
@@ -6288,7 +6273,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -6296,16 +6281,16 @@
         <v>22</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D134" s="15">
         <v>45868</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="16">
@@ -6315,7 +6300,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -6323,19 +6308,19 @@
         <v>22</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D135" s="7">
         <v>46152</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G135" s="9">
         <v>2</v>
@@ -6344,7 +6329,7 @@
         <v>4</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -6352,19 +6337,19 @@
         <v>22</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D136" s="7">
         <v>46217</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G136" s="9">
         <v>10</v>
@@ -6373,7 +6358,7 @@
         <v>4</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -6381,25 +6366,25 @@
         <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D137" s="15">
         <v>45930</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G137" s="16">
         <v>7</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I137" s="6"/>
     </row>
@@ -6408,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D138" s="15">
         <v>45808</v>
@@ -6420,13 +6405,13 @@
         <v>130112201</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G138" s="16">
         <v>12</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I138" s="6"/>
     </row>
@@ -6435,10 +6420,10 @@
         <v>22</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D139" s="15">
         <v>45808</v>
@@ -6447,13 +6432,13 @@
         <v>130112202</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G139" s="16">
         <v>12</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I139" s="6"/>
     </row>
@@ -6462,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D140" s="15">
         <v>45808</v>
@@ -6474,13 +6459,13 @@
         <v>130112203</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G140" s="16">
         <v>12</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I140" s="6"/>
     </row>
@@ -6489,19 +6474,19 @@
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D141" s="7">
         <v>46011</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G141" s="9">
         <v>2</v>
@@ -6518,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D142" s="7">
         <v>46210</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G142" s="9">
         <v>4</v>
@@ -6547,19 +6532,19 @@
         <v>0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D143" s="7">
         <v>46232</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G143" s="9">
         <v>2</v>
@@ -6573,10 +6558,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C144" s="6">
         <v>94613</v>
@@ -6585,23 +6570,23 @@
         <v>46043</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F144" s="6"/>
-      <c r="G144" s="9" t="s">
-        <v>69</v>
+      <c r="G144" s="9">
+        <v>2</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C145" s="6">
         <v>94613</v>
@@ -6610,23 +6595,23 @@
         <v>46121</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F145" s="6"/>
-      <c r="G145" s="9" t="s">
-        <v>69</v>
+      <c r="G145" s="9">
+        <v>2</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C146" s="6">
         <v>94614</v>
@@ -6635,26 +6620,26 @@
         <v>46045</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F146" s="6"/>
-      <c r="G146" s="16" t="s">
-        <v>419</v>
+      <c r="G146" s="16">
+        <v>4</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D147" s="15">
         <v>46059</v>
@@ -6667,19 +6652,19 @@
         <v>16</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="D148" s="15">
         <v>45781</v>
@@ -6692,19 +6677,19 @@
         <v>6</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D149" s="15">
         <v>45639</v>
@@ -6717,19 +6702,19 @@
         <v>5</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D150" s="15">
         <v>45835</v>
@@ -6742,14 +6727,14 @@
         <v>5</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C151" s="6">
         <v>26657</v>
@@ -6758,279 +6743,279 @@
         <v>46234</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="16">
         <v>10</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D152" s="15">
         <v>45808</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="16">
         <v>8</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D153" s="15">
         <v>45808</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="16">
         <v>4</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D154" s="15">
         <v>45808</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="16">
         <v>5</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I154" s="6"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D155" s="15">
         <v>46022</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="16">
         <v>20</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I155" s="6"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D156" s="7">
         <v>46022</v>
       </c>
       <c r="E156" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="9">
         <v>12</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I156" s="6"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D157" s="7">
         <v>46842</v>
       </c>
       <c r="E157" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="9">
         <v>12</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I157" s="6"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D158" s="15">
         <v>46022</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="16">
         <v>12</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I158" s="6"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D159" s="7">
         <v>45657</v>
       </c>
       <c r="E159" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I159" s="6"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D160" s="7">
         <v>46112</v>
       </c>
       <c r="E160" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="9">
         <v>7</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I160" s="6"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D161" s="7">
         <v>46721</v>
       </c>
       <c r="E161" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="9">
         <v>4</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="6"/>
@@ -7047,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -7065,13 +7050,13 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D164" s="15">
         <v>45061</v>
@@ -7086,211 +7071,211 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G165" s="16">
         <v>4</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I165" s="6"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G166" s="16">
         <v>40</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I166" s="6"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="16" t="s">
-        <v>462</v>
+      <c r="G167" s="16">
+        <v>10</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I167" s="6"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C168" s="6">
         <v>559</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G168" s="16">
         <v>4</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G169" s="16">
         <v>2</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G170" s="16">
         <v>1</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G171" s="16">
         <v>3</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G172" s="16">
         <v>4</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>19</v>
@@ -7299,143 +7284,143 @@
         <v>1</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I173" s="6"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G174" s="16">
         <v>2</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I174" s="6"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D175" s="6"/>
       <c r="E175" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G175" s="16">
         <v>2</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I175" s="6"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D176" s="6"/>
       <c r="E176" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G176" s="16">
         <v>2</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="I176" s="6"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D177" s="6"/>
       <c r="E177" s="6">
         <v>4003763</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G177" s="16">
         <v>70</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I177" s="6"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D178" s="15">
         <v>45492</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G178" s="16">
         <v>5</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I178" s="6"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C179" s="6">
         <v>6095719</v>
@@ -7451,16 +7436,16 @@
         <v>10</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C180" s="6">
         <v>6095719</v>
@@ -7476,57 +7461,57 @@
         <v>10</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G181" s="16">
         <v>7</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G182" s="16">
         <v>9</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I182" s="6"/>
     </row>
@@ -7535,14 +7520,14 @@
         <v>66</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C183" s="6">
         <v>602562</v>
       </c>
       <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F183" s="6">
         <v>1</v>
@@ -7551,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I183" s="6"/>
     </row>
@@ -7560,14 +7545,14 @@
         <v>66</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F184" s="6">
         <v>1</v>
@@ -7576,82 +7561,82 @@
         <v>3</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I184" s="6"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G185" s="16">
         <v>11</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I185" s="6"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D186" s="6"/>
       <c r="E186" s="6">
         <v>861853</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G186" s="16">
         <v>6</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C187" s="6">
         <v>34181200</v>
       </c>
       <c r="D187" s="6"/>
       <c r="E187" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="G187" s="16" t="s">
-        <v>524</v>
+        <v>518</v>
+      </c>
+      <c r="G187" s="16">
+        <v>7</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I187" s="6"/>
     </row>
@@ -7682,21 +7667,21 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D190" s="4">
         <v>45730</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="3"/>
       <c r="H190" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I190" s="2"/>
     </row>
@@ -7705,23 +7690,23 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D191" s="4">
         <v>45736</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I191" s="2"/>
     </row>
@@ -7730,10 +7715,10 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D192" s="4">
         <v>45748</v>
@@ -7746,7 +7731,7 @@
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I192" s="2"/>
     </row>
@@ -7755,23 +7740,23 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D193" s="4">
         <v>45749</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I193" s="2"/>
     </row>
@@ -7780,23 +7765,23 @@
         <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D194" s="4">
         <v>45751</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I194" s="2"/>
     </row>
@@ -7805,21 +7790,21 @@
         <v>22</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D195" s="4">
         <v>45754</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="3"/>
       <c r="H195" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I195" s="2"/>
     </row>
@@ -7828,23 +7813,23 @@
         <v>22</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D196" s="4">
         <v>45755</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I196" s="2"/>
     </row>
@@ -7853,25 +7838,25 @@
         <v>22</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D197" s="7">
         <v>45757</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I197" s="2"/>
     </row>
@@ -7880,23 +7865,23 @@
         <v>22</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D198" s="4">
         <v>45782</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I198" s="2"/>
     </row>
@@ -7905,23 +7890,23 @@
         <v>22</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D199" s="4">
         <v>45785</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I199" s="2"/>
     </row>
@@ -7930,23 +7915,23 @@
         <v>0</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D200" s="12">
         <v>45796</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G200" s="13"/>
       <c r="H200" s="11" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I200" s="2"/>
     </row>
@@ -7955,23 +7940,23 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D201" s="4">
         <v>45799</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I201" s="2"/>
     </row>
@@ -7980,23 +7965,23 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D202" s="4">
         <v>45801</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I202" s="2"/>
     </row>
@@ -8005,23 +7990,23 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D203" s="4">
         <v>45801</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I203" s="2"/>
     </row>
@@ -8030,23 +8015,23 @@
         <v>22</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D204" s="4">
         <v>45821</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I204" s="2"/>
     </row>
@@ -8055,23 +8040,23 @@
         <v>22</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D205" s="4">
         <v>45830</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I205" s="2"/>
     </row>
@@ -8080,10 +8065,10 @@
         <v>22</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D206" s="4">
         <v>45838</v>
@@ -8094,7 +8079,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="3"/>
       <c r="H206" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I206" s="2"/>
     </row>
@@ -8103,23 +8088,23 @@
         <v>22</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D207" s="4">
         <v>45871</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I207" s="2"/>
     </row>
@@ -8131,20 +8116,20 @@
         <v>27</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D208" s="4">
         <v>45889</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I208" s="2"/>
     </row>
@@ -8153,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C209" s="2">
         <v>900025</v>
@@ -8162,14 +8147,14 @@
         <v>46081</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I209" s="2"/>
     </row>
@@ -8178,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D210" s="4">
         <v>46112</v>
@@ -8190,7 +8175,7 @@
         <v>32411230</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="2">
@@ -8203,44 +8188,44 @@
         <v>0</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I211" s="2"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I212" s="2"/>
     </row>
@@ -8249,21 +8234,21 @@
         <v>22</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
         <v>806455</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I213" s="2"/>
     </row>
@@ -8272,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -8289,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -8306,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -8323,10 +8308,10 @@
         <v>0</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8340,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8357,10 +8342,10 @@
         <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8374,10 +8359,10 @@
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8391,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8408,10 +8393,10 @@
         <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8425,10 +8410,10 @@
         <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8442,10 +8427,10 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8459,10 +8444,10 @@
         <v>22</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8476,10 +8461,10 @@
         <v>22</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8490,10 +8475,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C227" s="2">
         <v>2161</v>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3793D-21A2-4548-AAEF-92820D6D1BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F2A9AF-2FF0-40E1-92A5-E2AAF53115DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="652">
   <si>
     <t>Alinity C</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>10 per box</t>
-  </si>
-  <si>
-    <t>ALKP Reagent</t>
   </si>
   <si>
     <t>08P2020</t>
@@ -1258,9 +1255,6 @@
     <t>08P88-12</t>
   </si>
   <si>
-    <t>Alkaline Wash (1/3)</t>
-  </si>
-  <si>
     <t>08P7840</t>
   </si>
   <si>
@@ -1270,9 +1264,6 @@
     <t>500ml</t>
   </si>
   <si>
-    <t>Alkaline Wash (2/3)</t>
-  </si>
-  <si>
     <t>01753UN24</t>
   </si>
   <si>
@@ -1526,6 +1517,472 @@
   </si>
   <si>
     <t>Olympus Plastics</t>
+  </si>
+  <si>
+    <t>26-430</t>
+  </si>
+  <si>
+    <t>210719-598-C</t>
+  </si>
+  <si>
+    <t>96tips/unit</t>
+  </si>
+  <si>
+    <t>Lab Guard Aptima</t>
+  </si>
+  <si>
+    <t>ACC Drawer</t>
+  </si>
+  <si>
+    <t>Nitrile Exam Gloves Powder Free Large</t>
+  </si>
+  <si>
+    <t>14-6978C</t>
+  </si>
+  <si>
+    <t>MKOD11-11</t>
+  </si>
+  <si>
+    <t>200 gloves/bo</t>
+  </si>
+  <si>
+    <t>ESR Bench Drawer</t>
+  </si>
+  <si>
+    <t>Nitrile Exam Gloves Powder Free Medium</t>
+  </si>
+  <si>
+    <t>14-6976C</t>
+  </si>
+  <si>
+    <t>50 ml Grauated Cyliner</t>
+  </si>
+  <si>
+    <t>T23S01261-0-23/06</t>
+  </si>
+  <si>
+    <t>Wash Bottle, Wide Mouth 500ml, LDPE, Round White Screw Cap</t>
+  </si>
+  <si>
+    <t>WGW236P</t>
+  </si>
+  <si>
+    <t>P48471</t>
+  </si>
+  <si>
+    <t>Cotton-Tipped Applicators 6in</t>
+  </si>
+  <si>
+    <t>24-106-2S</t>
+  </si>
+  <si>
+    <t>CRBD10-27</t>
+  </si>
+  <si>
+    <t>100 packs/box</t>
+  </si>
+  <si>
+    <t>Alinity C,I</t>
+  </si>
+  <si>
+    <t>Disposable Lab Coats Blue</t>
+  </si>
+  <si>
+    <t>CXXE01-05</t>
+  </si>
+  <si>
+    <t>10/bag</t>
+  </si>
+  <si>
+    <t>HbA1C Control</t>
+  </si>
+  <si>
+    <t>08P4310</t>
+  </si>
+  <si>
+    <t>65211UQ11</t>
+  </si>
+  <si>
+    <t>2-8*</t>
+  </si>
+  <si>
+    <t>Free T4 Reagent Kit</t>
+  </si>
+  <si>
+    <t>07P7030</t>
+  </si>
+  <si>
+    <t>63089UD00</t>
+  </si>
+  <si>
+    <t>600 tests/cart</t>
+  </si>
+  <si>
+    <t>ICT Module</t>
+  </si>
+  <si>
+    <t>09D2804</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Vit D 25OH Cals</t>
+  </si>
+  <si>
+    <t>05P0202</t>
+  </si>
+  <si>
+    <t>57359UD00</t>
+  </si>
+  <si>
+    <t>Syphilis TP Reagent Kit</t>
+  </si>
+  <si>
+    <t>07P6031</t>
+  </si>
+  <si>
+    <t>63522BE00</t>
+  </si>
+  <si>
+    <t>Microalbumin Ctrls</t>
+  </si>
+  <si>
+    <t>08P0414</t>
+  </si>
+  <si>
+    <t>54631UD00</t>
+  </si>
+  <si>
+    <t>ICT Urine Calibrator</t>
+  </si>
+  <si>
+    <t>08P7001</t>
+  </si>
+  <si>
+    <t>65389UQ01</t>
+  </si>
+  <si>
+    <t>Anti HBaAg Qual Ctrls</t>
+  </si>
+  <si>
+    <t>08P1012</t>
+  </si>
+  <si>
+    <t>64399FZ00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Anti HCV Ctrl</t>
+  </si>
+  <si>
+    <t>08P0510</t>
+  </si>
+  <si>
+    <t>58742BE00</t>
+  </si>
+  <si>
+    <t>Probe Conditioning Solution</t>
+  </si>
+  <si>
+    <t>01R5840</t>
+  </si>
+  <si>
+    <t>62459FZ00</t>
+  </si>
+  <si>
+    <t>2 carts/unit</t>
+  </si>
+  <si>
+    <t>Anti HBc IgM Reagent Kit</t>
+  </si>
+  <si>
+    <t>07P8621</t>
+  </si>
+  <si>
+    <t>62515BE00</t>
+  </si>
+  <si>
+    <t>FT4 Cals</t>
+  </si>
+  <si>
+    <t>07K6502</t>
+  </si>
+  <si>
+    <t>53194UD00</t>
+  </si>
+  <si>
+    <t>Total T3 Reagent Kit</t>
+  </si>
+  <si>
+    <t>07P9420</t>
+  </si>
+  <si>
+    <t>59460UD02</t>
+  </si>
+  <si>
+    <t>06P1265</t>
+  </si>
+  <si>
+    <t>65489FZ00</t>
+  </si>
+  <si>
+    <t>975 ml/bottle</t>
+  </si>
+  <si>
+    <t>HAVAb IgM Ctrl</t>
+  </si>
+  <si>
+    <t>08P2810</t>
+  </si>
+  <si>
+    <t>58471BE00</t>
+  </si>
+  <si>
+    <t>HBsAg Qual II Reagent Kit</t>
+  </si>
+  <si>
+    <t>08P1021</t>
+  </si>
+  <si>
+    <t>64165FZ00</t>
+  </si>
+  <si>
+    <t>Multichem U Control Technopath</t>
+  </si>
+  <si>
+    <t>08P8910</t>
+  </si>
+  <si>
+    <t>25-OH Vit D Reagent Kit</t>
+  </si>
+  <si>
+    <t>08P4532</t>
+  </si>
+  <si>
+    <t>64556UD01</t>
+  </si>
+  <si>
+    <t>500 tests/cart</t>
+  </si>
+  <si>
+    <t>07P5720</t>
+  </si>
+  <si>
+    <t>93051UN23</t>
+  </si>
+  <si>
+    <t>10x400 tests</t>
+  </si>
+  <si>
+    <t>RPR Card Test For Syphilis</t>
+  </si>
+  <si>
+    <t>4E16R1</t>
+  </si>
+  <si>
+    <t>Multichem IA Plus 1,2,3  Control</t>
+  </si>
+  <si>
+    <t>4 VIALS each level</t>
+  </si>
+  <si>
+    <t>HIV Ag/Ab Combo Reagent Kit</t>
+  </si>
+  <si>
+    <t>08P0731</t>
+  </si>
+  <si>
+    <t>65378BE00</t>
+  </si>
+  <si>
+    <t>Syphilis Ctrls</t>
+  </si>
+  <si>
+    <t>07P6010</t>
+  </si>
+  <si>
+    <t>62097BE00</t>
+  </si>
+  <si>
+    <t>Alinity Reaction Vessles</t>
+  </si>
+  <si>
+    <t>06P1401</t>
+  </si>
+  <si>
+    <t>Sample Probe (1/pkg</t>
+  </si>
+  <si>
+    <t>Sample Probe Tubing(1/pkg)</t>
+  </si>
+  <si>
+    <t>01G4805</t>
+  </si>
+  <si>
+    <t>Reagent Probe (1/pkg)</t>
+  </si>
+  <si>
+    <t>04S4901</t>
+  </si>
+  <si>
+    <t>Sample Probe Screw(1/pkg)</t>
+  </si>
+  <si>
+    <t>04S5301</t>
+  </si>
+  <si>
+    <t>Reagent Probe Screw(1/pkg)</t>
+  </si>
+  <si>
+    <t>04S5401</t>
+  </si>
+  <si>
+    <t>Integrated Chip Technology (ICT) Probe</t>
+  </si>
+  <si>
+    <t>09D6304</t>
+  </si>
+  <si>
+    <t>ICT Module (1/pkg)</t>
+  </si>
+  <si>
+    <t>Level Sensor Bulk Solution(1/pkg)</t>
+  </si>
+  <si>
+    <t>04S68-05</t>
+  </si>
+  <si>
+    <t>Wash Solution CheckValve (4/pkg)</t>
+  </si>
+  <si>
+    <t>09D3403</t>
+  </si>
+  <si>
+    <t>Sample Wash SolutionHolder (1/pkg)</t>
+  </si>
+  <si>
+    <t>04S7601</t>
+  </si>
+  <si>
+    <t>Quarterly MaintenanceKit (1 /pkg</t>
+  </si>
+  <si>
+    <t>04S46-01</t>
+  </si>
+  <si>
+    <t>Pipettor Probes (2/pkg)</t>
+  </si>
+  <si>
+    <t>03R9601</t>
+  </si>
+  <si>
+    <t>Wash Zone Probe (1/pkg)</t>
+  </si>
+  <si>
+    <t>08C9436</t>
+  </si>
+  <si>
+    <t>CLINITEK</t>
+  </si>
+  <si>
+    <t>Multistix 10SG Reagent Strips for Urinalysis</t>
+  </si>
+  <si>
+    <t>Tests_per_Cart</t>
+  </si>
+  <si>
+    <t>cat_no.</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>lot #</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatinine Reagent Kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reclosable Specimen Bags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multichem S Plus Control 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multichem IA Plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tox Drug Screen Control1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT Serum Calibrator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testosterone calibrator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total T4 Cals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH Cals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH Reagent Kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti HBc IgM Cals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiconstituent Calibrator (MC Cal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagent Cartidge Clear (Large) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrated Wash Buffer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAVAb IgM Reagent Kit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra HDL Reagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger Solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergent B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chol Reagent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergent A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microalbumin Reagent </t>
+  </si>
+  <si>
+    <t>2 00</t>
   </si>
   <si>
     <r>
@@ -1539,484 +1996,33 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>26-430</t>
-  </si>
-  <si>
-    <t>210719-598-C</t>
-  </si>
-  <si>
-    <t>96tips/unit</t>
-  </si>
-  <si>
-    <t>Lab Guard Aptima</t>
-  </si>
-  <si>
-    <t>ACC Drawer</t>
-  </si>
-  <si>
-    <t>Nitrile Exam Gloves Powder Free Large</t>
-  </si>
-  <si>
-    <t>14-6978C</t>
-  </si>
-  <si>
-    <t>MKOD11-11</t>
-  </si>
-  <si>
-    <t>200 gloves/bo</t>
-  </si>
-  <si>
-    <t>ESR Bench Drawer</t>
-  </si>
-  <si>
-    <t>Nitrile Exam Gloves Powder Free Medium</t>
-  </si>
-  <si>
-    <t>14-6976C</t>
-  </si>
-  <si>
-    <t>50 ml Grauated Cyliner</t>
-  </si>
-  <si>
-    <t>T23S01261-0-23/06</t>
-  </si>
-  <si>
-    <t>Wash Bottle, Wide Mouth 500ml, LDPE, Round White Screw Cap</t>
-  </si>
-  <si>
-    <t>WGW236P</t>
-  </si>
-  <si>
-    <t>P48471</t>
-  </si>
-  <si>
-    <t>Cotton-Tipped Applicators 6in</t>
-  </si>
-  <si>
-    <t>24-106-2S</t>
-  </si>
-  <si>
-    <t>CRBD10-27</t>
-  </si>
-  <si>
-    <t>100 packs/box</t>
-  </si>
-  <si>
-    <t>Alinity C,I</t>
-  </si>
-  <si>
-    <t>Disposable Lab Coats Blue</t>
-  </si>
-  <si>
-    <t>CXXE01-05</t>
-  </si>
-  <si>
-    <t>10/bag</t>
-  </si>
-  <si>
-    <t>HbA1C Control</t>
-  </si>
-  <si>
-    <t>08P4310</t>
-  </si>
-  <si>
-    <t>65211UQ11</t>
-  </si>
-  <si>
-    <t>2-8*</t>
-  </si>
-  <si>
-    <t>Free T4 Reagent Kit</t>
-  </si>
-  <si>
-    <t>07P7030</t>
-  </si>
-  <si>
-    <t>63089UD00</t>
-  </si>
-  <si>
-    <t>600 tests/cart</t>
-  </si>
-  <si>
-    <t>ICT Module</t>
-  </si>
-  <si>
-    <t>09D2804</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>Vit D 25OH Cals</t>
-  </si>
-  <si>
-    <t>05P0202</t>
-  </si>
-  <si>
-    <t>57359UD00</t>
-  </si>
-  <si>
-    <t>Syphilis TP Reagent Kit</t>
-  </si>
-  <si>
-    <t>07P6031</t>
-  </si>
-  <si>
-    <t>63522BE00</t>
-  </si>
-  <si>
-    <t>Microalbumin Ctrls</t>
-  </si>
-  <si>
-    <t>08P0414</t>
-  </si>
-  <si>
-    <t>54631UD00</t>
-  </si>
-  <si>
-    <t>ICT Urine Calibrator</t>
-  </si>
-  <si>
-    <t>08P7001</t>
-  </si>
-  <si>
-    <t>65389UQ01</t>
-  </si>
-  <si>
-    <t>Anti HBaAg Qual Ctrls</t>
-  </si>
-  <si>
-    <t>08P1012</t>
-  </si>
-  <si>
-    <t>64399FZ00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Anti HCV Ctrl</t>
-  </si>
-  <si>
-    <t>08P0510</t>
-  </si>
-  <si>
-    <t>58742BE00</t>
-  </si>
-  <si>
-    <t>Probe Conditioning Solution</t>
-  </si>
-  <si>
-    <t>01R5840</t>
-  </si>
-  <si>
-    <t>62459FZ00</t>
-  </si>
-  <si>
-    <t>2 carts/unit</t>
-  </si>
-  <si>
-    <t>Anti HBc IgM Reagent Kit</t>
-  </si>
-  <si>
-    <t>07P8621</t>
-  </si>
-  <si>
-    <t>62515BE00</t>
-  </si>
-  <si>
-    <t>FT4 Cals</t>
-  </si>
-  <si>
-    <t>07K6502</t>
-  </si>
-  <si>
-    <t>53194UD00</t>
-  </si>
-  <si>
-    <t>Total T3 Reagent Kit</t>
-  </si>
-  <si>
-    <t>07P9420</t>
-  </si>
-  <si>
-    <t>59460UD02</t>
-  </si>
-  <si>
-    <t>06P1265</t>
-  </si>
-  <si>
-    <t>65489FZ00</t>
-  </si>
-  <si>
-    <t>975 ml/bottle</t>
-  </si>
-  <si>
-    <t>HAVAb IgM Ctrl</t>
-  </si>
-  <si>
-    <t>08P2810</t>
-  </si>
-  <si>
-    <t>58471BE00</t>
-  </si>
-  <si>
-    <t>HBsAg Qual II Reagent Kit</t>
-  </si>
-  <si>
-    <t>08P1021</t>
-  </si>
-  <si>
-    <t>64165FZ00</t>
-  </si>
-  <si>
-    <t>Multichem U Control Technopath</t>
-  </si>
-  <si>
-    <t>08P8910</t>
-  </si>
-  <si>
-    <t>25-OH Vit D Reagent Kit</t>
-  </si>
-  <si>
-    <t>08P4532</t>
-  </si>
-  <si>
-    <t>64556UD01</t>
-  </si>
-  <si>
-    <t>500 tests/cart</t>
-  </si>
-  <si>
-    <t>07P5720</t>
-  </si>
-  <si>
-    <t>93051UN23</t>
-  </si>
-  <si>
-    <t>10x400 tests</t>
-  </si>
-  <si>
-    <t>RPR Card Test For Syphilis</t>
-  </si>
-  <si>
-    <t>4E16R1</t>
-  </si>
-  <si>
-    <t>Multichem IA Plus 1,2,3  Control</t>
-  </si>
-  <si>
-    <t>4 VIALS each level</t>
-  </si>
-  <si>
-    <t>HIV Ag/Ab Combo Reagent Kit</t>
-  </si>
-  <si>
-    <t>08P0731</t>
-  </si>
-  <si>
-    <t>65378BE00</t>
-  </si>
-  <si>
-    <t>Syphilis Ctrls</t>
-  </si>
-  <si>
-    <t>07P6010</t>
-  </si>
-  <si>
-    <t>62097BE00</t>
-  </si>
-  <si>
-    <t>Alinity Reaction Vessles</t>
-  </si>
-  <si>
-    <t>06P1401</t>
-  </si>
-  <si>
-    <t>Sample Probe (1/pkg</t>
-  </si>
-  <si>
-    <t>Sample Probe Tubing(1/pkg)</t>
-  </si>
-  <si>
-    <t>01G4805</t>
-  </si>
-  <si>
-    <t>Reagent Probe (1/pkg)</t>
-  </si>
-  <si>
-    <t>04S4901</t>
-  </si>
-  <si>
-    <t>Sample Probe Screw(1/pkg)</t>
-  </si>
-  <si>
-    <t>04S5301</t>
-  </si>
-  <si>
-    <t>Reagent Probe Screw(1/pkg)</t>
-  </si>
-  <si>
-    <t>04S5401</t>
-  </si>
-  <si>
-    <t>Integrated Chip Technology (ICT) Probe</t>
-  </si>
-  <si>
-    <t>09D6304</t>
-  </si>
-  <si>
-    <t>ICT Module (1/pkg)</t>
-  </si>
-  <si>
-    <t>Level Sensor Bulk Solution(1/pkg)</t>
-  </si>
-  <si>
-    <t>04S68-05</t>
-  </si>
-  <si>
-    <t>Wash Solution CheckValve (4/pkg)</t>
-  </si>
-  <si>
-    <t>09D3403</t>
-  </si>
-  <si>
-    <t>Sample Wash SolutionHolder (1/pkg)</t>
-  </si>
-  <si>
-    <t>04S7601</t>
-  </si>
-  <si>
-    <t>Quarterly MaintenanceKit (1 /pkg</t>
-  </si>
-  <si>
-    <t>04S46-01</t>
-  </si>
-  <si>
-    <t>Pipettor Probes (2/pkg)</t>
-  </si>
-  <si>
-    <t>03R9601</t>
-  </si>
-  <si>
-    <t>Wash Zone Probe (1/pkg)</t>
-  </si>
-  <si>
-    <t>08C9436</t>
-  </si>
-  <si>
-    <t>CLINITEK</t>
-  </si>
-  <si>
-    <t>Multistix 10SG Reagent Strips for Urinalysis</t>
-  </si>
-  <si>
-    <t>Tests_per_Cart</t>
-  </si>
-  <si>
-    <t>cat_no.</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>expiration</t>
-  </si>
-  <si>
-    <t>lot #</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albumin BCP Reagent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acid Probe Wash </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatinine Reagent Kit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALT2 Reagent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acid Wash </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reclosable Specimen Bags </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multichem S Plus Control 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multichem IA Plus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tox Drug Screen Control1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICT Serum Calibrator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testosterone calibrator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total T4 Cals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH Cals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH Reagent Kit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti HBc IgM Cals </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiconstituent Calibrator (MC Cal) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent Cartidge Clear (Large) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentrated Wash Buffer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAVAb IgM Reagent Kit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultra HDL Reagent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigger Solution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detergent B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chol Reagent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detergent A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microalbumin Reagent </t>
-  </si>
-  <si>
-    <t>2 00</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(96tips/unit)</t>
+    </r>
+  </si>
+  <si>
+    <t>Acid Probe Wash  (10 per box)</t>
+  </si>
+  <si>
+    <t>Acid Wash  (500ml/bottle)</t>
+  </si>
+  <si>
+    <t>Albumin BCP Reagent  (10x345 tests)</t>
+  </si>
+  <si>
+    <t>Alkaline Wash (500ml)</t>
+  </si>
+  <si>
+    <t>ALKP Reagent (10x400)</t>
+  </si>
+  <si>
+    <t>ALT2 Reagent  (4x300)</t>
   </si>
 </sst>
 </file>
@@ -2565,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2579,199 +2585,183 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>627</v>
+        <v>308</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45854</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="16">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="15">
+        <v>45492</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" s="16">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="15">
+        <v>46026</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45959</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>45914</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="9">
-        <v>18</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>382</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>383</v>
       </c>
       <c r="D5" s="15">
-        <v>46026</v>
+        <v>45868</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="6">
+        <v>602562</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>46169</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9">
-        <v>10</v>
+      <c r="G6" s="16">
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>46224</v>
+        <v>45914</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -2785,54 +2775,54 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>646</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="15">
-        <v>45939</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>46169</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="16">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
         <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>646</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15">
-        <v>45991</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46224</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="16">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -2840,57 +2830,57 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>647</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15">
-        <v>45889</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>46064</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>46046</v>
+        <v>46242</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G11" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -2898,28 +2888,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>648</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="15">
-        <v>45732</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="6">
-        <v>300</v>
-      </c>
-      <c r="G12" s="16">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45854</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -2927,144 +2917,144 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>648</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15">
-        <v>46112</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45959</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9">
         <v>10</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="D14" s="7">
-        <v>45876</v>
+        <v>46011</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>404</v>
       </c>
       <c r="G14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="D15" s="7">
-        <v>45991</v>
+        <v>46210</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>404</v>
       </c>
       <c r="G15" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>629</v>
+        <v>406</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="D16" s="7">
-        <v>46046</v>
+        <v>46232</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>407</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>47</v>
+        <v>404</v>
       </c>
       <c r="G16" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="7">
-        <v>46064</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="15">
+        <v>46026</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="G17" s="16">
+        <v>8</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -3072,28 +3062,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>46242</v>
+        <v>45876</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -3101,28 +3091,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>651</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="15">
-        <v>46022</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45991</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="16">
+        <v>42</v>
+      </c>
+      <c r="G19" s="9">
         <v>6</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="6">
         <v>1</v>
@@ -3130,60 +3120,60 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="D20" s="7">
-        <v>46128</v>
+        <v>45860</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G20" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="D21" s="7">
-        <v>46183</v>
+        <v>45978</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G21" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3191,28 +3181,28 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D22" s="15">
-        <v>45930</v>
+        <v>45939</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G22" s="16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3220,198 +3210,186 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>371</v>
+      </c>
+      <c r="D23" s="15">
+        <v>45887</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>372</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G23" s="16">
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3469</v>
+        <v>140</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D24" s="15">
-        <v>46168</v>
-      </c>
-      <c r="E24" s="6">
-        <v>240580</v>
+        <v>45993</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>380</v>
       </c>
       <c r="D25" s="15">
-        <v>45965</v>
+        <v>46179</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="16">
         <v>1</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D26" s="15">
-        <v>45934</v>
+        <v>46100</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="6">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>448</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="15">
-        <v>46084</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>80</v>
+        <v>450</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="17" t="s">
+        <v>451</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="G27" s="16">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="6">
-        <v>2</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>442</v>
       </c>
       <c r="D28" s="15">
-        <v>46146</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="16">
-        <v>2</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>650</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="7">
-        <v>46120</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="9">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="D29" s="15">
+        <v>45732</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="6">
+        <v>300</v>
+      </c>
+      <c r="G29" s="16">
+        <v>6</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3419,115 +3397,111 @@
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>650</v>
+        <v>203</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="7">
-        <v>46120</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>89</v>
+        <v>204</v>
+      </c>
+      <c r="D30" s="15">
+        <v>46142</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="9">
-        <v>20</v>
+        <v>206</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
       </c>
       <c r="H30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="6">
         <v>4</v>
-      </c>
-      <c r="I30" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>650</v>
+        <v>22</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="7">
-        <v>46197</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>90</v>
+        <v>23</v>
+      </c>
+      <c r="D31" s="15">
+        <v>45991</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="9">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G31" s="16">
+        <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="15">
-        <v>45945</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>93</v>
+        <v>485</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>4003763</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>94</v>
+        <v>487</v>
       </c>
       <c r="G32" s="16">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="6">
-        <v>2</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D33" s="15">
-        <v>46021</v>
+        <v>45889</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="G33" s="16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3535,28 +3509,26 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>651</v>
+        <v>217</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="7">
-        <v>46123</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>100</v>
+        <v>218</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="9">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>644</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I34" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3564,28 +3536,28 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7">
-        <v>46334</v>
+        <v>46128</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G35" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3593,505 +3565,481 @@
         <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>641</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="15">
-        <v>45912</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="D36" s="7">
+        <v>46183</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="16">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9">
         <v>8</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="D37" s="15">
-        <v>45964</v>
+        <v>45980</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="G37" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="I37" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>646</v>
+        <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="7">
-        <v>46329</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="D38" s="15">
+        <v>46112</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="9">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="G38" s="16">
+        <v>10</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>114</v>
+        <v>636</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="16">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D39" s="7">
+        <v>45995</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="9">
+        <v>2</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I39" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>117</v>
+        <v>636</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="15">
-        <v>46100</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="16">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D40" s="7">
+        <v>46090</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="9">
+        <v>4</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="I40" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="D41" s="15">
-        <v>46026</v>
+        <v>46354</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="G41" s="16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="I41" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="D42" s="15">
-        <v>45939</v>
+        <v>47057</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="G42" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="I42" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="15">
-        <v>45939</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="G43" s="16">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="6">
         <v>4</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>129</v>
+        <v>453</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="7">
-        <v>46417</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="9">
-        <v>4</v>
+        <v>454</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="16">
+        <v>10</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="6">
-        <v>2</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>132</v>
+        <v>507</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="15">
-        <v>46002</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>134</v>
+        <v>509</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>135</v>
+        <v>510</v>
       </c>
       <c r="G45" s="16">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>138</v>
+        <v>623</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="15">
-        <v>46337</v>
-      </c>
-      <c r="E46" s="6">
-        <v>24118720</v>
+        <v>30</v>
+      </c>
+      <c r="D46" s="7">
+        <v>46046</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="16">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I46" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>141</v>
+        <v>623</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="15">
-        <v>45993</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>143</v>
+        <v>44</v>
+      </c>
+      <c r="D47" s="7">
+        <v>46046</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="16">
+        <v>46</v>
+      </c>
+      <c r="G47" s="9">
+        <v>10</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="6">
         <v>1</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>644</v>
+        <v>52</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="7">
-        <v>45995</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>146</v>
+        <v>53</v>
+      </c>
+      <c r="D48" s="15">
+        <v>46022</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="9">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="G48" s="16">
+        <v>6</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I48" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>644</v>
+        <v>232</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="7">
-        <v>46090</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="9">
+        <v>233</v>
+      </c>
+      <c r="D49" s="15">
+        <v>46234</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="6">
         <v>4</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="6">
-        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>647</v>
+        <v>295</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="7">
-        <v>45925</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D50" s="15">
+        <v>45639</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="9">
-        <v>3</v>
+        <v>290</v>
+      </c>
+      <c r="G50" s="16">
+        <v>1</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="6">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>647</v>
+        <v>62</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="7">
-        <v>46215</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="9">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="16">
+        <v>1</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I51" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="7">
-        <v>45953</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="9">
-        <v>14</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" s="6">
+        <v>26657</v>
+      </c>
+      <c r="D52" s="15">
+        <v>46234</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="16">
+        <v>10</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
+      </c>
+      <c r="D53" s="7">
+        <v>46120</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G53" s="9">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>4</v>
@@ -4102,82 +4050,86 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D54" s="7">
-        <v>45832</v>
+        <v>46120</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G54" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>144</v>
+        <v>4</v>
+      </c>
+      <c r="I54" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D55" s="7">
-        <v>45918</v>
+        <v>46197</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G55" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>144</v>
+        <v>4</v>
+      </c>
+      <c r="I55" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="15">
-        <v>46160</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="D56" s="7">
+        <v>45953</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="16">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G56" s="9">
+        <v>14</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I56" s="6">
         <v>2</v>
@@ -4185,26 +4137,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>163</v>
+        <v>640</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="15">
-        <v>46089</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="16">
+        <v>151</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="9">
+        <v>20</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="I57" s="6">
         <v>2</v>
@@ -4212,234 +4166,246 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>166</v>
+        <v>453</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>167</v>
+        <v>512</v>
       </c>
       <c r="C58" s="6">
-        <v>87334</v>
-      </c>
-      <c r="D58" s="15">
-        <v>46203</v>
-      </c>
+        <v>34181200</v>
+      </c>
+      <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>513</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="G58" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="6">
-        <v>3</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>170</v>
+        <v>66</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3469</v>
       </c>
       <c r="D59" s="15">
-        <v>45968</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>171</v>
+        <v>46168</v>
+      </c>
+      <c r="E59" s="6">
+        <v>240580</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" s="16">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>173</v>
+        <v>357</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+        <v>358</v>
+      </c>
+      <c r="D60" s="15">
+        <v>45949</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G60" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="6">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="D61" s="15">
+        <v>45964</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G61" s="16">
         <v>2</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" s="6">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>178</v>
+        <v>360</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="D62" s="7">
+        <v>46039</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="F62" s="6" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="G62" s="16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="6">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D63" s="15">
+        <v>45939</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="6">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="6">
-        <v>87331</v>
+        <v>413</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="D64" s="15">
-        <v>46022</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>184</v>
+        <v>46059</v>
+      </c>
+      <c r="E64" s="6">
+        <v>10691473</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="16">
-        <v>2</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="6">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="6">
-        <v>94600</v>
+        <v>235</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="D65" s="15">
-        <v>46081</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>186</v>
+        <v>45601</v>
+      </c>
+      <c r="E65" s="6">
+        <v>10686943</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="16" t="s">
-        <v>187</v>
+      <c r="G65" s="16">
+        <v>20</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="D66" s="15">
-        <v>45957</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>191</v>
-      </c>
+        <v>45781</v>
+      </c>
+      <c r="E66" s="6">
+        <v>10662819</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="6">
         <v>4</v>
@@ -4447,57 +4413,51 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D67" s="15">
-        <v>45980</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>195</v>
-      </c>
+        <v>45781</v>
+      </c>
+      <c r="E67" s="6">
+        <v>10662819</v>
+      </c>
+      <c r="F67" s="6"/>
       <c r="G67" s="16">
-        <v>3</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="6">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="D68" s="15">
-        <v>46150</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>199</v>
-      </c>
+        <v>45639</v>
+      </c>
+      <c r="E68" s="6">
+        <v>10687231</v>
+      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="6">
         <v>4</v>
@@ -4505,86 +4465,80 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>642</v>
+        <v>239</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="7">
-        <v>46099</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G69" s="9">
-        <v>2</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="6">
-        <v>4</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D69" s="15">
+        <v>45639</v>
+      </c>
+      <c r="E69" s="6">
+        <v>10687231</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="16">
+        <v>5</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>642</v>
+        <v>59</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="7">
-        <v>46243</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>203</v>
+        <v>60</v>
+      </c>
+      <c r="D70" s="15">
+        <v>45930</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G70" s="9">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="G70" s="16">
+        <v>15</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D71" s="15">
-        <v>46142</v>
+        <v>45956</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>207</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F71" s="6"/>
       <c r="G71" s="16">
         <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="6">
         <v>4</v>
@@ -4592,89 +4546,85 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>643</v>
+        <v>363</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="7">
-        <v>53327</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>209</v>
+        <v>364</v>
+      </c>
+      <c r="D72" s="15">
+        <v>46001</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="9">
+        <v>18</v>
+      </c>
+      <c r="G72" s="16">
+        <v>2</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I72" s="6">
-        <v>4</v>
+      <c r="I72" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="D73" s="7">
-        <v>53327</v>
+        <v>45832</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I73" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>211</v>
+        <v>637</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="15">
-        <v>53327</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="16">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="D74" s="7">
+        <v>45918</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="9">
+        <v>1</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I74" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4682,355 +4632,359 @@
         <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="D75" s="15">
+        <v>45912</v>
+      </c>
       <c r="E75" s="6" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="G75" s="16">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I75" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>218</v>
+        <v>373</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>374</v>
+      </c>
+      <c r="D76" s="15">
+        <v>45897</v>
+      </c>
       <c r="E76" s="6" t="s">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>652</v>
+        <v>18</v>
+      </c>
+      <c r="G76" s="16">
+        <v>1</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I76" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="D77" s="15">
-        <v>46354</v>
+        <v>45786</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="F77" s="6"/>
       <c r="G77" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>226</v>
+        <v>352</v>
       </c>
       <c r="D78" s="15">
-        <v>46384</v>
+        <v>45932</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="G78" s="16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="D79" s="15">
-        <v>45956</v>
+        <v>45974</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="16">
         <v>1</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="15">
-        <v>46234</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>235</v>
+        <v>337</v>
+      </c>
+      <c r="D80" s="7">
+        <v>46008</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="F80" s="6"/>
-      <c r="G80" s="16">
+      <c r="G80" s="9">
         <v>1</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>236</v>
+        <v>415</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>237</v>
+        <v>416</v>
       </c>
       <c r="D81" s="15">
-        <v>45601</v>
+        <v>45835</v>
       </c>
       <c r="E81" s="6">
-        <v>10686943</v>
+        <v>10687231</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="16">
-        <v>20</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="6">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="D82" s="15">
-        <v>45781</v>
-      </c>
-      <c r="E82" s="6">
-        <v>10662819</v>
-      </c>
-      <c r="F82" s="6"/>
+        <v>45945</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="G82" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I82" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D83" s="15">
-        <v>45639</v>
-      </c>
-      <c r="E83" s="6">
-        <v>10687231</v>
-      </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="16">
-        <v>5</v>
+        <v>312</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="6">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="D84" s="15">
-        <v>45774</v>
-      </c>
-      <c r="E84" s="6">
-        <v>10693178</v>
-      </c>
-      <c r="F84" s="6"/>
+        <v>45968</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="G84" s="16">
         <v>5</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I84" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>245</v>
+        <v>628</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="15">
-        <v>45809</v>
-      </c>
-      <c r="E85" s="6">
-        <v>10670357</v>
-      </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="16">
-        <v>5</v>
+        <v>385</v>
+      </c>
+      <c r="D85" s="7">
+        <v>46152</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G85" s="9">
+        <v>2</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="6">
         <v>4</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>247</v>
+        <v>628</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D86" s="15">
-        <v>53327</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>249</v>
+        <v>385</v>
+      </c>
+      <c r="D86" s="7">
+        <v>46217</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G86" s="16">
-        <v>2</v>
+        <v>387</v>
+      </c>
+      <c r="G86" s="9">
+        <v>10</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I86" s="6">
         <v>4</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D87" s="15">
-        <v>47057</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>254</v>
+        <v>45851</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G87" s="16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I87" s="6">
         <v>4</v>
@@ -5038,361 +4992,349 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
-        <v>255</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C88" s="6">
+        <v>87334</v>
+      </c>
+      <c r="D88" s="15">
+        <v>46203</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="6"/>
       <c r="G88" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I88" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>258</v>
+        <v>182</v>
+      </c>
+      <c r="C89" s="6">
+        <v>87331</v>
       </c>
       <c r="D89" s="15">
-        <v>46073</v>
+        <v>46022</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>260</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F89" s="6"/>
       <c r="G89" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I89" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>22</v>
+        <v>471</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>641</v>
+        <v>479</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" s="7">
-        <v>45860</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>262</v>
+        <v>480</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="9">
-        <v>1</v>
+        <v>478</v>
+      </c>
+      <c r="G90" s="16">
+        <v>2</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>22</v>
+        <v>471</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>641</v>
+        <v>475</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="7">
-        <v>45978</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>264</v>
+        <v>476</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="9">
+        <v>478</v>
+      </c>
+      <c r="G91" s="16">
         <v>2</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>265</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>22</v>
+        <v>471</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>266</v>
+        <v>482</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D92" s="15">
-        <v>45851</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>268</v>
+        <v>483</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="G92" s="16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="6">
-        <v>4</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D93" s="15">
-        <v>45746</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>269</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I93" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>640</v>
+        <v>174</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D94" s="7">
-        <v>46190</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>274</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="9">
-        <v>1</v>
+      <c r="G94" s="16">
+        <v>2</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>136</v>
+        <v>4</v>
+      </c>
+      <c r="I94" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D95" s="7">
-        <v>46258</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="9">
-        <v>2</v>
+        <v>225</v>
+      </c>
+      <c r="D95" s="15">
+        <v>46384</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="16">
+        <v>9</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="I95" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="D96" s="15">
-        <v>45997</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>45774</v>
+      </c>
+      <c r="E96" s="6">
+        <v>10693178</v>
+      </c>
+      <c r="F96" s="6"/>
       <c r="G96" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>144</v>
+        <v>12</v>
+      </c>
+      <c r="I96" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>639</v>
+        <v>256</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D97" s="7">
-        <v>45905</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>280</v>
+        <v>257</v>
+      </c>
+      <c r="D97" s="15">
+        <v>46073</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="9">
+        <v>259</v>
+      </c>
+      <c r="G97" s="16">
         <v>1</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I97" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>639</v>
+        <v>246</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" s="7">
-        <v>46122</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>281</v>
+        <v>247</v>
+      </c>
+      <c r="D98" s="15">
+        <v>53327</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="9">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="G98" s="16">
+        <v>2</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I98" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="D99" s="15">
-        <v>45974</v>
+        <v>46084</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F99" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G99" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="I99" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="D100" s="15">
+        <v>46150</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="G100" s="16">
         <v>1</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>287</v>
+        <v>12</v>
+      </c>
+      <c r="I100" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5400,26 +5342,28 @@
         <v>0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>288</v>
+        <v>643</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6" t="s">
-        <v>290</v>
+        <v>98</v>
+      </c>
+      <c r="D101" s="7">
+        <v>46123</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G101" s="16">
+        <v>100</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="6">
         <v>2</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5427,45 +5371,55 @@
         <v>0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>292</v>
+        <v>643</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="16">
-        <v>3</v>
+        <v>98</v>
+      </c>
+      <c r="D102" s="7">
+        <v>46334</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G102" s="9">
+        <v>2</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>287</v>
+        <v>12</v>
+      </c>
+      <c r="I102" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="E103" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="G103" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5473,693 +5427,685 @@
         <v>0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>297</v>
+        <v>391</v>
       </c>
       <c r="D104" s="15">
-        <v>45639</v>
-      </c>
-      <c r="E104" s="6"/>
+        <v>45930</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="F104" s="6" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="G104" s="16">
-        <v>1</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>298</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>177</v>
+        <v>419</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
+        <v>626</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D105" s="7">
+        <v>45657</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>431</v>
+      </c>
       <c r="F105" s="6"/>
-      <c r="G105" s="16">
-        <v>2</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>298</v>
-      </c>
+      <c r="G105" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>301</v>
+        <v>626</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G106" s="16">
-        <v>3</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>298</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D106" s="7">
+        <v>46112</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F106" s="6"/>
+      <c r="G106" s="9">
+        <v>7</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>305</v>
+        <v>626</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G107" s="16">
-        <v>1</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>298</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D107" s="7">
+        <v>46721</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="9">
+        <v>4</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
+        <v>396</v>
+      </c>
+      <c r="D108" s="15">
+        <v>45808</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="F108" s="6"/>
       <c r="G108" s="16">
-        <v>9</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>312</v>
+        <v>420</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D109" s="15">
+        <v>46022</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="F109" s="6"/>
+      <c r="G109" s="16">
+        <v>20</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D110" s="15">
+        <v>45808</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="16">
+        <v>4</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>319</v>
+        <v>625</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D111" s="7">
+        <v>46022</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" s="9">
+        <v>12</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>322</v>
+        <v>625</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D112" s="7">
+        <v>46842</v>
+      </c>
+      <c r="E112" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="F112" s="6"/>
+      <c r="G112" s="9">
+        <v>12</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
+        <v>401</v>
+      </c>
+      <c r="D113" s="15">
+        <v>45808</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>425</v>
+      </c>
       <c r="F113" s="6"/>
-      <c r="G113" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="G113" s="16">
+        <v>5</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
+        <v>401</v>
+      </c>
+      <c r="D114" s="15">
+        <v>46022</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>429</v>
+      </c>
       <c r="F114" s="6"/>
-      <c r="G114" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="G114" s="16">
+        <v>12</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>311</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D115" s="15">
+        <v>45808</v>
+      </c>
+      <c r="E115" s="6">
+        <v>130112201</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G115" s="16">
+        <v>12</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="D116" s="15">
-        <v>45786</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F116" s="6"/>
+        <v>45808</v>
+      </c>
+      <c r="E116" s="6">
+        <v>130112202</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="G116" s="16">
-        <v>1</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116" s="6" t="s">
-        <v>336</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D117" s="7">
-        <v>46008</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="9">
-        <v>1</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="D117" s="15">
+        <v>45808</v>
+      </c>
+      <c r="E117" s="6">
+        <v>130112203</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G117" s="16">
+        <v>12</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C118" s="6">
-        <v>11561694</v>
-      </c>
-      <c r="D118" s="15">
-        <v>45838</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="16">
-        <v>6</v>
+        <v>634</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="7">
+        <v>46099</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G118" s="9">
+        <v>2</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>336</v>
+        <v>12</v>
+      </c>
+      <c r="I118" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C119" s="6">
-        <v>900025</v>
-      </c>
-      <c r="D119" s="15">
-        <v>45808</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="16">
-        <v>1</v>
+        <v>634</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" s="7">
+        <v>46243</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" s="9">
+        <v>4</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>336</v>
+        <v>12</v>
+      </c>
+      <c r="I119" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>638</v>
+        <v>495</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D120" s="7">
-        <v>45854</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>347</v>
+        <v>496</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" s="9">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="G120" s="16">
+        <v>7</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>638</v>
+        <v>500</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D121" s="7">
-        <v>45865</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>348</v>
+        <v>501</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>497</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="9">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="G121" s="16">
+        <v>9</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>350</v>
+        <v>138</v>
       </c>
       <c r="D122" s="15">
-        <v>45925</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>351</v>
+        <v>46337</v>
+      </c>
+      <c r="E122" s="6">
+        <v>24118720</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="G122" s="16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I122" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" s="15">
-        <v>45932</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D123" s="6"/>
       <c r="E123" s="6" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="G123" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="D124" s="15">
-        <v>45875</v>
+        <v>46002</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="F124" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G124" s="16">
         <v>19</v>
       </c>
-      <c r="G124" s="16">
-        <v>1</v>
-      </c>
       <c r="H124" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>22</v>
+        <v>471</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>358</v>
+        <v>472</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D125" s="15">
-        <v>45949</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G125" s="16">
         <v>1</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>361</v>
+        <v>210</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D126" s="7">
-        <v>46039</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>363</v>
+        <v>211</v>
+      </c>
+      <c r="D126" s="15">
+        <v>53327</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G126" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I126" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>364</v>
+        <v>635</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D127" s="15">
-        <v>46001</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>366</v>
+        <v>207</v>
+      </c>
+      <c r="D127" s="7">
+        <v>53327</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F127" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G127" s="9">
         <v>19</v>
       </c>
-      <c r="G127" s="16">
-        <v>2</v>
-      </c>
       <c r="H127" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I127" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>367</v>
+        <v>207</v>
       </c>
       <c r="D128" s="7">
-        <v>45853</v>
+        <v>53327</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>368</v>
+        <v>209</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="G128" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I128" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>637</v>
+        <v>284</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D129" s="7">
-        <v>45965</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="G129" s="9">
+        <v>285</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="16">
         <v>1</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6167,1478 +6113,1538 @@
         <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D130" s="15">
-        <v>45887</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="6" t="s">
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="G130" s="16">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>263</v>
+        <v>50</v>
+      </c>
+      <c r="I130" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D131" s="15">
-        <v>45897</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>376</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G131" s="16">
         <v>1</v>
       </c>
-      <c r="H131" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D132" s="15">
-        <v>45906</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" s="16">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D133" s="15">
-        <v>46179</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>382</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="16">
-        <v>1</v>
+      <c r="G133" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D134" s="15">
-        <v>45868</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>385</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="16">
-        <v>1</v>
+      <c r="G134" s="18" t="s">
+        <v>331</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D135" s="7">
-        <v>46152</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G135" s="9">
-        <v>2</v>
+        <v>624</v>
+      </c>
+      <c r="C135" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="D135" s="15">
+        <v>46356</v>
+      </c>
+      <c r="E135" s="6">
+        <v>911360</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="16">
+        <v>10</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>389</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D136" s="7">
-        <v>46217</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G136" s="9">
+        <v>624</v>
+      </c>
+      <c r="C136" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="D136" s="15">
+        <v>46477</v>
+      </c>
+      <c r="E136" s="6">
+        <v>918444</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="16">
         <v>10</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>389</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>391</v>
+        <v>187</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>392</v>
+        <v>188</v>
       </c>
       <c r="D137" s="15">
-        <v>45930</v>
+        <v>45957</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>393</v>
+        <v>189</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="G137" s="16">
-        <v>7</v>
-      </c>
-      <c r="H137" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I137" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>397</v>
+        <v>343</v>
+      </c>
+      <c r="C138" s="6">
+        <v>900025</v>
       </c>
       <c r="D138" s="15">
         <v>45808</v>
       </c>
-      <c r="E138" s="6">
-        <v>130112201</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>398</v>
-      </c>
+      <c r="E138" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F138" s="6"/>
       <c r="G138" s="16">
-        <v>12</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I138" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D139" s="15">
-        <v>45808</v>
-      </c>
-      <c r="E139" s="6">
-        <v>130112202</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G139" s="16">
-        <v>12</v>
-      </c>
-      <c r="H139" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I139" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D140" s="15">
-        <v>45808</v>
-      </c>
-      <c r="E140" s="6">
-        <v>130112203</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
       <c r="F140" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G140" s="16">
-        <v>12</v>
-      </c>
-      <c r="H140" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I140" s="6"/>
+        <v>290</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D141" s="7">
-        <v>46011</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>405</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
       <c r="F141" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G141" s="9">
-        <v>2</v>
+        <v>290</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I141" s="6">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D142" s="7">
-        <v>46210</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>408</v>
+        <v>444</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="17" t="s">
+        <v>445</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G142" s="9">
+        <v>446</v>
+      </c>
+      <c r="G142" s="16">
         <v>4</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I142" s="6">
-        <v>1</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D143" s="7">
-        <v>46232</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>410</v>
+        <v>444</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6">
+        <v>861853</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G143" s="9">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="G143" s="16">
+        <v>6</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I143" s="6">
-        <v>1</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C144" s="6">
-        <v>94613</v>
-      </c>
-      <c r="D144" s="7">
-        <v>46043</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="9">
-        <v>2</v>
-      </c>
-      <c r="H144" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I144" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G144" s="16">
+        <v>1</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C145" s="6">
-        <v>94613</v>
-      </c>
-      <c r="D145" s="7">
-        <v>46121</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="9">
-        <v>2</v>
-      </c>
-      <c r="H145" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I145" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="16">
+        <v>10</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I145" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C146" s="6">
-        <v>94614</v>
-      </c>
-      <c r="D146" s="15">
-        <v>46045</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>415</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="16">
-        <v>4</v>
-      </c>
-      <c r="H146" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I146" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>416</v>
+        <v>453</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>458</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D147" s="15">
-        <v>46059</v>
-      </c>
-      <c r="E147" s="6">
-        <v>10691473</v>
-      </c>
-      <c r="F147" s="6"/>
+        <v>459</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="G147" s="16">
-        <v>16</v>
-      </c>
-      <c r="H147" s="17" t="s">
-        <v>412</v>
+        <v>2</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>238</v>
+        <v>453</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D148" s="15">
-        <v>45781</v>
-      </c>
-      <c r="E148" s="6">
-        <v>10662819</v>
-      </c>
-      <c r="F148" s="6"/>
+        <v>463</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="G148" s="16">
-        <v>6</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>412</v>
+        <v>1</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D149" s="15">
-        <v>45639</v>
-      </c>
-      <c r="E149" s="6">
-        <v>10687231</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="16">
-        <v>5</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I149" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D150" s="15">
-        <v>45835</v>
-      </c>
-      <c r="E150" s="6">
-        <v>10687231</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E150" s="8"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="16">
-        <v>5</v>
-      </c>
-      <c r="H150" s="17" t="s">
-        <v>412</v>
+      <c r="G150" s="9">
+        <v>1</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
-      <c r="B151" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="C151" s="6">
-        <v>26657</v>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="D151" s="15">
-        <v>46234</v>
+        <v>45925</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F151" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G151" s="16">
-        <v>10</v>
-      </c>
-      <c r="H151" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I151" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>423</v>
+        <v>453</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>465</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D152" s="15">
-        <v>45808</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="F152" s="6"/>
+        <v>466</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="G152" s="16">
-        <v>8</v>
-      </c>
-      <c r="H152" s="17" t="s">
-        <v>412</v>
+        <v>3</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>425</v>
+        <v>453</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>468</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D153" s="15">
-        <v>45808</v>
-      </c>
-      <c r="E153" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="F153" s="6"/>
+        <v>469</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="G153" s="16">
         <v>4</v>
       </c>
-      <c r="H153" s="17" t="s">
-        <v>412</v>
+      <c r="H153" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>427</v>
+        <v>629</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D154" s="15">
-        <v>45808</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="F154" s="6"/>
-      <c r="G154" s="16">
-        <v>5</v>
-      </c>
-      <c r="H154" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="I154" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="D154" s="7">
+        <v>45853</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>423</v>
+        <v>629</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D155" s="15">
-        <v>46022</v>
-      </c>
-      <c r="E155" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="F155" s="6"/>
-      <c r="G155" s="16">
-        <v>20</v>
-      </c>
-      <c r="H155" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I155" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="D155" s="7">
+        <v>45965</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>633</v>
+        <v>275</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D156" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="F156" s="6"/>
-      <c r="G156" s="9">
-        <v>12</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I156" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="D156" s="15">
+        <v>45997</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G156" s="16">
+        <v>3</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>633</v>
+        <v>269</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D157" s="7">
-        <v>46842</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="F157" s="6"/>
-      <c r="G157" s="9">
+        <v>270</v>
+      </c>
+      <c r="D157" s="15">
+        <v>45746</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G157" s="16">
+        <v>15</v>
+      </c>
+      <c r="H157" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H157" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I157" s="6"/>
+      <c r="I157" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>427</v>
+        <v>113</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>402</v>
+        <v>114</v>
       </c>
       <c r="D158" s="15">
-        <v>46022</v>
-      </c>
-      <c r="E158" s="17" t="s">
-        <v>432</v>
+        <v>45894</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="16">
-        <v>12</v>
-      </c>
-      <c r="H158" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I158" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>634</v>
+        <v>94</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D159" s="7">
-        <v>45657</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I159" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D159" s="15">
+        <v>46021</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G159" s="16">
+        <v>4</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>634</v>
+        <v>376</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D160" s="7">
-        <v>46112</v>
-      </c>
-      <c r="E160" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="F160" s="6"/>
-      <c r="G160" s="9">
-        <v>7</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I160" s="6"/>
+        <v>377</v>
+      </c>
+      <c r="D160" s="15">
+        <v>45906</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="16">
+        <v>1</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>634</v>
+        <v>125</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D161" s="7">
-        <v>46721</v>
-      </c>
-      <c r="E161" s="20" t="s">
-        <v>437</v>
+        <v>126</v>
+      </c>
+      <c r="D161" s="15">
+        <v>45939</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="F161" s="6"/>
-      <c r="G161" s="9">
+      <c r="G161" s="16">
         <v>4</v>
       </c>
-      <c r="H161" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="I161" s="6"/>
+      <c r="H161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>439</v>
+        <v>354</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="E162" s="8"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="9">
+        <v>355</v>
+      </c>
+      <c r="D162" s="15">
+        <v>45875</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="16">
         <v>1</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I162" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>442</v>
+        <v>630</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="D163" s="7">
+        <v>45854</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="F163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="9">
+        <v>1</v>
+      </c>
+      <c r="H163" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G163" s="16">
-        <v>1</v>
-      </c>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
+      <c r="I163" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>444</v>
+        <v>630</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D164" s="15">
-        <v>45061</v>
-      </c>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
-      <c r="G164" s="16">
+        <v>345</v>
+      </c>
+      <c r="D164" s="7">
+        <v>45865</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="9">
         <v>1</v>
       </c>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D165" s="6"/>
-      <c r="E165" s="17" t="s">
-        <v>448</v>
+        <v>70</v>
+      </c>
+      <c r="D165" s="15">
+        <v>45965</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>449</v>
+        <v>72</v>
       </c>
       <c r="G165" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I165" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G166" s="16">
-        <v>40</v>
+        <v>184</v>
+      </c>
+      <c r="C166" s="6">
+        <v>94600</v>
+      </c>
+      <c r="D166" s="15">
+        <v>46081</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F166" s="6"/>
+      <c r="G166" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I166" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I166" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>456</v>
+        <v>165</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
+        <v>627</v>
+      </c>
+      <c r="C167" s="6">
+        <v>94613</v>
+      </c>
+      <c r="D167" s="7">
+        <v>46043</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>408</v>
+      </c>
       <c r="F167" s="6"/>
-      <c r="G167" s="16">
-        <v>10</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>450</v>
+      <c r="G167" s="9">
+        <v>2</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="I167" s="6"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>456</v>
+        <v>165</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>458</v>
+        <v>627</v>
       </c>
       <c r="C168" s="6">
-        <v>559</v>
-      </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G168" s="16">
-        <v>4</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>450</v>
+        <v>94613</v>
+      </c>
+      <c r="D168" s="7">
+        <v>46121</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="9">
+        <v>2</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="I168" s="6"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D169" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C169" s="6">
+        <v>94614</v>
+      </c>
+      <c r="D169" s="15">
+        <v>46045</v>
+      </c>
       <c r="E169" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>464</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="F169" s="6"/>
       <c r="G169" s="16">
-        <v>2</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>450</v>
+        <v>4</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>409</v>
       </c>
       <c r="I169" s="6"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C170" s="6">
+        <v>559</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G170" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I170" s="6"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>468</v>
+        <v>158</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="D171" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="D171" s="15">
+        <v>46160</v>
+      </c>
       <c r="E171" s="6" t="s">
-        <v>470</v>
+        <v>161</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>464</v>
+        <v>11</v>
       </c>
       <c r="G171" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I171" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I171" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>471</v>
+        <v>21</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>639</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
-        <v>473</v>
+        <v>148</v>
+      </c>
+      <c r="D172" s="7">
+        <v>45925</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="G172" s="16">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="G172" s="9">
+        <v>3</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I172" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="I172" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>474</v>
+        <v>21</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>475</v>
+        <v>639</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6" t="s">
-        <v>477</v>
+        <v>148</v>
+      </c>
+      <c r="D173" s="7">
+        <v>46215</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" s="16">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="G173" s="9">
+        <v>4</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I173" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="I173" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>478</v>
+        <v>631</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6" t="s">
-        <v>480</v>
+        <v>278</v>
+      </c>
+      <c r="D174" s="7">
+        <v>45905</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G174" s="16">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="G174" s="9">
+        <v>1</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I174" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>482</v>
+        <v>631</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6" t="s">
-        <v>484</v>
+        <v>278</v>
+      </c>
+      <c r="D175" s="7">
+        <v>46122</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G175" s="16">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I175" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I175" s="6" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>474</v>
+        <v>21</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>485</v>
+        <v>81</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D176" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="D176" s="15">
+        <v>46146</v>
+      </c>
       <c r="E176" s="6" t="s">
-        <v>487</v>
+        <v>83</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>481</v>
+        <v>84</v>
       </c>
       <c r="G176" s="16">
         <v>2</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="I176" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I176" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>456</v>
+        <v>21</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6">
-        <v>4003763</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="G177" s="16">
-        <v>70</v>
+        <v>632</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D177" s="7">
+        <v>46190</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F177" s="6"/>
+      <c r="G177" s="9">
+        <v>1</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="I177" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I177" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>492</v>
+        <v>21</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>493</v>
+        <v>632</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D178" s="15">
-        <v>45492</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G178" s="16">
-        <v>5</v>
+        <v>272</v>
+      </c>
+      <c r="D178" s="7">
+        <v>46258</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F178" s="6"/>
+      <c r="G178" s="9">
+        <v>2</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="I178" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>497</v>
+        <v>339</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>632</v>
+        <v>340</v>
       </c>
       <c r="C179" s="6">
-        <v>6095719</v>
+        <v>11561694</v>
       </c>
       <c r="D179" s="15">
-        <v>46356</v>
-      </c>
-      <c r="E179" s="6">
-        <v>911360</v>
+        <v>45838</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="I179" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>497</v>
+        <v>241</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="C180" s="6">
-        <v>6095719</v>
+        <v>244</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="D180" s="15">
-        <v>46477</v>
+        <v>45809</v>
       </c>
       <c r="E180" s="6">
-        <v>918444</v>
+        <v>10670357</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="I180" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I180" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>499</v>
+        <v>638</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6" t="s">
-        <v>501</v>
+        <v>110</v>
+      </c>
+      <c r="D181" s="7">
+        <v>46329</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="G181" s="16">
-        <v>7</v>
+        <v>112</v>
+      </c>
+      <c r="G181" s="9">
+        <v>4</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I181" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I181" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>456</v>
+        <v>128</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>504</v>
+        <v>638</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6" t="s">
-        <v>501</v>
+        <v>110</v>
+      </c>
+      <c r="D182" s="7">
+        <v>46417</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="G182" s="16">
-        <v>9</v>
+        <v>112</v>
+      </c>
+      <c r="G182" s="9">
+        <v>4</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I182" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I182" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="C183" s="6">
-        <v>602562</v>
-      </c>
-      <c r="D183" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" s="15">
+        <v>45934</v>
+      </c>
       <c r="E183" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F183" s="6">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G183" s="16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I183" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I183" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>508</v>
+        <v>162</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D184" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="D184" s="15">
+        <v>46089</v>
+      </c>
       <c r="E184" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="F184" s="6">
-        <v>1</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F184" s="6"/>
       <c r="G184" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I184" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I184" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>456</v>
+        <v>176</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>512</v>
+        <v>178</v>
       </c>
       <c r="D185" s="6"/>
-      <c r="E185" s="6" t="s">
-        <v>513</v>
-      </c>
+      <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
-        <v>514</v>
+        <v>179</v>
       </c>
       <c r="G185" s="16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I185" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="I185" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>515</v>
+        <v>65</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="D186" s="6"/>
-      <c r="E186" s="6">
-        <v>861853</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>449</v>
+      <c r="E186" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1</v>
       </c>
       <c r="G186" s="16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I186" s="6"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>456</v>
+        <v>21</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="C187" s="6">
-        <v>34181200</v>
+        <v>293</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D187" s="6"/>
-      <c r="E187" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>518</v>
-      </c>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
       <c r="G187" s="16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I187" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
@@ -7667,21 +7673,21 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D190" s="4">
         <v>45730</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="3"/>
       <c r="H190" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I190" s="2"/>
     </row>
@@ -7690,23 +7696,23 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D191" s="4">
         <v>45736</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I191" s="2"/>
     </row>
@@ -7715,10 +7721,10 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D192" s="4">
         <v>45748</v>
@@ -7727,11 +7733,11 @@
         <v>240701</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I192" s="2"/>
     </row>
@@ -7740,23 +7746,23 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D193" s="4">
         <v>45749</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I193" s="2"/>
     </row>
@@ -7765,148 +7771,148 @@
         <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D194" s="4">
         <v>45751</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I194" s="2"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D195" s="4">
         <v>45754</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="3"/>
       <c r="H195" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D196" s="4">
         <v>45755</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I196" s="2"/>
     </row>
     <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D197" s="7">
         <v>45757</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D198" s="4">
         <v>45782</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G198" s="3"/>
       <c r="H198" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D199" s="4">
         <v>45785</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I199" s="2"/>
     </row>
@@ -7915,23 +7921,23 @@
         <v>0</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D200" s="12">
         <v>45796</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G200" s="13"/>
       <c r="H200" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I200" s="2"/>
     </row>
@@ -7940,23 +7946,23 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D201" s="4">
         <v>45799</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I201" s="2"/>
     </row>
@@ -7965,23 +7971,23 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D202" s="4">
         <v>45801</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I202" s="2"/>
     </row>
@@ -7990,85 +7996,85 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D203" s="4">
         <v>45801</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D204" s="4">
         <v>45821</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D205" s="4">
         <v>45830</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I205" s="2"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D206" s="4">
         <v>45838</v>
@@ -8079,57 +8085,57 @@
       <c r="F206" s="2"/>
       <c r="G206" s="3"/>
       <c r="H206" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I206" s="2"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D207" s="4">
         <v>45871</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D208" s="4">
         <v>45889</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I208" s="2"/>
     </row>
@@ -8138,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C209" s="2">
         <v>900025</v>
@@ -8147,14 +8153,14 @@
         <v>46081</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G209" s="3"/>
       <c r="H209" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I209" s="2"/>
     </row>
@@ -8163,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D210" s="4">
         <v>46112</v>
@@ -8175,7 +8181,7 @@
         <v>32411230</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G210" s="3"/>
       <c r="H210" s="2">
@@ -8188,67 +8194,67 @@
         <v>0</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G211" s="3"/>
       <c r="H211" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I211" s="2"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G212" s="3"/>
       <c r="H212" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I212" s="2"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2">
         <v>806455</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G213" s="3"/>
       <c r="H213" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I213" s="2"/>
     </row>
@@ -8257,10 +8263,10 @@
         <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -8274,10 +8280,10 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -8291,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -8308,10 +8314,10 @@
         <v>0</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -8325,10 +8331,10 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -8342,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -8359,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -8376,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8393,10 +8399,10 @@
         <v>0</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8410,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8427,10 +8433,10 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8441,13 +8447,13 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8458,13 +8464,13 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8475,10 +8481,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C227" s="2">
         <v>2161</v>
@@ -8491,6 +8497,9 @@
       <c r="I227" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I187">
+    <sortCondition ref="B2:B187"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A05FC66-C06F-4E00-9EB5-3F26F6AC65C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D99F8-AD82-4D6E-A9DB-C637872D3590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1368" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -2093,16 +2093,16 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0D99F8-AD82-4D6E-A9DB-C637872D3590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677E380-D4C4-4954-BF61-4603CA46FD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1368" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
+    <workbookView xWindow="288" yWindow="7920" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="622">
   <si>
     <t>Alinity C</t>
   </si>
@@ -167,9 +167,6 @@
     <t>08P7740</t>
   </si>
   <si>
-    <t>65704UN24</t>
-  </si>
-  <si>
     <t>500ml/bottle</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
   </si>
   <si>
     <t>100 pipettes/box</t>
-  </si>
-  <si>
-    <t>2 boxes</t>
   </si>
   <si>
     <t>07P9520</t>
@@ -409,9 +403,6 @@
     <t>06P1368</t>
   </si>
   <si>
-    <t>72267FZ00</t>
-  </si>
-  <si>
     <t>2L/bottle</t>
   </si>
   <si>
@@ -472,9 +463,6 @@
     <t>K306750-03</t>
   </si>
   <si>
-    <t>ICT Sample Diluent</t>
-  </si>
-  <si>
     <t>07P5320</t>
   </si>
   <si>
@@ -817,18 +805,12 @@
     <t>4, box3</t>
   </si>
   <si>
-    <t>ICT Reference Solution Check Valve</t>
-  </si>
-  <si>
     <t>09D3503</t>
   </si>
   <si>
     <t>1/pkg</t>
   </si>
   <si>
-    <t>4 pkg</t>
-  </si>
-  <si>
     <t>09D5203</t>
   </si>
   <si>
@@ -841,9 +823,6 @@
     <t>09D5303</t>
   </si>
   <si>
-    <t>20 pkg</t>
-  </si>
-  <si>
     <t>09D3904</t>
   </si>
   <si>
@@ -991,24 +970,15 @@
     <t>-80C</t>
   </si>
   <si>
-    <t>Multichem S Plus Level 1 Control</t>
-  </si>
-  <si>
     <t>08P88-10</t>
   </si>
   <si>
     <t>12 VIALS PER BOX</t>
   </si>
   <si>
-    <t>Multichem S Plus Level 2  Control</t>
-  </si>
-  <si>
     <t>08P88-11</t>
   </si>
   <si>
-    <t>Multichem S Plus Level 3  Control</t>
-  </si>
-  <si>
     <t>08P88-12</t>
   </si>
   <si>
@@ -1021,9 +991,6 @@
     <t>500ml</t>
   </si>
   <si>
-    <t>01753UN24</t>
-  </si>
-  <si>
     <t>3026UN25</t>
   </si>
   <si>
@@ -1060,21 +1027,12 @@
     <t>Technopath</t>
   </si>
   <si>
-    <t>Multichem S Plus Control 1</t>
-  </si>
-  <si>
     <t>0130112201</t>
   </si>
   <si>
-    <t>Multichem S Plus Control 2</t>
-  </si>
-  <si>
     <t>0130112202</t>
   </si>
   <si>
-    <t>Multichem S Plus Control 3</t>
-  </si>
-  <si>
     <t>0130112203</t>
   </si>
   <si>
@@ -1096,9 +1054,6 @@
     <t>037209220</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>032411230</t>
   </si>
   <si>
@@ -1192,9 +1147,6 @@
     <t>F4AB04907</t>
   </si>
   <si>
-    <t>Large 2 Tube EDI Reject Flow Adjust Assy</t>
-  </si>
-  <si>
     <t>ZF3000712</t>
   </si>
   <si>
@@ -1204,18 +1156,12 @@
     <t>1/bag</t>
   </si>
   <si>
-    <t xml:space="preserve">Large 2 Tube EDI Production Flow Adjust </t>
-  </si>
-  <si>
     <t>ZF3000722</t>
   </si>
   <si>
     <t>F4BB08773</t>
   </si>
   <si>
-    <t>Large 2 Tube EDI Rejet Flow Adjust 5PSI</t>
-  </si>
-  <si>
     <t>ZF3000723</t>
   </si>
   <si>
@@ -1267,9 +1213,6 @@
     <t>14-6976C</t>
   </si>
   <si>
-    <t>50 ml Grauated Cyliner</t>
-  </si>
-  <si>
     <t>T23S01261-0-23/06</t>
   </si>
   <si>
@@ -1454,12 +1397,6 @@
   </si>
   <si>
     <t>shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reclosable Specimen Bags </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multichem S Plus Control 2 </t>
   </si>
   <si>
     <t xml:space="preserve">Multiconstituent Calibrator (MC Cal) </t>
@@ -1613,9 +1550,6 @@
     <t>Coolant (0.5 gallon)</t>
   </si>
   <si>
-    <t>Cotton-Tipped Applicators (200 applicators per box)</t>
-  </si>
-  <si>
     <t>CRP Reagent (290 reactions per cartridge)</t>
   </si>
   <si>
@@ -1733,18 +1667,6 @@
     <t>Multichem A1C control Technopath (each vial)</t>
   </si>
   <si>
-    <t>Multichem IA Plus 1 (one unit)</t>
-  </si>
-  <si>
-    <t>Multichem IA Plus 2 (one unit)</t>
-  </si>
-  <si>
-    <t>Multichem IA Plus 3 (one unit)</t>
-  </si>
-  <si>
-    <t>Multichem S Plus Control 1 (one unit)</t>
-  </si>
-  <si>
     <t>Nitrile Exam Gloves Powder Free Large (200 gloves per box)</t>
   </si>
   <si>
@@ -1886,12 +1808,6 @@
     <t>Tox Drug Screen  ( 1 unit)</t>
   </si>
   <si>
-    <t>Tox Drug Screen Control1 (1 unit)</t>
-  </si>
-  <si>
-    <t>Tox Drug Screen Control2 (1 unit)</t>
-  </si>
-  <si>
     <t>Transfer Pipettors 7ml, 3ml Draw (500 pipettors per box)</t>
   </si>
   <si>
@@ -1947,6 +1863,75 @@
   </si>
   <si>
     <t>4 sets per box</t>
+  </si>
+  <si>
+    <t>Tox Drug Screen Control1 (1 box)</t>
+  </si>
+  <si>
+    <t>Tox Drug Screen Control2 (1 box)</t>
+  </si>
+  <si>
+    <t>Multichem S Plus Control 2 (one glass vial)</t>
+  </si>
+  <si>
+    <t>Multichem S Plus Control 1 (one glass vial)</t>
+  </si>
+  <si>
+    <t>Multichem S Plus Control 3 (one glass vial)</t>
+  </si>
+  <si>
+    <t>Multichem IA Plus 1 (one glass vial)</t>
+  </si>
+  <si>
+    <t>Multichem IA Plus 2 (one glass vial)</t>
+  </si>
+  <si>
+    <t>Multichem IA Plus 3 (one glass vial)</t>
+  </si>
+  <si>
+    <t>Reclosable Specimen Bags (box)</t>
+  </si>
+  <si>
+    <t>50 ml Grauated Cyliner (each)</t>
+  </si>
+  <si>
+    <t>01753UN25</t>
+  </si>
+  <si>
+    <t>66500UQ06</t>
+  </si>
+  <si>
+    <t>Cotton-Tipped Applicators (box, 200 applicators per box)</t>
+  </si>
+  <si>
+    <t>ICT Reference Solution Check Valve (package, 1 per package)</t>
+  </si>
+  <si>
+    <t>ICT Sample Diluent (carts)</t>
+  </si>
+  <si>
+    <t>Large 2 Tube EDI Production Flow Adjust  (1 per bag)</t>
+  </si>
+  <si>
+    <t>Large 2 Tube EDI Reject Flow Adjust Assy (1 per bag)</t>
+  </si>
+  <si>
+    <t>Large 2 Tube EDI Rejet Flow Adjust 5PSI (1 per bag)</t>
+  </si>
+  <si>
+    <t>1  per bag</t>
+  </si>
+  <si>
+    <t>1 per package</t>
+  </si>
+  <si>
+    <t>1 mL per vial</t>
+  </si>
+  <si>
+    <t>Multichem U</t>
+  </si>
+  <si>
+    <t>05P80-10</t>
   </si>
 </sst>
 </file>
@@ -2507,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:XFD192"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,34 +2510,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2560,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2572,43 +2557,43 @@
         <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J2" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D3" s="11">
         <v>45492</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G3" s="12">
         <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2616,16 +2601,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="11">
         <v>46026</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="12">
@@ -2635,10 +2620,10 @@
         <v>18</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2646,16 +2631,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D5" s="11">
         <v>45868</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="12">
@@ -2665,25 +2650,25 @@
         <v>18</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>406</v>
+        <v>608</v>
       </c>
       <c r="C6" s="6">
         <v>602562</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -2692,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -2701,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -2716,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>4</v>
@@ -2725,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2733,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2757,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2765,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2789,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2797,31 +2782,31 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>46064</v>
+        <v>46210</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2829,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>42</v>
@@ -2838,22 +2823,22 @@
         <v>46242</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="9">
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2861,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1</v>
@@ -2885,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2893,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
@@ -2917,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2925,31 +2910,31 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7">
         <v>46011</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G14" s="9">
         <v>2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2957,31 +2942,31 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D15" s="7">
-        <v>46210</v>
+        <v>46232</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G15" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2989,54 +2974,54 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="7">
-        <v>46232</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>325</v>
+        <v>9</v>
+      </c>
+      <c r="D16" s="11">
+        <v>46026</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="G16" s="12">
+        <v>8</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>488</v>
+      <c r="J16" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11">
-        <v>46026</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45876</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="12">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>12</v>
@@ -3045,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3053,22 +3038,22 @@
         <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>45876</v>
+        <v>45991</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>12</v>
@@ -3077,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3085,31 +3070,31 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="D19" s="7">
-        <v>45991</v>
+        <v>45860</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G19" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>492</v>
+        <v>18</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3117,63 +3102,63 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>45860</v>
+        <v>45978</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>45978</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>218</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="11">
+        <v>45939</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="9">
-        <v>2</v>
+      <c r="G21" s="12">
+        <v>1</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3181,16 +3166,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="D22" s="11">
-        <v>45939</v>
+        <v>45887</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
@@ -3202,30 +3187,30 @@
         <v>18</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="D23" s="11">
-        <v>45887</v>
+        <v>45993</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G23" s="12">
         <v>1</v>
@@ -3234,31 +3219,29 @@
         <v>18</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="D24" s="11">
-        <v>45993</v>
+        <v>46179</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="12">
         <v>1</v>
       </c>
@@ -3266,27 +3249,27 @@
         <v>18</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11">
-        <v>46179</v>
+        <v>46100</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>302</v>
+        <v>97</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="12">
@@ -3296,242 +3279,239 @@
         <v>18</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="11">
-        <v>46100</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="6"/>
+        <v>348</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="G26" s="12">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="20" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>503</v>
+        <v>341</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>365</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45061</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="12">
-        <v>40</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>361</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="20" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>356</v>
+        <v>484</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>357</v>
+        <v>30</v>
       </c>
       <c r="D28" s="11">
-        <v>45061</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>45732</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6">
+        <v>300</v>
+      </c>
       <c r="G28" s="12">
+        <v>6</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="6">
         <v>1</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="J28" s="20" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="D29" s="11">
-        <v>45732</v>
+        <v>46142</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="6">
-        <v>300</v>
+        <v>165</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="G29" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="D30" s="11">
-        <v>46142</v>
+        <v>45991</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="G30" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="11">
-        <v>45991</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>22</v>
+        <v>373</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>4003763</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="G31" s="12">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>484</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
-        <v>4003763</v>
+        <v>487</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="11">
+        <v>45889</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="G32" s="12">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="I32" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>508</v>
+        <v>175</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="11">
-        <v>45889</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="12">
-        <v>9</v>
+        <v>174</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="H33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="6">
         <v>4</v>
-      </c>
-      <c r="I33" s="6">
-        <v>1</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -3539,26 +3519,31 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>181</v>
+        <v>49</v>
+      </c>
+      <c r="D34" s="7">
+        <v>46128</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>472</v>
+        <v>11</v>
+      </c>
+      <c r="G34" s="9">
+        <v>8</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I34" s="6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3566,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="7">
-        <v>46128</v>
+        <v>46183</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>51</v>
@@ -3590,39 +3575,39 @@
         <v>1</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="7">
-        <v>46183</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>52</v>
+        <v>154</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45980</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="9">
-        <v>8</v>
+        <v>156</v>
+      </c>
+      <c r="G36" s="12">
+        <v>3</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3630,39 +3615,33 @@
         <v>20</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="D37" s="11">
-        <v>45980</v>
+        <v>45869</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>159</v>
+        <v>610</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="G37" s="12">
-        <v>3</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="6">
-        <v>4</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>478</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>32</v>
@@ -3686,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3694,422 +3673,431 @@
         <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="7">
+        <v>46090</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="7">
-        <v>45995</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G39" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" s="6">
         <v>3</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="7">
-        <v>46090</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>122</v>
+        <v>178</v>
+      </c>
+      <c r="D40" s="11">
+        <v>46354</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="9">
+        <v>180</v>
+      </c>
+      <c r="G40" s="12">
+        <v>8</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="6">
         <v>4</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="6">
-        <v>3</v>
-      </c>
       <c r="J40" s="20" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D41" s="11">
-        <v>46354</v>
+        <v>47057</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G41" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I41" s="6">
         <v>4</v>
       </c>
-      <c r="J41" s="20" t="s">
-        <v>478</v>
-      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>207</v>
+        <v>351</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="11">
-        <v>47057</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>210</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="6">
-        <v>4</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>611</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>392</v>
+      </c>
       <c r="F43" s="6" t="s">
-        <v>210</v>
+        <v>393</v>
       </c>
       <c r="G43" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="6">
-        <v>4</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="12">
-        <v>10</v>
+        <v>495</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="7">
+        <v>46046</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="9">
+        <v>2</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I44" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>411</v>
+        <v>39</v>
+      </c>
+      <c r="D45" s="7">
+        <v>46046</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G45" s="12">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="G45" s="9">
+        <v>10</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="7">
-        <v>46046</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="D46" s="11">
+        <v>46022</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="9">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="G46" s="12">
+        <v>6</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I46" s="6">
         <v>1</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="7">
-        <v>46046</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="9">
-        <v>10</v>
+        <v>188</v>
+      </c>
+      <c r="D47" s="11">
+        <v>46234</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="12">
+        <v>1</v>
       </c>
       <c r="H47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="6">
         <v>4</v>
       </c>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>484</v>
+      <c r="J47" s="21" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="D48" s="11">
-        <v>46022</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>45639</v>
+      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="G48" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>484</v>
+        <v>44</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="11">
-        <v>46234</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="12">
         <v>1</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I49" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>245</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C50" s="6">
+        <v>26657</v>
       </c>
       <c r="D50" s="11">
-        <v>45639</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
-        <v>241</v>
-      </c>
+        <v>46234</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="12">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>520</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="12">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D51" s="7">
+        <v>46120</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="9">
+        <v>3</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="I51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" s="6">
-        <v>26657</v>
-      </c>
-      <c r="D52" s="11">
-        <v>46234</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="12">
-        <v>10</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="21"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="7">
+        <v>46120</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="9">
+        <v>20</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="6">
+        <v>2</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D53" s="7">
-        <v>46120</v>
+        <v>46197</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G53" s="9">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>4</v>
@@ -4118,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4126,22 +4114,22 @@
         <v>0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D54" s="7">
-        <v>46120</v>
+        <v>45953</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G54" s="9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>4</v>
@@ -4150,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4158,22 +4146,22 @@
         <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="7">
-        <v>46197</v>
+        <v>123</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="G55" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>4</v>
@@ -4182,146 +4170,146 @@
         <v>2</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="7">
-        <v>45953</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>127</v>
+        <v>502</v>
+      </c>
+      <c r="C56" s="6">
+        <v>34181200</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="9">
-        <v>14</v>
+        <v>396</v>
+      </c>
+      <c r="G56" s="12">
+        <v>7</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="6">
-        <v>2</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>484</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>129</v>
+        <v>503</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3469</v>
+      </c>
+      <c r="D57" s="11">
+        <v>46168</v>
+      </c>
+      <c r="E57" s="6">
+        <v>240580</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="9">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="G57" s="12">
+        <v>2</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="I57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C58" s="6">
-        <v>34181200</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>505</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="11">
+        <v>45949</v>
+      </c>
       <c r="E58" s="6" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>415</v>
+        <v>17</v>
       </c>
       <c r="G58" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C59" s="6">
-        <v>3469</v>
+        <v>506</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D59" s="11">
-        <v>46168</v>
-      </c>
-      <c r="E59" s="6">
-        <v>240580</v>
+        <v>45964</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G59" s="12">
+        <v>2</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="6">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D60" s="11">
-        <v>45949</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="D60" s="7">
+        <v>46039</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>17</v>
@@ -4333,31 +4321,29 @@
         <v>18</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>17</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D61" s="11">
-        <v>45964</v>
+        <v>45939</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="12">
         <v>2</v>
       </c>
@@ -4365,103 +4351,95 @@
         <v>18</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>529</v>
+        <v>319</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="7">
-        <v>46039</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="D62" s="11">
+        <v>46059</v>
+      </c>
+      <c r="E62" s="6">
+        <v>10691473</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="12">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>478</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D63" s="11">
-        <v>45939</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>103</v>
+        <v>45601</v>
+      </c>
+      <c r="E63" s="6">
+        <v>10686943</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J63" s="21" t="s">
-        <v>500</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I63" s="6">
+        <v>4</v>
+      </c>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="D64" s="11">
-        <v>46059</v>
+        <v>45781</v>
       </c>
       <c r="E64" s="6">
-        <v>10691473</v>
+        <v>10662819</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="12">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>194</v>
@@ -4470,191 +4448,205 @@
         <v>195</v>
       </c>
       <c r="D65" s="11">
-        <v>45601</v>
+        <v>45639</v>
       </c>
       <c r="E65" s="6">
-        <v>10686943</v>
+        <v>10687231</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="12">
-        <v>20</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="6">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I65" s="6"/>
       <c r="J65" s="21"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>196</v>
+        <v>509</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="D66" s="11">
-        <v>45781</v>
-      </c>
-      <c r="E66" s="6">
-        <v>10662819</v>
-      </c>
-      <c r="F66" s="6"/>
+        <v>45930</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G66" s="12">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="6">
-        <v>4</v>
-      </c>
-      <c r="J66" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="J66" s="21" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>196</v>
+        <v>515</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D67" s="11">
-        <v>45781</v>
-      </c>
-      <c r="E67" s="6">
-        <v>10662819</v>
+        <v>45956</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="12">
-        <v>6</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="6">
+        <v>4</v>
+      </c>
+      <c r="J67" s="21" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>198</v>
+        <v>510</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="D68" s="11">
-        <v>45639</v>
-      </c>
-      <c r="E68" s="6">
-        <v>10687231</v>
-      </c>
-      <c r="F68" s="6"/>
+        <v>46001</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G68" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="6">
-        <v>4</v>
-      </c>
-      <c r="J68" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J68" s="21" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D69" s="11">
-        <v>45639</v>
-      </c>
-      <c r="E69" s="6">
-        <v>10687231</v>
+        <v>127</v>
+      </c>
+      <c r="D69" s="7">
+        <v>45832</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="12">
-        <v>5</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="21"/>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" s="21" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="11">
-        <v>45930</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="12">
-        <v>15</v>
+        <v>127</v>
+      </c>
+      <c r="D70" s="7">
+        <v>45918</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="9">
+        <v>1</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="6">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="D71" s="11">
-        <v>45956</v>
+        <v>45912</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F71" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G71" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I71" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -4662,31 +4654,31 @@
         <v>20</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D72" s="11">
-        <v>46001</v>
+        <v>45897</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -4694,29 +4686,29 @@
         <v>20</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="7">
-        <v>45832</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>131</v>
+        <v>260</v>
+      </c>
+      <c r="D73" s="11">
+        <v>45786</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="G73" s="9">
+      <c r="G73" s="12">
         <v>1</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -4724,61 +4716,61 @@
         <v>20</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="7">
-        <v>45918</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="9">
+        <v>274</v>
+      </c>
+      <c r="D74" s="11">
+        <v>45932</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="12">
         <v>1</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="D75" s="11">
-        <v>45912</v>
+        <v>45974</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="6">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>535</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -4786,594 +4778,606 @@
         <v>20</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D76" s="11">
-        <v>45897</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="12">
+        <v>263</v>
+      </c>
+      <c r="D76" s="7">
+        <v>46008</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="9">
         <v>1</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>536</v>
+        <v>321</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="D77" s="11">
-        <v>45786</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>268</v>
+        <v>45835</v>
+      </c>
+      <c r="E77" s="6">
+        <v>10687231</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="12">
-        <v>1</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J77" s="21" t="s">
-        <v>478</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="D78" s="11">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="G78" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J78" s="21" t="s">
-        <v>478</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I78" s="6">
+        <v>2</v>
+      </c>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D79" s="11">
-        <v>45974</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F79" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="G79" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="21" t="s">
-        <v>478</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="7">
-        <v>46008</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="9">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="D80" s="11">
+        <v>45968</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" s="12">
+        <v>5</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="I80" s="6">
+        <v>2</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>332</v>
+        <v>521</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D81" s="11">
-        <v>45835</v>
-      </c>
-      <c r="E81" s="6">
-        <v>10687231</v>
-      </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="12">
-        <v>5</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I81" s="6"/>
-      <c r="J81" s="21"/>
+        <v>298</v>
+      </c>
+      <c r="D81" s="7">
+        <v>46152</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" s="11">
-        <v>45945</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>78</v>
+        <v>298</v>
+      </c>
+      <c r="D82" s="7">
+        <v>46217</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" s="12">
-        <v>8</v>
+        <v>300</v>
+      </c>
+      <c r="G82" s="9">
+        <v>10</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I82" s="6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="D83" s="11">
+        <v>45851</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="F83" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>259</v>
+        <v>219</v>
+      </c>
+      <c r="G83" s="12">
+        <v>15</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>255</v>
+        <v>12</v>
+      </c>
+      <c r="I83" s="6">
+        <v>4</v>
       </c>
       <c r="J83" s="21"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="C84" s="6">
+        <v>87334</v>
       </c>
       <c r="D84" s="11">
-        <v>45968</v>
+        <v>46203</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F84" s="6"/>
       <c r="G84" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I84" s="6">
-        <v>2</v>
-      </c>
-      <c r="J84" s="21" t="s">
-        <v>484</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D85" s="7">
-        <v>46152</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G85" s="9">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C85" s="6">
+        <v>87331</v>
+      </c>
+      <c r="D85" s="11">
+        <v>46022</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="6"/>
+      <c r="G85" s="12">
+        <v>2</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J85" s="21" t="s">
-        <v>542</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I85" s="6">
+        <v>3</v>
+      </c>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D86" s="7">
-        <v>46217</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>309</v>
+        <v>369</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="G86" s="9">
-        <v>5</v>
+        <v>368</v>
+      </c>
+      <c r="G86" s="12">
+        <v>2</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J86" s="21"/>
+        <v>346</v>
+      </c>
+      <c r="I86" s="6"/>
+      <c r="J86" s="21" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>220</v>
+        <v>615</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D87" s="11">
-        <v>45851</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>222</v>
+        <v>366</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>223</v>
+        <v>368</v>
       </c>
       <c r="G87" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="6">
-        <v>4</v>
-      </c>
-      <c r="J87" s="21"/>
+        <v>346</v>
+      </c>
+      <c r="I87" s="6"/>
+      <c r="J87" s="21" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="6">
-        <v>87334</v>
-      </c>
-      <c r="D88" s="11">
-        <v>46203</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D88" s="6"/>
       <c r="E88" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F88" s="6"/>
+        <v>372</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="G88" s="12">
         <v>2</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="6">
-        <v>3</v>
-      </c>
-      <c r="J88" s="21"/>
+        <v>346</v>
+      </c>
+      <c r="I88" s="6"/>
+      <c r="J88" s="21" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" s="6">
-        <v>87331</v>
-      </c>
-      <c r="D89" s="11">
-        <v>46022</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="12">
         <v>2</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I89" s="6">
         <v>3</v>
       </c>
-      <c r="J89" s="21"/>
+      <c r="J89" s="21" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>385</v>
+        <v>522</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="D90" s="6"/>
-      <c r="E90" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="12">
         <v>2</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I90" s="6"/>
-      <c r="J90" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="I90" s="6">
+        <v>3</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="D91" s="11">
+        <v>46384</v>
+      </c>
       <c r="E91" s="6" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="G91" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I91" s="6"/>
-      <c r="J91" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="I91" s="6">
+        <v>4</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>388</v>
+        <v>197</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>384</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D92" s="11">
+        <v>45774</v>
+      </c>
+      <c r="E92" s="6">
+        <v>10693178</v>
+      </c>
+      <c r="F92" s="6"/>
       <c r="G92" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I92" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="I92" s="6">
+        <v>4</v>
+      </c>
       <c r="J92" s="21"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>145</v>
+        <v>524</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="D93" s="11">
+        <v>46073</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="G93" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="I93" s="6">
-        <v>3</v>
-      </c>
-      <c r="J93" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="D94" s="11">
+        <v>53327</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="G94" s="12">
         <v>2</v>
       </c>
       <c r="H94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" s="6">
         <v>4</v>
       </c>
-      <c r="I94" s="6">
-        <v>3</v>
-      </c>
-      <c r="J94" s="21"/>
+      <c r="J94" s="21" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>185</v>
+        <v>525</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="D95" s="11">
-        <v>46384</v>
+        <v>46084</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="G95" s="12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I95" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>201</v>
+        <v>529</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D96" s="11">
-        <v>45774</v>
-      </c>
-      <c r="E96" s="6">
-        <v>10693178</v>
-      </c>
-      <c r="F96" s="6"/>
+        <v>46150</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="G96" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>12</v>
@@ -5381,744 +5385,731 @@
       <c r="I96" s="6">
         <v>4</v>
       </c>
-      <c r="J96" s="21"/>
+      <c r="J96" s="21" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" s="11">
-        <v>46073</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>213</v>
+        <v>81</v>
+      </c>
+      <c r="D97" s="7">
+        <v>46123</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="12">
+        <v>83</v>
+      </c>
+      <c r="G97" s="9">
         <v>1</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I97" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>17</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D98" s="11">
-        <v>53327</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>205</v>
+        <v>81</v>
+      </c>
+      <c r="D98" s="7">
+        <v>46334</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G98" s="12">
+        <v>83</v>
+      </c>
+      <c r="G98" s="9">
         <v>2</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I98" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" s="21" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>547</v>
+        <v>234</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D99" s="11">
-        <v>46084</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="6" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="G99" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I99" s="6">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="J99" s="21" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="D100" s="11">
-        <v>46150</v>
+        <v>45930</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="G100" s="12">
-        <v>1</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="6">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I100" s="6"/>
       <c r="J100" s="21" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D101" s="7">
+        <v>45657</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="9">
         <v>0</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="7">
-        <v>46123</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="9">
-        <v>1</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="6">
-        <v>2</v>
-      </c>
-      <c r="J101" s="21" t="s">
-        <v>500</v>
-      </c>
+      <c r="H101" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I101" s="6"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="D102" s="7">
-        <v>46334</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>46112</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="F102" s="6"/>
       <c r="G102" s="9">
-        <v>2</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="6">
-        <v>2</v>
-      </c>
-      <c r="J102" s="21" t="s">
-        <v>500</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I102" s="6"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>238</v>
+        <v>606</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G103" s="12">
-        <v>2</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J103" s="21" t="s">
-        <v>552</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="D103" s="7">
+        <v>46721</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="9">
+        <v>4</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I103" s="6"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D104" s="11">
-        <v>45930</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>312</v>
-      </c>
+        <v>45808</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F104" s="6"/>
       <c r="G104" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I104" s="6"/>
-      <c r="J104" s="21" t="s">
-        <v>545</v>
-      </c>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D105" s="7">
-        <v>45657</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>348</v>
+        <v>307</v>
+      </c>
+      <c r="D105" s="11">
+        <v>46022</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="F105" s="6"/>
-      <c r="G105" s="9" t="s">
-        <v>349</v>
+      <c r="G105" s="12">
+        <v>20</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I105" s="6"/>
       <c r="J105" s="21"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D106" s="7">
-        <v>46112</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>350</v>
+        <v>309</v>
+      </c>
+      <c r="D106" s="11">
+        <v>45808</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>327</v>
       </c>
       <c r="F106" s="6"/>
-      <c r="G106" s="9">
-        <v>7</v>
+      <c r="G106" s="12">
+        <v>4</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="21"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D107" s="7">
-        <v>46721</v>
+        <v>46022</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="21"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D108" s="11">
-        <v>45808</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>338</v>
+        <v>309</v>
+      </c>
+      <c r="D108" s="7">
+        <v>46842</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>331</v>
       </c>
       <c r="F108" s="6"/>
-      <c r="G108" s="12">
-        <v>8</v>
+      <c r="G108" s="9">
+        <v>12</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="21"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>337</v>
+        <v>603</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D109" s="11">
-        <v>46022</v>
+        <v>45808</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="21"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D110" s="11">
-        <v>45808</v>
+        <v>46022</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="21"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>470</v>
+        <v>602</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D111" s="7">
-        <v>46022</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="9">
+        <v>307</v>
+      </c>
+      <c r="D111" s="11">
+        <v>45808</v>
+      </c>
+      <c r="E111" s="6">
+        <v>130112201</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G111" s="12">
         <v>12</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="21"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>470</v>
+        <v>601</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D112" s="7">
-        <v>46842</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="9">
+        <v>309</v>
+      </c>
+      <c r="D112" s="11">
+        <v>45808</v>
+      </c>
+      <c r="E112" s="6">
+        <v>130112202</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" s="12">
         <v>12</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="21"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>341</v>
+        <v>603</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D113" s="11">
         <v>45808</v>
       </c>
-      <c r="E113" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F113" s="6"/>
+      <c r="E113" s="6">
+        <v>130112203</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="G113" s="12">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="21"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>341</v>
+        <v>620</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D114" s="11">
-        <v>46022</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>346</v>
+        <v>621</v>
+      </c>
+      <c r="D114" s="7">
+        <v>46173</v>
+      </c>
+      <c r="E114" s="8">
+        <v>29005240</v>
       </c>
       <c r="F114" s="6"/>
-      <c r="G114" s="12">
+      <c r="G114" s="9">
+        <v>5</v>
+      </c>
+      <c r="H114" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I114" s="6"/>
-      <c r="J114" s="21"/>
+      <c r="I114" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>314</v>
+        <v>450</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D115" s="11">
-        <v>45808</v>
-      </c>
-      <c r="E115" s="6">
-        <v>130112201</v>
+        <v>160</v>
+      </c>
+      <c r="D115" s="7">
+        <v>46099</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G115" s="12">
+        <v>162</v>
+      </c>
+      <c r="G115" s="9">
+        <v>2</v>
+      </c>
+      <c r="H115" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I115" s="6"/>
+      <c r="I115" s="6">
+        <v>4</v>
+      </c>
       <c r="J115" s="21"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>317</v>
+        <v>450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D116" s="11">
-        <v>45808</v>
-      </c>
-      <c r="E116" s="6">
-        <v>130112202</v>
+        <v>160</v>
+      </c>
+      <c r="D116" s="7">
+        <v>46243</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G116" s="12">
+        <v>162</v>
+      </c>
+      <c r="G116" s="9">
+        <v>4</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="I116" s="6"/>
+      <c r="I116" s="6">
+        <v>4</v>
+      </c>
       <c r="J116" s="21"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>319</v>
+        <v>533</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D117" s="11">
-        <v>45808</v>
-      </c>
-      <c r="E117" s="6">
-        <v>130112203</v>
+        <v>383</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="G117" s="12">
-        <v>12</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>313</v>
+        <v>7</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="21"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D118" s="7">
-        <v>46099</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>165</v>
+        <v>387</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G118" s="9">
-        <v>2</v>
+        <v>385</v>
+      </c>
+      <c r="G118" s="12">
+        <v>9</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="6">
-        <v>4</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I118" s="6"/>
       <c r="J118" s="21"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D119" s="7">
-        <v>46243</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="D119" s="11">
+        <v>46337</v>
+      </c>
+      <c r="E119" s="6">
+        <v>24118720</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G119" s="9">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="G119" s="12">
+        <v>8</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I119" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J119" s="21"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>401</v>
+        <v>244</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="G120" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I120" s="6"/>
-      <c r="J120" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J120" s="21" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D121" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="D121" s="11">
+        <v>46002</v>
+      </c>
       <c r="E121" s="6" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="G121" s="12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I121" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="J121" s="21"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>113</v>
+        <v>363</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D122" s="11">
-        <v>46337</v>
-      </c>
-      <c r="E122" s="6">
-        <v>24118720</v>
+        <v>364</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="G122" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I122" s="6">
-        <v>2</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I122" s="6"/>
       <c r="J122" s="21"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -6126,181 +6117,171 @@
         <v>20</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D123" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="D123" s="11">
+        <v>53327</v>
+      </c>
       <c r="E123" s="6" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="G123" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>246</v>
+        <v>44</v>
+      </c>
+      <c r="I123" s="6">
+        <v>4</v>
       </c>
       <c r="J123" s="21" t="s">
-        <v>552</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D124" s="11">
-        <v>46002</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>110</v>
+        <v>167</v>
+      </c>
+      <c r="D124" s="7">
+        <v>53327</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G124" s="12">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="G124" s="9">
+        <v>3</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J124" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="I124" s="6">
+        <v>4</v>
+      </c>
+      <c r="J124" s="21" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
-        <v>380</v>
+        <v>167</v>
+      </c>
+      <c r="D125" s="7">
+        <v>53327</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" s="12">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="G125" s="9">
+        <v>30</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I125" s="6"/>
-      <c r="J125" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="I125" s="6">
+        <v>4</v>
+      </c>
+      <c r="J125" s="21" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D126" s="11">
-        <v>53327</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
       <c r="G126" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I126" s="6">
-        <v>4</v>
-      </c>
-      <c r="J126" s="21" t="s">
-        <v>484</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D127" s="7">
-        <v>53327</v>
-      </c>
-      <c r="E127" s="8" t="s">
         <v>172</v>
       </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="F127" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G127" s="9">
-        <v>19</v>
+        <v>174</v>
+      </c>
+      <c r="G127" s="12">
+        <v>200</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I127" s="6">
         <v>4</v>
       </c>
-      <c r="J127" s="21" t="s">
-        <v>484</v>
-      </c>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D128" s="7">
-        <v>53327</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>173</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G128" s="9">
-        <v>20</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I128" s="6">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" s="12">
+        <v>1</v>
+      </c>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="21" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -6308,620 +6289,628 @@
         <v>0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J129" s="21"/>
+        <v>251</v>
+      </c>
+      <c r="J129" s="21" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="D130" s="6"/>
-      <c r="E130" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G130" s="12">
-        <v>200</v>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="14" t="s">
+        <v>548</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I130" s="6">
-        <v>4</v>
-      </c>
-      <c r="J130" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J130" s="21" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" s="12">
-        <v>1</v>
-      </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="14">
+        <v>12</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="J131" s="21" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+        <v>607</v>
+      </c>
+      <c r="C132" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="D132" s="11">
+        <v>46356</v>
+      </c>
+      <c r="E132" s="6">
+        <v>911360</v>
+      </c>
       <c r="F132" s="6"/>
-      <c r="G132" s="12" t="s">
-        <v>264</v>
+      <c r="G132" s="12">
+        <v>10</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J132" s="21" t="s">
-        <v>571</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="I132" s="6"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
+        <v>607</v>
+      </c>
+      <c r="C133" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="D133" s="11">
+        <v>46477</v>
+      </c>
+      <c r="E133" s="6">
+        <v>918444</v>
+      </c>
       <c r="F133" s="6"/>
-      <c r="G133" s="14" t="s">
-        <v>574</v>
+      <c r="G133" s="12">
+        <v>10</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J133" s="21" t="s">
-        <v>572</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="I133" s="6"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="14">
+        <v>151</v>
+      </c>
+      <c r="D134" s="11">
+        <v>45957</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G134" s="12">
+        <v>1</v>
+      </c>
+      <c r="H134" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>255</v>
+      <c r="I134" s="6">
+        <v>4</v>
       </c>
       <c r="J134" s="21" t="s">
-        <v>573</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>399</v>
+        <v>267</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="C135" s="6">
-        <v>6095719</v>
+        <v>900025</v>
       </c>
       <c r="D135" s="11">
-        <v>46356</v>
-      </c>
-      <c r="E135" s="6">
-        <v>911360</v>
+        <v>45808</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="I135" s="6"/>
-      <c r="J135" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J135" s="21" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C136" s="6">
-        <v>6095719</v>
-      </c>
-      <c r="D136" s="11">
-        <v>46477</v>
-      </c>
-      <c r="E136" s="6">
-        <v>918444</v>
-      </c>
-      <c r="F136" s="6"/>
+        <v>553</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="G136" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="I136" s="6"/>
-      <c r="J136" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J136" s="21" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D137" s="11">
-        <v>45957</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="G137" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" s="6">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="J137" s="21" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="C138" s="6">
-        <v>900025</v>
-      </c>
-      <c r="D138" s="11">
-        <v>45808</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F138" s="6"/>
+        <v>556</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="G138" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="J138" s="21" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
+      <c r="E139" s="13" t="s">
+        <v>344</v>
+      </c>
       <c r="F139" s="6" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="G139" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J139" s="21" t="s">
-        <v>571</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I139" s="6"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="6">
+        <v>861853</v>
+      </c>
       <c r="F140" s="6" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="G140" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J140" s="21" t="s">
-        <v>580</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I140" s="6"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="F141" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G141" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J141" s="21" t="s">
-        <v>580</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>358</v>
+        <v>147</v>
       </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="13" t="s">
-        <v>359</v>
-      </c>
+      <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>360</v>
+        <v>8</v>
       </c>
       <c r="G142" s="12">
+        <v>10</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="21"/>
+      <c r="I142" s="6">
+        <v>3</v>
+      </c>
+      <c r="J142" s="21" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>413</v>
+        <v>144</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>358</v>
+        <v>561</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="6">
-        <v>861853</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>360</v>
-      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
       <c r="G143" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I143" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="J143" s="21"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>584</v>
+        <v>351</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>562</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="G144" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J144" s="21"/>
+        <v>564</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>585</v>
+        <v>351</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>563</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>151</v>
+        <v>357</v>
       </c>
       <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="F145" s="6" t="s">
-        <v>8</v>
+        <v>356</v>
       </c>
       <c r="G145" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I145" s="6">
-        <v>3</v>
-      </c>
-      <c r="J145" s="21" t="s">
-        <v>586</v>
+        <v>346</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J146" s="21"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>588</v>
+        <v>337</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G147" s="12">
-        <v>2</v>
+        <v>338</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="9">
+        <v>1</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>590</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I147" s="6"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>589</v>
+        <v>0</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D148" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="D148" s="11">
+        <v>45925</v>
+      </c>
       <c r="E148" s="6" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="G148" s="12">
         <v>1</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>361</v>
+        <v>18</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>590</v>
+        <v>213</v>
+      </c>
+      <c r="J148" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>242</v>
+        <v>351</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>567</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="E149" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="G149" s="12">
         <v>3</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>237</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I149" s="6"/>
       <c r="J149" s="21"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>591</v>
+        <v>351</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>568</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="9">
-        <v>1</v>
+        <v>361</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G150" s="12">
+        <v>4</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="21"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D151" s="11">
-        <v>45925</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="D151" s="7">
+        <v>45853</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" s="12">
+        <v>286</v>
+      </c>
+      <c r="G151" s="9">
         <v>1</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J151" s="21" t="s">
         <v>17</v>
@@ -6929,118 +6918,126 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>593</v>
+        <v>20</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6" t="s">
-        <v>375</v>
+        <v>284</v>
+      </c>
+      <c r="D152" s="7">
+        <v>45965</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G152" s="12">
-        <v>3</v>
+        <v>286</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I152" s="6"/>
-      <c r="J152" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J152" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>594</v>
+        <v>0</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D153" s="6"/>
+        <v>225</v>
+      </c>
+      <c r="D153" s="11">
+        <v>45997</v>
+      </c>
       <c r="E153" s="6" t="s">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="G153" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I153" s="6"/>
-      <c r="J153" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J153" s="21" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D154" s="7">
-        <v>45853</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>292</v>
+        <v>220</v>
+      </c>
+      <c r="D154" s="11">
+        <v>45746</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>221</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G154" s="9">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="G154" s="12">
+        <v>15</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J154" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I154" s="6">
+        <v>4</v>
+      </c>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D155" s="7">
-        <v>45965</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G155" s="9">
+        <v>94</v>
+      </c>
+      <c r="D155" s="11">
+        <v>45894</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F155" s="6"/>
+      <c r="G155" s="12">
         <v>1</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>217</v>
+        <v>4</v>
+      </c>
+      <c r="I155" s="6">
+        <v>2</v>
       </c>
       <c r="J155" s="21" t="s">
-        <v>17</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -7048,31 +7045,31 @@
         <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="D156" s="11">
-        <v>45997</v>
+        <v>46021</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G156" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="I156" s="6">
+        <v>2</v>
       </c>
       <c r="J156" s="21" t="s">
-        <v>597</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -7080,173 +7077,177 @@
         <v>20</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="D157" s="11">
-        <v>45746</v>
-      </c>
-      <c r="E157" s="13" t="s">
-        <v>225</v>
+        <v>45906</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="G157" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="6">
-        <v>4</v>
-      </c>
-      <c r="J157" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J157" s="21" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D158" s="11">
-        <v>45894</v>
+        <v>45939</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" s="6">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="J158" s="21" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="D159" s="11">
-        <v>46021</v>
+        <v>45875</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G159" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I159" s="6">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D160" s="11">
-        <v>45906</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>300</v>
+        <v>269</v>
+      </c>
+      <c r="D160" s="7">
+        <v>45854</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G160" s="12">
+      <c r="G160" s="9">
         <v>1</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D161" s="11">
-        <v>45939</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F161" s="6"/>
-      <c r="G161" s="12">
-        <v>4</v>
+        <v>269</v>
+      </c>
+      <c r="D161" s="7">
+        <v>45865</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>283</v>
+        <v>58</v>
       </c>
       <c r="D162" s="11">
-        <v>45875</v>
+        <v>45965</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G162" s="12">
         <v>1</v>
@@ -7255,10 +7256,10 @@
         <v>18</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -7266,348 +7267,346 @@
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D163" s="7">
-        <v>45854</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F163" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C163" s="6">
+        <v>94600</v>
+      </c>
+      <c r="D163" s="11">
+        <v>46081</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F163" s="6"/>
+      <c r="G163" s="12">
+        <v>41</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="6">
+        <v>3</v>
+      </c>
+      <c r="J163" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="G163" s="9">
-        <v>1</v>
-      </c>
-      <c r="H163" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J163" s="21" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>276</v>
+        <v>599</v>
+      </c>
+      <c r="C164" s="6">
+        <v>94613</v>
       </c>
       <c r="D164" s="7">
-        <v>45865</v>
+        <v>46043</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F164" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F164" s="6"/>
+      <c r="G164" s="9">
+        <v>2</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I164" s="6"/>
+      <c r="J164" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G164" s="9">
-        <v>1</v>
-      </c>
-      <c r="H164" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J164" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D165" s="11">
-        <v>45965</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G165" s="12">
-        <v>1</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C165" s="6">
+        <v>94613</v>
+      </c>
+      <c r="D165" s="7">
+        <v>46121</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F165" s="6"/>
+      <c r="G165" s="9">
+        <v>2</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I165" s="6"/>
       <c r="J165" s="21" t="s">
-        <v>500</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C166" s="6">
-        <v>94600</v>
+        <v>94614</v>
       </c>
       <c r="D166" s="11">
-        <v>46081</v>
+        <v>46045</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="12">
-        <v>41</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I166" s="6">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I166" s="6"/>
       <c r="J166" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="C167" s="6">
-        <v>94613</v>
-      </c>
-      <c r="D167" s="7">
-        <v>46043</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F167" s="6"/>
-      <c r="G167" s="9">
-        <v>2</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>327</v>
+        <v>559</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G167" s="12">
+        <v>4</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="I167" s="6"/>
-      <c r="J167" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="C168" s="6">
-        <v>94613</v>
-      </c>
-      <c r="D168" s="7">
-        <v>46121</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="9">
+        <v>581</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D168" s="11">
+        <v>46160</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="12">
+        <v>6</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="6">
         <v>2</v>
       </c>
-      <c r="H168" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I168" s="6"/>
       <c r="J168" s="21" t="s">
-        <v>17</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="C169" s="6">
-        <v>94614</v>
-      </c>
-      <c r="D169" s="11">
-        <v>46045</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="12">
-        <v>4</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="I169" s="6"/>
-      <c r="J169" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D169" s="7">
+        <v>45925</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" s="9">
+        <v>3</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I169" s="6">
+        <v>3</v>
+      </c>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="C170" s="6">
-        <v>559</v>
-      </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="6" t="s">
-        <v>367</v>
+        <v>582</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D170" s="7">
+        <v>46215</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G170" s="12">
+        <v>77</v>
+      </c>
+      <c r="G170" s="9">
         <v>4</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I170" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="I170" s="6">
+        <v>3</v>
+      </c>
       <c r="J170" s="21"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D171" s="11">
-        <v>46160</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>135</v>
+        <v>227</v>
+      </c>
+      <c r="D171" s="7">
+        <v>45905</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" s="12">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="G171" s="9">
+        <v>1</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I171" s="6">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="J171" s="21" t="s">
-        <v>484</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="D172" s="7">
-        <v>45925</v>
+        <v>46122</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G172" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I172" s="6">
-        <v>3</v>
-      </c>
-      <c r="J172" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J172" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D173" s="7">
-        <v>46215</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="D173" s="11">
+        <v>46146</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G173" s="9">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="G173" s="12">
+        <v>2</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I173" s="6">
-        <v>3</v>
-      </c>
-      <c r="J173" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J173" s="21" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D174" s="7">
-        <v>45905</v>
+        <v>46190</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F174" s="6"/>
       <c r="G174" s="9">
         <v>1</v>
       </c>
@@ -7615,214 +7614,214 @@
         <v>18</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="J174" s="21" t="s">
-        <v>17</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D175" s="7">
-        <v>46122</v>
+        <v>46258</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F175" s="6"/>
       <c r="G175" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="J175" s="21" t="s">
-        <v>17</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>69</v>
+        <v>585</v>
+      </c>
+      <c r="C176" s="6">
+        <v>11561694</v>
       </c>
       <c r="D176" s="11">
-        <v>46146</v>
+        <v>45838</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>71</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F176" s="6"/>
       <c r="G176" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="J176" s="21" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D177" s="7">
-        <v>46190</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>227</v>
+        <v>199</v>
+      </c>
+      <c r="D177" s="11">
+        <v>45809</v>
+      </c>
+      <c r="E177" s="6">
+        <v>10670357</v>
       </c>
       <c r="F177" s="6"/>
-      <c r="G177" s="9">
-        <v>1</v>
+      <c r="G177" s="12">
+        <v>5</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J177" s="21" t="s">
-        <v>549</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I177" s="6">
+        <v>4</v>
+      </c>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="D178" s="7">
-        <v>46258</v>
+        <v>46329</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F178" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="G178" s="9">
+        <v>4</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="6">
         <v>2</v>
       </c>
-      <c r="H178" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="J178" s="21" t="s">
-        <v>549</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>272</v>
+        <v>104</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="C179" s="6">
-        <v>11561694</v>
-      </c>
-      <c r="D179" s="11">
-        <v>45838</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F179" s="6"/>
-      <c r="G179" s="12">
-        <v>6</v>
+        <v>588</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D179" s="7">
+        <v>46417</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G179" s="9">
+        <v>4</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>269</v>
+        <v>12</v>
+      </c>
+      <c r="I179" s="6">
+        <v>2</v>
       </c>
       <c r="J179" s="21" t="s">
-        <v>614</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="D180" s="11">
-        <v>45809</v>
-      </c>
-      <c r="E180" s="6">
-        <v>10670357</v>
-      </c>
-      <c r="F180" s="6"/>
+        <v>45934</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="G180" s="12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I180" s="6">
-        <v>4</v>
-      </c>
-      <c r="J180" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="J180" s="21" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D181" s="7">
-        <v>46329</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G181" s="9">
+        <v>133</v>
+      </c>
+      <c r="D181" s="11">
+        <v>46089</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F181" s="6"/>
+      <c r="G181" s="12">
         <v>4</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -7832,368 +7831,328 @@
         <v>2</v>
       </c>
       <c r="J181" s="21" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D182" s="7">
-        <v>46417</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G182" s="9">
+        <v>146</v>
+      </c>
+      <c r="G182" s="12">
+        <v>9</v>
+      </c>
+      <c r="H182" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H182" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="I182" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J182" s="21" t="s">
-        <v>492</v>
+        <v>592</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D183" s="11">
-        <v>45934</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>11</v>
+        <v>390</v>
+      </c>
+      <c r="F183" s="6">
+        <v>1</v>
       </c>
       <c r="G183" s="12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I183" s="6">
-        <v>2</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="I183" s="6"/>
       <c r="J183" s="21" t="s">
-        <v>484</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D184" s="11">
-        <v>46089</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>137</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I184" s="6">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="J184" s="21" t="s">
-        <v>492</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6"/>
-      <c r="F185" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G185" s="12">
+      <c r="A185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D185" s="4">
+        <v>45871</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I185" s="2"/>
+      <c r="J185" s="21"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D186" s="4">
+        <v>45889</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G186" s="3">
         <v>9</v>
       </c>
-      <c r="H185" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I185" s="6">
-        <v>3</v>
-      </c>
-      <c r="J185" s="21" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C186" s="6" t="s">
+      <c r="H186" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I186" s="2"/>
+      <c r="J186" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C187" s="2">
+        <v>900025</v>
+      </c>
+      <c r="D187" s="4">
+        <v>46081</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="F186" s="6">
-        <v>1</v>
-      </c>
-      <c r="G186" s="12">
-        <v>3</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I186" s="6"/>
-      <c r="J186" s="21" t="s">
+      <c r="F187" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D187" s="6"/>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
-      <c r="G187" s="12">
-        <v>3</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I187" s="6" t="s">
-        <v>237</v>
-      </c>
+      <c r="G187" s="3"/>
+      <c r="H187" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I187" s="2"/>
       <c r="J187" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>420</v>
+        <v>597</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="D188" s="4">
-        <v>45871</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>422</v>
+        <v>46112</v>
+      </c>
+      <c r="E188" s="2">
+        <v>32411230</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G188" s="3"/>
-      <c r="H188" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
+      </c>
+      <c r="G188" s="3">
+        <v>4</v>
+      </c>
+      <c r="H188" s="2">
+        <v>-80</v>
       </c>
       <c r="I188" s="2"/>
-      <c r="J188" s="21"/>
+      <c r="J188" s="21" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>623</v>
+        <v>454</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D189" s="4">
-        <v>45889</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="D189" s="2"/>
       <c r="E189" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G189" s="3">
-        <v>9</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G189" s="3"/>
       <c r="H189" s="2" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="I189" s="2"/>
-      <c r="J189" s="21" t="s">
-        <v>484</v>
-      </c>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C190" s="2">
-        <v>900025</v>
-      </c>
-      <c r="D190" s="4">
-        <v>46081</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="2" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="I190" s="2"/>
-      <c r="J190" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>625</v>
+        <v>452</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D191" s="4">
-        <v>46112</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D191" s="2"/>
       <c r="E191" s="2">
-        <v>32411230</v>
+        <v>806455</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G191" s="3">
-        <v>4</v>
-      </c>
-      <c r="H191" s="2">
-        <v>-80</v>
+        <v>350</v>
+      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="I191" s="2"/>
-      <c r="J191" s="21" t="s">
-        <v>626</v>
-      </c>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="D192" s="2"/>
-      <c r="E192" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>417</v>
-      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
       <c r="G192" s="3"/>
-      <c r="H192" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="21"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D193" s="2"/>
-      <c r="E193" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
       <c r="G193" s="3"/>
-      <c r="H193" s="2" t="s">
-        <v>416</v>
-      </c>
+      <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="21"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D194" s="2"/>
-      <c r="E194" s="2">
-        <v>806455</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>365</v>
-      </c>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="2" t="s">
-        <v>419</v>
-      </c>
+      <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="21"/>
     </row>
@@ -8202,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>251</v>
+        <v>421</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -8220,10 +8179,10 @@
         <v>0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -8238,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -8256,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -8274,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -8292,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -8310,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -8328,10 +8287,10 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -8343,13 +8302,13 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -8361,13 +8320,13 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -8379,13 +8338,13 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
+      </c>
+      <c r="C205" s="2">
+        <v>2161</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -8395,63 +8354,9 @@
       <c r="I205" s="2"/>
       <c r="J205" s="21"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="21"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="21"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C208" s="2">
-        <v>2161</v>
-      </c>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="21"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I187">
-    <sortCondition ref="B2:B187"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I184">
+    <sortCondition ref="B2:B184"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFCFCF-DBE6-44CD-879B-1953678858C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46950492-51A2-4F7B-B07E-B801E5EC9340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -1958,74 +1958,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2042,10 +1974,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="202020"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -2356,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4032,7 +3964,7 @@
         <v>66</v>
       </c>
       <c r="H51" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>4</v>
@@ -5464,7 +5396,7 @@
         <v>66</v>
       </c>
       <c r="H95" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>44</v>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46950492-51A2-4F7B-B07E-B801E5EC9340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D578C8A8-4544-4DA3-AE4E-F8BE2DDD2A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -1624,9 +1624,6 @@
     <t xml:space="preserve">Uric Acid 2 </t>
   </si>
   <si>
-    <t>1 mL Syringe (unit = bag: 4 syringes per bag)</t>
-  </si>
-  <si>
     <r>
       <t>1000 ul Researh Barrier Tip</t>
     </r>
@@ -1791,6 +1788,9 @@
   </si>
   <si>
     <t>Urea Nitrogen Reagent (unit = cartridge: 400 reactions per cartridge)</t>
+  </si>
+  <si>
+    <t>1 mL Syringe (unit = each  syringe)</t>
   </si>
 </sst>
 </file>
@@ -2288,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,7 +2312,7 @@
         <v>397</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>395</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
@@ -2356,7 +2356,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="12">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>44</v>
@@ -2373,7 +2373,7 @@
         <v>372</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -2406,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
@@ -2738,7 +2738,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
@@ -2870,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -2905,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
@@ -2938,7 +2938,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -2973,7 +2973,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -3272,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3335,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
@@ -3504,7 +3504,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6" t="s">
@@ -3566,7 +3566,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
@@ -3669,7 +3669,7 @@
         <v>346</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
@@ -3692,7 +3692,7 @@
         <v>346</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C44" s="5">
         <v>5</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -3787,7 +3787,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C46" s="5">
         <v>5</v>
@@ -4144,7 +4144,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -4214,7 +4214,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -4284,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>20</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>20</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -4769,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>249</v>
       </c>
       <c r="H79" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>44</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C91" s="5">
         <v>5</v>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6" t="s">
@@ -6743,7 +6743,7 @@
         <v>143</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C139" s="5">
         <v>2</v>
@@ -6774,7 +6774,7 @@
         <v>389</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6" t="s">
@@ -6894,7 +6894,7 @@
         <v>346</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C144" s="15">
         <v>1</v>
@@ -6927,7 +6927,7 @@
         <v>346</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C145" s="15">
         <v>1</v>
@@ -7049,7 +7049,7 @@
         <v>346</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="6" t="s">
@@ -7078,7 +7078,7 @@
         <v>346</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="6" t="s">
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C153" s="5">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C155" s="5">
         <v>2</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6" t="s">
@@ -7346,7 +7346,7 @@
         <v>20</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C158" s="5">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C162" s="5">
         <v>1</v>
@@ -7645,7 +7645,7 @@
         <v>346</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
@@ -7674,7 +7674,7 @@
         <v>129</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C168" s="5">
         <v>5</v>
@@ -7709,7 +7709,7 @@
         <v>20</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C169" s="5">
         <v>4</v>
@@ -7742,7 +7742,7 @@
         <v>20</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="6" t="s">
@@ -7841,7 +7841,7 @@
         <v>20</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C173" s="5">
         <v>1</v>
@@ -7876,7 +7876,7 @@
         <v>20</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="6" t="s">
@@ -7907,7 +7907,7 @@
         <v>20</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="6" t="s">
@@ -7938,7 +7938,7 @@
         <v>261</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C176" s="5">
         <v>2</v>
@@ -8002,7 +8002,7 @@
         <v>88</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C178" s="5">
         <v>2</v>
@@ -8037,7 +8037,7 @@
         <v>104</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="6" t="s">
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C180" s="5">
         <v>2</v>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D578C8A8-4544-4DA3-AE4E-F8BE2DDD2A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED8FB61-6096-41D8-908B-1EF2938E191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
+    <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="585">
   <si>
     <t>Alinity C</t>
   </si>
@@ -1051,12 +1051,6 @@
     <t>Sysmex</t>
   </si>
   <si>
-    <t>SLS-240</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
     <t>Abbot Lab</t>
   </si>
   <si>
@@ -1478,9 +1472,6 @@
   </si>
   <si>
     <t>1000 caps per box</t>
-  </si>
-  <si>
-    <t>Sulfolyser (SLS)  (1 unit)</t>
   </si>
   <si>
     <t>Syphilis TP Calibrator (1 unit)</t>
@@ -1791,6 +1782,45 @@
   </si>
   <si>
     <t>1 mL Syringe (unit = each  syringe)</t>
+  </si>
+  <si>
+    <t>Premium microscope slides frosted, Mckesson 25 mm x75 mm x 1mm. 72 per box</t>
+  </si>
+  <si>
+    <t>70-105PMCK</t>
+  </si>
+  <si>
+    <t>Black Carbinet</t>
+  </si>
+  <si>
+    <t>3, shelf</t>
+  </si>
+  <si>
+    <t>72 slides per box</t>
+  </si>
+  <si>
+    <t>Microscope slides plain 25 mm x 75 mm x 1 mm, 72 per box</t>
+  </si>
+  <si>
+    <t>16-7131</t>
+  </si>
+  <si>
+    <t>McKesson Data logging thermometer ultra low dual probe</t>
+  </si>
+  <si>
+    <t>MCK8019UL</t>
+  </si>
+  <si>
+    <t>BJ-350-971</t>
+  </si>
+  <si>
+    <t>A5003</t>
+  </si>
+  <si>
+    <t>Sulfolyser (SLS)  (1 unit, 1.5L)</t>
+  </si>
+  <si>
+    <t>4, shelf</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1952,6 +1982,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,37 +2345,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>402</v>
-      </c>
       <c r="K1" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2344,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
@@ -2365,40 +2404,40 @@
         <v>247</v>
       </c>
       <c r="K2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E3" s="11">
         <v>45492</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H3" s="12">
         <v>5</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2406,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -2431,7 +2470,7 @@
         <v>70</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2439,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -2464,7 +2503,7 @@
         <v>211</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2472,7 +2511,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -2482,7 +2521,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -2491,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="24"/>
@@ -2501,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -2528,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2536,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
@@ -2561,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2569,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
@@ -2594,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2602,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -2614,7 +2653,7 @@
         <v>46210</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>43</v>
@@ -2629,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2637,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
@@ -2662,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2670,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -2697,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2705,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
@@ -2730,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2738,30 +2777,30 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H14" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="20" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2769,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -2796,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2804,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
@@ -2829,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2837,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
@@ -2862,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2870,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -2897,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2905,7 +2944,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
@@ -2930,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2938,7 +2977,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -2965,7 +3004,7 @@
         <v>211</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2973,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
@@ -2998,7 +3037,7 @@
         <v>213</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3006,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -3033,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3041,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -3068,7 +3107,7 @@
         <v>211</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3076,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3103,7 +3142,7 @@
         <v>116</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3111,7 +3150,7 @@
         <v>201</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
@@ -3136,7 +3175,7 @@
         <v>211</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3144,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3169,21 +3208,21 @@
         <v>70</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="E27" s="11">
         <v>45061</v>
@@ -3202,7 +3241,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -3229,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3237,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -3264,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3272,7 +3311,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3299,34 +3338,34 @@
         <v>1</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C31" s="5">
         <v>20</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6">
         <v>4003763</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H31" s="12">
         <v>70</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J31" s="6"/>
     </row>
@@ -3335,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -3362,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3386,7 +3425,7 @@
         <v>173</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>44</v>
@@ -3401,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -3428,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3436,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
@@ -3461,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3469,7 +3508,7 @@
         <v>20</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3496,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3504,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3516,7 +3555,7 @@
         <v>45869</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>34</v>
@@ -3533,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6" t="s">
@@ -3558,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -3566,7 +3605,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
@@ -3593,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3601,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
@@ -3628,7 +3667,7 @@
         <v>4</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3636,7 +3675,7 @@
         <v>201</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3666,10 +3705,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
@@ -3682,34 +3721,34 @@
         <v>10</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H43" s="12">
         <v>11</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="22"/>
@@ -3719,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C44" s="5">
         <v>5</v>
@@ -3746,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3754,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
@@ -3779,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3787,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C46" s="5">
         <v>5</v>
@@ -3814,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3822,7 +3861,7 @@
         <v>183</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -3847,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3855,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -3880,7 +3919,7 @@
         <v>238</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3888,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -3946,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C51" s="5">
         <v>10</v>
@@ -3973,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3981,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6" t="s">
@@ -4006,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -4014,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6" t="s">
@@ -4039,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -4047,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C54" s="5">
         <v>10</v>
@@ -4074,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4082,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6" t="s">
@@ -4107,15 +4146,15 @@
         <v>2</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C56" s="5">
         <v>5</v>
@@ -4125,16 +4164,16 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H56" s="12">
         <v>7</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="21"/>
@@ -4144,7 +4183,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -4171,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4179,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -4214,7 +4253,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -4241,7 +4280,7 @@
         <v>70</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4249,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -4276,7 +4315,7 @@
         <v>211</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4284,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -4309,7 +4348,7 @@
         <v>70</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4435,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C66" s="5">
         <v>2</v>
@@ -4462,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4470,7 +4509,7 @@
         <v>183</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -4495,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4503,7 +4542,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -4530,7 +4569,7 @@
         <v>211</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4538,7 +4577,7 @@
         <v>20</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -4563,7 +4602,7 @@
         <v>116</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4571,7 +4610,7 @@
         <v>20</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
@@ -4594,7 +4633,7 @@
         <v>116</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4602,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -4629,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4637,7 +4676,7 @@
         <v>20</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -4664,7 +4703,7 @@
         <v>211</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4672,7 +4711,7 @@
         <v>20</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="s">
@@ -4695,7 +4734,7 @@
         <v>258</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4703,7 +4742,7 @@
         <v>20</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -4730,7 +4769,7 @@
         <v>211</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4738,7 +4777,7 @@
         <v>20</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="s">
@@ -4761,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4769,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -4794,7 +4833,7 @@
         <v>116</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4831,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C78" s="5">
         <v>3</v>
@@ -4864,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
@@ -4893,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C80" s="5">
         <v>4</v>
@@ -4920,7 +4959,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4928,7 +4967,7 @@
         <v>20</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C81" s="5">
         <v>4</v>
@@ -4955,7 +4994,7 @@
         <v>297</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4963,7 +5002,7 @@
         <v>20</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="s">
@@ -4988,7 +5027,7 @@
         <v>297</v>
       </c>
       <c r="K82" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -5088,95 +5127,95 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H86" s="12">
         <v>2</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C87" s="5">
         <v>1</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H87" s="12">
         <v>2</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H88" s="12">
         <v>2</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="21" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5205,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5213,7 +5252,7 @@
         <v>20</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
@@ -5234,7 +5273,7 @@
         <v>3</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5242,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C91" s="5">
         <v>5</v>
@@ -5269,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5308,7 +5347,7 @@
         <v>205</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -5343,7 +5382,7 @@
         <v>20</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
@@ -5370,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5378,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C95" s="5">
         <v>1</v>
@@ -5405,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5413,7 +5452,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C96" s="5">
         <v>1</v>
@@ -5440,7 +5479,7 @@
         <v>4</v>
       </c>
       <c r="K96" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5448,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
@@ -5475,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -5483,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="6" t="s">
@@ -5508,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="K98" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5541,7 +5580,7 @@
         <v>230</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5549,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C100" s="5">
         <v>3</v>
@@ -5574,7 +5613,7 @@
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5582,7 +5621,7 @@
         <v>321</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
@@ -5611,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
@@ -5626,7 +5665,7 @@
         <v>32411230</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H102" s="3">
         <v>4</v>
@@ -5636,7 +5675,7 @@
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -5644,7 +5683,7 @@
         <v>321</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
@@ -5673,7 +5712,7 @@
         <v>321</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C104" s="5">
         <v>2</v>
@@ -5702,7 +5741,7 @@
         <v>321</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C105" s="5">
         <v>2</v>
@@ -5731,7 +5770,7 @@
         <v>321</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C106" s="5">
         <v>2</v>
@@ -5760,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C107" s="5">
         <v>2</v>
@@ -5791,7 +5830,7 @@
         <v>321</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C108" s="5">
         <v>2</v>
@@ -5820,7 +5859,7 @@
         <v>321</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C109" s="5">
         <v>2</v>
@@ -5849,7 +5888,7 @@
         <v>321</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C110" s="5">
         <v>2</v>
@@ -5878,7 +5917,7 @@
         <v>20</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
@@ -5909,7 +5948,7 @@
         <v>321</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C112" s="5">
         <v>2</v>
@@ -5938,7 +5977,7 @@
         <v>321</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C113" s="5">
         <v>2</v>
@@ -5967,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C114" s="5">
         <v>2</v>
@@ -5998,13 +6037,13 @@
         <v>321</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C115" s="5">
         <v>2</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E115" s="7">
         <v>46173</v>
@@ -6028,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C116" s="5">
         <v>2</v>
@@ -6061,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="6" t="s">
@@ -6089,58 +6128,58 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C118" s="5">
         <v>5</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H118" s="12">
         <v>7</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="21"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C119" s="5">
         <v>5</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H119" s="12">
         <v>9</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="21"/>
@@ -6150,7 +6189,7 @@
         <v>111</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C120" s="5">
         <v>4</v>
@@ -6183,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C121" s="5">
         <v>2</v>
@@ -6208,7 +6247,7 @@
         <v>238</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -6216,7 +6255,7 @@
         <v>106</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C122" s="5">
         <v>5</v>
@@ -6246,20 +6285,20 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C123" s="5">
         <v>1</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>17</v>
@@ -6268,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J123" s="6"/>
       <c r="K123" s="21"/>
@@ -6278,7 +6317,7 @@
         <v>20</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C124" s="5">
         <v>2</v>
@@ -6305,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -6313,7 +6352,7 @@
         <v>20</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C125" s="5">
         <v>2</v>
@@ -6340,7 +6379,7 @@
         <v>4</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -6348,7 +6387,7 @@
         <v>20</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C126" s="5">
         <v>2</v>
@@ -6375,7 +6414,7 @@
         <v>4</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -6383,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C127" s="5">
         <v>50</v>
@@ -6414,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6" t="s">
@@ -6431,7 +6470,7 @@
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -6439,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C129" s="5">
         <v>6</v>
@@ -6460,7 +6499,7 @@
         <v>247</v>
       </c>
       <c r="K129" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -6468,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C130" s="5">
         <v>6</v>
@@ -6480,7 +6519,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>44</v>
@@ -6489,7 +6528,7 @@
         <v>247</v>
       </c>
       <c r="K130" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -6497,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C131" s="5">
         <v>6</v>
@@ -6518,15 +6557,15 @@
         <v>247</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C132" s="5">
         <v>10</v>
@@ -6545,17 +6584,17 @@
         <v>10</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="6">
@@ -6572,7 +6611,7 @@
         <v>10</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="21"/>
@@ -6582,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -6609,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -6617,7 +6656,7 @@
         <v>263</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C135" s="5">
         <v>1</v>
@@ -6642,7 +6681,7 @@
         <v>258</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -6650,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C136" s="5">
         <v>4</v>
@@ -6673,7 +6712,7 @@
         <v>247</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -6681,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C137" s="5">
         <v>4</v>
@@ -6704,7 +6743,7 @@
         <v>247</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -6712,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C138" s="5">
         <v>4</v>
@@ -6735,7 +6774,7 @@
         <v>247</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -6743,59 +6782,59 @@
         <v>143</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C139" s="5">
         <v>2</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H139" s="12">
         <v>4</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J139" s="6"/>
       <c r="K139" s="21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6">
         <v>861853</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H140" s="12">
         <v>6</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6803,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C141" s="5">
         <v>1</v>
@@ -6828,7 +6867,7 @@
         <v>238</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -6836,7 +6875,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C142" s="5">
         <v>5</v>
@@ -6859,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="K142" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -6867,7 +6906,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
@@ -6891,68 +6930,68 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C144" s="15">
         <v>1</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H144" s="12">
         <v>2</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K144" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C145" s="15">
         <v>1</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H145" s="12">
         <v>1</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K145" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6960,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C146" s="5">
         <v>2</v>
@@ -6987,26 +7026,30 @@
         <v>333</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>477</v>
+        <v>583</v>
       </c>
       <c r="C147" s="5">
         <v>1</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F147" s="8"/>
+        <v>581</v>
+      </c>
+      <c r="E147" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="G147" s="6"/>
       <c r="H147" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J147" s="6"/>
+      <c r="J147" s="6" t="s">
+        <v>584</v>
+      </c>
       <c r="K147" s="21"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -7014,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C148" s="5">
         <v>1</v>
@@ -7046,60 +7089,60 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H149" s="12">
         <v>3</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C150" s="15"/>
       <c r="D150" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H150" s="12">
         <v>4</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="21" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -7107,7 +7150,7 @@
         <v>20</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C151" s="5">
         <v>1</v>
@@ -7142,7 +7185,7 @@
         <v>20</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="6" t="s">
@@ -7175,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C153" s="5">
         <v>1</v>
@@ -7202,7 +7245,7 @@
         <v>116</v>
       </c>
       <c r="K153" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -7210,7 +7253,7 @@
         <v>20</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C154" s="5">
         <v>4</v>
@@ -7237,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="K154" s="21" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -7245,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C155" s="5">
         <v>2</v>
@@ -7270,7 +7313,7 @@
         <v>2</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -7278,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6" t="s">
@@ -7303,7 +7346,7 @@
         <v>2</v>
       </c>
       <c r="K156" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -7311,7 +7354,7 @@
         <v>20</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C157" s="5">
         <v>1</v>
@@ -7338,7 +7381,7 @@
         <v>211</v>
       </c>
       <c r="K157" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -7346,7 +7389,7 @@
         <v>20</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C158" s="5">
         <v>1</v>
@@ -7371,7 +7414,7 @@
         <v>70</v>
       </c>
       <c r="K158" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -7379,7 +7422,7 @@
         <v>20</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C159" s="5">
         <v>1</v>
@@ -7406,7 +7449,7 @@
         <v>211</v>
       </c>
       <c r="K159" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -7414,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C160" s="5">
         <v>1</v>
@@ -7441,7 +7484,7 @@
         <v>211</v>
       </c>
       <c r="K160" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -7449,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C161" s="5">
         <v>1</v>
@@ -7476,7 +7519,7 @@
         <v>211</v>
       </c>
       <c r="K161" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7484,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C162" s="5">
         <v>1</v>
@@ -7511,7 +7554,7 @@
         <v>61</v>
       </c>
       <c r="K162" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -7519,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C163" s="5">
         <v>5</v>
@@ -7552,7 +7595,7 @@
         <v>134</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C164" s="5">
         <v>1</v>
@@ -7583,7 +7626,7 @@
         <v>134</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C165" s="5">
         <v>1</v>
@@ -7614,7 +7657,7 @@
         <v>134</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C166" s="5">
         <v>1</v>
@@ -7642,10 +7685,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C167" s="5">
         <v>2</v>
@@ -7655,16 +7698,16 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H167" s="12">
         <v>4</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="21"/>
@@ -7674,7 +7717,7 @@
         <v>129</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C168" s="5">
         <v>5</v>
@@ -7701,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="K168" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -7709,7 +7752,7 @@
         <v>20</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C169" s="5">
         <v>4</v>
@@ -7742,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="6" t="s">
@@ -7773,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C171" s="5">
         <v>1</v>
@@ -7808,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="6" t="s">
@@ -7841,7 +7884,7 @@
         <v>20</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C173" s="5">
         <v>1</v>
@@ -7868,7 +7911,7 @@
         <v>70</v>
       </c>
       <c r="K173" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -7876,7 +7919,7 @@
         <v>20</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="6" t="s">
@@ -7899,7 +7942,7 @@
         <v>110</v>
       </c>
       <c r="K174" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -7907,7 +7950,7 @@
         <v>20</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="6" t="s">
@@ -7930,7 +7973,7 @@
         <v>110</v>
       </c>
       <c r="K175" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -7938,7 +7981,7 @@
         <v>261</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C176" s="5">
         <v>2</v>
@@ -7963,7 +8006,7 @@
         <v>258</v>
       </c>
       <c r="K176" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -7971,7 +8014,7 @@
         <v>194</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C177" s="5">
         <v>2</v>
@@ -8002,7 +8045,7 @@
         <v>88</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C178" s="5">
         <v>2</v>
@@ -8029,7 +8072,7 @@
         <v>2</v>
       </c>
       <c r="K178" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -8037,7 +8080,7 @@
         <v>104</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="6" t="s">
@@ -8062,7 +8105,7 @@
         <v>2</v>
       </c>
       <c r="K179" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -8070,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C180" s="5">
         <v>2</v>
@@ -8097,7 +8140,7 @@
         <v>2</v>
       </c>
       <c r="K180" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -8105,7 +8148,7 @@
         <v>129</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C181" s="5">
         <v>2</v>
@@ -8130,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="K181" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -8138,7 +8181,7 @@
         <v>143</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C182" s="5">
         <v>4</v>
@@ -8161,7 +8204,7 @@
         <v>3</v>
       </c>
       <c r="K182" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -8169,17 +8212,17 @@
         <v>56</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C183" s="5">
         <v>2</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G183" s="6">
         <v>1</v>
@@ -8188,7 +8231,7 @@
         <v>3</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="21" t="s">
@@ -8200,7 +8243,7 @@
         <v>20</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C184" s="5">
         <v>2</v>
@@ -8226,29 +8269,80 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="2"/>
+      <c r="B185" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="21"/>
+      <c r="H185" s="3">
+        <v>2</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K185" s="21" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="2"/>
+      <c r="B186" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="K186" s="21"/>
+      <c r="H186" s="3">
+        <v>2</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K186" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B187" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="C187" s="25">
+        <v>1</v>
+      </c>
+      <c r="D187" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="H187" s="27">
+        <v>1</v>
+      </c>
+      <c r="I187" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K187" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K186">

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED8FB61-6096-41D8-908B-1EF2938E191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492B29A-6583-4A19-87D2-179A4CCC0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -1914,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1982,13 +1982,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2327,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:K187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4003,7 +4000,7 @@
         <v>66</v>
       </c>
       <c r="H51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>4</v>
@@ -8328,13 +8325,13 @@
       <c r="C187" s="25">
         <v>1</v>
       </c>
-      <c r="D187" s="26" t="s">
+      <c r="D187" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="H187" s="27">
-        <v>1</v>
-      </c>
-      <c r="I187" s="26" t="s">
+      <c r="H187" s="26">
+        <v>1</v>
+      </c>
+      <c r="I187" s="19" t="s">
         <v>574</v>
       </c>
       <c r="J187" s="2" t="s">

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492B29A-6583-4A19-87D2-179A4CCC0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18645007-2A15-4BFF-9C15-7D800EE8F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1452" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="578">
   <si>
     <t>Alinity C</t>
   </si>
@@ -44,9 +44,6 @@
     <t>08P0320</t>
   </si>
   <si>
-    <t>25017UN24</t>
-  </si>
-  <si>
     <t>10x345 tests</t>
   </si>
   <si>
@@ -110,15 +107,6 @@
     <t>10x275</t>
   </si>
   <si>
-    <t>07P5730</t>
-  </si>
-  <si>
-    <t>4893UN24</t>
-  </si>
-  <si>
-    <t>10x1500 tests</t>
-  </si>
-  <si>
     <t>07P9920</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
   </si>
   <si>
     <t>04T8420</t>
-  </si>
-  <si>
-    <t>61250UD00</t>
   </si>
   <si>
     <t>4x300</t>
@@ -265,9 +250,6 @@
     <t>08P9670</t>
   </si>
   <si>
-    <t>67671UQ07</t>
-  </si>
-  <si>
     <t>67671UQ01</t>
   </si>
   <si>
@@ -1550,9 +1532,6 @@
   </si>
   <si>
     <t>01753UN25</t>
-  </si>
-  <si>
-    <t>66500UQ06</t>
   </si>
   <si>
     <t>ICT Reference Solution Check Valve (package, 1 per package)</t>
@@ -1688,9 +1667,6 @@
     <t>Billirubin Total Reagent (unit = cartridge: 275 reactions per cartridge)</t>
   </si>
   <si>
-    <t>Calcium Reagent (unit = cartridge: 1500 reactions per cartridge)</t>
-  </si>
-  <si>
     <t>Chol Reagent  (unit = cartridge: 400 reactions per cartridge)</t>
   </si>
   <si>
@@ -1821,6 +1797,9 @@
   </si>
   <si>
     <t>4, shelf</t>
+  </si>
+  <si>
+    <t>removed_date</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1988,6 +1967,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2322,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2338,177 +2318,181 @@
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="K1" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="18" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E3" s="11">
         <v>45492</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H3" s="12">
         <v>5</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E4" s="11">
         <v>46026</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="12">
         <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E5" s="11">
         <v>45868</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="12">
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -2518,7 +2502,7 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -2527,186 +2511,186 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7">
         <v>45914</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="H7" s="9">
         <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
         <v>46169</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="9">
         <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
         <v>46224</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="9">
         <v>10</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7">
         <v>46210</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9">
         <v>4</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" s="7">
         <v>46242</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H11" s="9">
         <v>8</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J11" s="6">
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -2718,366 +2702,373 @@
         <v>45959</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H13" s="3">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="L13" s="27">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>45854</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
+      <c r="B14" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H14" s="3">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="E14" s="7">
+        <v>46011</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E15" s="7">
-        <v>46011</v>
+        <v>46232</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E16" s="7">
-        <v>46232</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>310</v>
+        <v>8</v>
+      </c>
+      <c r="E16" s="11">
+        <v>46026</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H16" s="12">
+        <v>7</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>524</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="11">
-        <v>46026</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45991</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="12">
-        <v>8</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>406</v>
+      <c r="K17" s="20" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="E18" s="7">
-        <v>45991</v>
+        <v>45860</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="E19" s="7">
-        <v>45876</v>
+        <v>45978</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H19" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45860</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>210</v>
+        <v>14</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="K20" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>527</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="7">
-        <v>45978</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>212</v>
+        <v>278</v>
+      </c>
+      <c r="E21" s="11">
+        <v>45887</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J21" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="E22" s="11">
-        <v>45939</v>
+        <v>45993</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J22" s="6" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>534</v>
+        <v>407</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
@@ -3086,703 +3077,703 @@
         <v>284</v>
       </c>
       <c r="E23" s="11">
-        <v>45887</v>
+        <v>46179</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="12">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J23" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E24" s="11">
-        <v>45993</v>
+        <v>46100</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="12">
         <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>412</v>
+        <v>65</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>413</v>
+        <v>329</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="E25" s="11">
-        <v>46179</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>45061</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>405</v>
-      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E26" s="11">
-        <v>46100</v>
+        <v>45732</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="G26" s="6">
+        <v>300</v>
+      </c>
       <c r="H26" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>412</v>
+        <v>11</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="E27" s="11">
-        <v>45061</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>46142</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="H27" s="12">
         <v>1</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="23"/>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6">
+        <v>4</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C28" s="5">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="E28" s="11">
-        <v>45732</v>
+        <v>45991</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="6">
-        <v>300</v>
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H28" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="6">
         <v>1</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="11">
-        <v>46142</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>164</v>
+        <v>20</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>4003763</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>165</v>
+        <v>362</v>
       </c>
       <c r="H29" s="12">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="6">
-        <v>4</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>539</v>
+        <v>168</v>
       </c>
       <c r="C30" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="11">
-        <v>45991</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="12">
+        <v>167</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="6">
         <v>4</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>406</v>
-      </c>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>366</v>
+        <v>533</v>
       </c>
       <c r="C31" s="5">
-        <v>20</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <v>4003763</v>
+        <v>2</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="7">
+        <v>46128</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="H31" s="12">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="H31" s="9">
+        <v>8</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J31" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="11">
-        <v>45889</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="7">
+        <v>46183</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="12">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H32" s="9">
+        <v>8</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J32" s="6">
         <v>1</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>174</v>
+        <v>409</v>
       </c>
       <c r="C33" s="5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45980</v>
+      </c>
       <c r="F33" s="6" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>402</v>
+        <v>149</v>
+      </c>
+      <c r="H33" s="12">
+        <v>3</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="23"/>
+      <c r="K33" s="20" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="7">
-        <v>46128</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="E34" s="11">
+        <v>46112</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="12">
+        <v>10</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="9">
-        <v>8</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="20" t="s">
-        <v>406</v>
+      <c r="K34" s="21" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>535</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="E35" s="7">
-        <v>46183</v>
+        <v>46090</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H35" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="J35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>406</v>
+        <v>3</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C36" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E36" s="11">
-        <v>45980</v>
+        <v>46354</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H36" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36" s="6">
         <v>4</v>
       </c>
-      <c r="K36" s="20" t="s">
-        <v>405</v>
+      <c r="K36" s="21" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>542</v>
+        <v>411</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="E37" s="11">
-        <v>45869</v>
+        <v>47057</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>501</v>
+        <v>197</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="H37" s="12">
         <v>1</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="6">
+        <v>4</v>
+      </c>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="11">
-        <v>46112</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="12">
         <v>10</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="6">
-        <v>1</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C39" s="5">
-        <v>2</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="7">
-        <v>46090</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>119</v>
+        <v>378</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="9">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="H39" s="12">
+        <v>11</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="6">
-        <v>3</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>410</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="C40" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="11">
-        <v>46354</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>178</v>
+        <v>23</v>
+      </c>
+      <c r="E40" s="7">
+        <v>46046</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" s="12">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J40" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="11">
-        <v>47057</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>203</v>
+        <v>34</v>
+      </c>
+      <c r="E41" s="7">
+        <v>46046</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="12">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H41" s="9">
+        <v>10</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J41" s="6">
-        <v>4</v>
-      </c>
-      <c r="K41" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C42" s="5">
         <v>5</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" s="12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>412</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="E43" s="11">
+        <v>46234</v>
+      </c>
       <c r="F43" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>386</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="12">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="22"/>
+      <c r="J43" s="6">
+        <v>4</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="C44" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="7">
-        <v>46046</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E44" s="11">
+        <v>45639</v>
+      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="9">
-        <v>2</v>
+        <v>228</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3790,100 +3781,90 @@
         <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>415</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
       <c r="D45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="12">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="7">
-        <v>46046</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="9">
+      <c r="J45" s="6">
+        <v>1</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="15">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
+        <v>26657</v>
+      </c>
+      <c r="E46" s="11">
+        <v>46234</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="12">
         <v>10</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C46" s="5">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="12">
-        <v>6</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="6">
-        <v>1</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>406</v>
-      </c>
+      <c r="I46" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="12">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="E47" s="7">
+        <v>46120</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="9">
+        <v>19</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J47" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3891,32 +3872,32 @@
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="11">
-        <v>45639</v>
-      </c>
-      <c r="F48" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E48" s="7">
+        <v>46197</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G48" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" s="12">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="H48" s="9">
+        <v>20</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>238</v>
+        <v>3</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3924,190 +3905,198 @@
         <v>0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C49" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="12">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45953</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="9">
+        <v>13</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="J49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C50" s="15">
-        <v>5</v>
-      </c>
-      <c r="D50" s="6">
-        <v>26657</v>
-      </c>
-      <c r="E50" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="7">
+        <v>46388</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="9">
         <v>10</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="21"/>
+      <c r="I50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C51" s="5">
-        <v>10</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="7">
-        <v>46120</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>34181200</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1</v>
+        <v>383</v>
+      </c>
+      <c r="H51" s="12">
+        <v>7</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" s="6">
-        <v>2</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="7">
-        <v>46120</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>73</v>
+        <v>539</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3469</v>
+      </c>
+      <c r="E52" s="11">
+        <v>46168</v>
+      </c>
+      <c r="F52" s="6">
+        <v>240580</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="9">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="H52" s="12">
+        <v>2</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J52" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
       <c r="D53" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="7">
-        <v>46197</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>74</v>
+        <v>268</v>
+      </c>
+      <c r="E53" s="11">
+        <v>45949</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="9">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>406</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="C54" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="7">
-        <v>45953</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>124</v>
+        <v>83</v>
+      </c>
+      <c r="E54" s="11">
+        <v>45964</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="9">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="H54" s="12">
+        <v>2</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="K54" s="21" t="s">
         <v>406</v>
@@ -4118,809 +4107,809 @@
         <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C55" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
       <c r="D55" s="6" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="E55" s="7">
-        <v>46388</v>
+        <v>46039</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="9">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H55" s="12">
+        <v>1</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>424</v>
+        <v>541</v>
       </c>
       <c r="C56" s="5">
-        <v>5</v>
-      </c>
-      <c r="D56" s="6">
-        <v>34181200</v>
-      </c>
-      <c r="E56" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="11">
+        <v>45939</v>
+      </c>
       <c r="F56" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>389</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>547</v>
+        <v>309</v>
       </c>
       <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6">
-        <v>3469</v>
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="E57" s="11">
-        <v>46168</v>
+        <v>46059</v>
       </c>
       <c r="F57" s="6">
-        <v>240580</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>10691473</v>
+      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="12">
-        <v>2</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J57" s="6">
-        <v>1</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>425</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="C58" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="E58" s="11">
-        <v>45949</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>45601</v>
+      </c>
+      <c r="F58" s="6">
+        <v>10686943</v>
+      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J58" s="6">
+        <v>4</v>
+      </c>
+      <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>548</v>
+        <v>184</v>
       </c>
       <c r="C59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="E59" s="11">
-        <v>45964</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>45781</v>
+      </c>
+      <c r="F59" s="6">
+        <v>10662819</v>
+      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="12">
-        <v>2</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>412</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>427</v>
+        <v>186</v>
       </c>
       <c r="C60" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" s="7">
-        <v>46039</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E60" s="11">
+        <v>45639</v>
+      </c>
+      <c r="F60" s="6">
+        <v>10687231</v>
+      </c>
+      <c r="G60" s="6"/>
       <c r="H60" s="12">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K60" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>549</v>
+        <v>422</v>
       </c>
       <c r="C61" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E61" s="11">
-        <v>45939</v>
+        <v>45930</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H61" s="12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="J61" s="6">
+        <v>2</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>315</v>
+        <v>426</v>
       </c>
       <c r="C62" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>316</v>
+        <v>178</v>
       </c>
       <c r="E62" s="11">
-        <v>46059</v>
-      </c>
-      <c r="F62" s="6">
-        <v>10691473</v>
+        <v>45956</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="12">
-        <v>16</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="6">
+        <v>4</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="C63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="E63" s="11">
-        <v>45601</v>
-      </c>
-      <c r="F63" s="6">
-        <v>10686943</v>
-      </c>
-      <c r="G63" s="6"/>
+        <v>46001</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H63" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="6">
-        <v>4</v>
-      </c>
-      <c r="K63" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>190</v>
+        <v>542</v>
       </c>
       <c r="C64" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64" s="11">
-        <v>45781</v>
-      </c>
-      <c r="F64" s="6">
-        <v>10662819</v>
+        <v>120</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45832</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="G64" s="6"/>
-      <c r="H64" s="12">
-        <v>6</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="21"/>
+      <c r="H64" s="9">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="5">
-        <v>2</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="11">
-        <v>45639</v>
-      </c>
-      <c r="F65" s="6">
-        <v>10687231</v>
+        <v>120</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45918</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="12">
-        <v>5</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="21"/>
+      <c r="H65" s="9">
+        <v>1</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="C66" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E66" s="11">
-        <v>45930</v>
+        <v>45912</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="12">
+        <v>8</v>
+      </c>
+      <c r="I66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="12">
-        <v>15</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="J66" s="6">
         <v>2</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="E67" s="11">
-        <v>45956</v>
+        <v>45897</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>281</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H67" s="12">
         <v>1</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="E68" s="11">
-        <v>46001</v>
+        <v>45786</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="G68" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="12">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="12">
-        <v>2</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J68" s="6" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>550</v>
+        <v>427</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="7">
-        <v>45832</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="9">
+        <v>264</v>
+      </c>
+      <c r="E69" s="11">
+        <v>45932</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="12">
         <v>1</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>550</v>
+        <v>428</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="7">
-        <v>45918</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>128</v>
+        <v>222</v>
+      </c>
+      <c r="E70" s="11">
+        <v>45974</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="G70" s="6"/>
-      <c r="H70" s="9">
+      <c r="H70" s="12">
         <v>1</v>
       </c>
       <c r="I70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="K70" s="21" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="11">
-        <v>45912</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H71" s="12">
-        <v>8</v>
+        <v>253</v>
+      </c>
+      <c r="E71" s="7">
+        <v>46008</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="9">
+        <v>1</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>431</v>
+        <v>311</v>
       </c>
       <c r="C72" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E72" s="11">
-        <v>45897</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>45835</v>
+      </c>
+      <c r="F72" s="6">
+        <v>10687231</v>
+      </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="12">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="K72" s="21"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C73" s="5"/>
+        <v>429</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
       <c r="D73" s="6" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="E73" s="11">
-        <v>45786</v>
+        <v>45945</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G73" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H73" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J73" s="6">
+        <v>2</v>
+      </c>
+      <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="C74" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E74" s="11">
-        <v>45932</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>271</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="H74" s="12">
         <v>1</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K74" s="21"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>496</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4</v>
+      </c>
       <c r="D75" s="6" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E75" s="11">
-        <v>45974</v>
+        <v>45968</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G75" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="H75" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="J75" s="6">
+        <v>2</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>552</v>
+        <v>431</v>
       </c>
       <c r="C76" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="E76" s="7">
-        <v>46008</v>
+        <v>46152</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G76" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="H76" s="9">
         <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="C77" s="5">
-        <v>2</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C77" s="5"/>
       <c r="D77" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E77" s="11">
-        <v>45835</v>
-      </c>
-      <c r="F77" s="6">
-        <v>10687231</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="12">
-        <v>5</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="21"/>
+        <v>288</v>
+      </c>
+      <c r="E77" s="7">
+        <v>46217</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H77" s="9">
+        <v>10</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>435</v>
+        <v>208</v>
       </c>
       <c r="C78" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="E78" s="11">
-        <v>45945</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>76</v>
+        <v>45851</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="H78" s="12">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J78" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>502</v>
+        <v>129</v>
       </c>
       <c r="C79" s="5">
-        <v>2</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6" t="s">
-        <v>249</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>87334</v>
+      </c>
+      <c r="E79" s="11">
+        <v>46203</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>247</v>
+        <v>11</v>
+      </c>
+      <c r="J79" s="6">
+        <v>3</v>
       </c>
       <c r="K79" s="21"/>
     </row>
@@ -4929,1603 +4918,1589 @@
         <v>0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>503</v>
+        <v>141</v>
       </c>
       <c r="C80" s="5">
-        <v>4</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>87331</v>
       </c>
       <c r="E80" s="11">
-        <v>45968</v>
+        <v>46022</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G80" s="6"/>
       <c r="H80" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J80" s="6">
-        <v>2</v>
-      </c>
-      <c r="K80" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="C81" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="7">
-        <v>46152</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>295</v>
+        <v>356</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H81" s="9">
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="H81" s="12">
+        <v>2</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>297</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J81" s="6"/>
       <c r="K81" s="21" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C82" s="5"/>
+        <v>498</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
       <c r="D82" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" s="7">
-        <v>46217</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>298</v>
+        <v>353</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H82" s="9">
-        <v>10</v>
+        <v>355</v>
+      </c>
+      <c r="H82" s="12">
+        <v>2</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>297</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J82" s="6"/>
       <c r="K82" s="21" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>214</v>
+        <v>499</v>
       </c>
       <c r="C83" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E83" s="11">
-        <v>45851</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>216</v>
+        <v>358</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="H83" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="6">
-        <v>4</v>
-      </c>
-      <c r="K83" s="21"/>
+        <v>334</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="K83" s="21" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="D84" s="6">
-        <v>87334</v>
-      </c>
-      <c r="E84" s="11">
-        <v>46203</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="12">
         <v>2</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J84" s="6">
         <v>3</v>
       </c>
-      <c r="K84" s="21"/>
+      <c r="K84" s="21" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>147</v>
+        <v>432</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
       </c>
-      <c r="D85" s="6">
-        <v>87331</v>
-      </c>
-      <c r="E85" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="D85" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="12">
         <v>2</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J85" s="6">
         <v>3</v>
       </c>
-      <c r="K85" s="21"/>
+      <c r="K85" s="21" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="C86" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E86" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="E86" s="11">
+        <v>46384</v>
+      </c>
       <c r="F86" s="6" t="s">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="H86" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J86" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J86" s="6">
+        <v>4</v>
+      </c>
       <c r="K86" s="21" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>505</v>
+        <v>189</v>
       </c>
       <c r="C87" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>361</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="E87" s="11">
+        <v>45774</v>
+      </c>
+      <c r="F87" s="6">
+        <v>10693178</v>
+      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="21" t="s">
-        <v>507</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J87" s="6">
+        <v>4</v>
+      </c>
+      <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>356</v>
+        <v>199</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="C88" s="5">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E88" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="E88" s="11">
+        <v>46073</v>
+      </c>
       <c r="F88" s="6" t="s">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="H88" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J88" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="J88" s="6">
+        <v>5</v>
+      </c>
       <c r="K88" s="21" t="s">
-        <v>507</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>140</v>
+        <v>437</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="E89" s="11">
+        <v>53327</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="H89" s="12">
         <v>2</v>
       </c>
       <c r="I89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" s="6">
         <v>4</v>
       </c>
-      <c r="J89" s="6">
-        <v>3</v>
-      </c>
       <c r="K89" s="21" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E90" s="11">
+        <v>46084</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H90" s="12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J90" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>553</v>
+        <v>438</v>
       </c>
       <c r="C91" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E91" s="11">
-        <v>46384</v>
+        <v>46150</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="H91" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J91" s="6">
         <v>4</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>195</v>
+        <v>546</v>
       </c>
       <c r="C92" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="11">
-        <v>45774</v>
-      </c>
-      <c r="F92" s="6">
-        <v>10693178</v>
-      </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="12">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="E92" s="7">
+        <v>46123</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J92" s="6">
-        <v>4</v>
-      </c>
-      <c r="K92" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C93" s="5">
-        <v>1</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E93" s="11">
-        <v>46073</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>207</v>
+        <v>75</v>
+      </c>
+      <c r="E93" s="7">
+        <v>46334</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H93" s="12">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="H93" s="9">
+        <v>2</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J93" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>17</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>443</v>
+        <v>225</v>
       </c>
       <c r="C94" s="5">
         <v>1</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E94" s="11">
-        <v>53327</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H94" s="12">
         <v>2</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J94" s="6">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="K94" s="21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="C95" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="E95" s="11">
-        <v>46084</v>
+        <v>45930</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>65</v>
+        <v>294</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="H95" s="12">
-        <v>1</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J95" s="6">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J95" s="6"/>
       <c r="K95" s="21" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="C96" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E96" s="11">
-        <v>46150</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H96" s="12">
-        <v>1</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" s="6">
+        <v>323</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45657</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="9">
+        <v>0</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E97" s="4">
+        <v>46112</v>
+      </c>
+      <c r="F97" s="2">
+        <v>32411230</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H97" s="3">
         <v>4</v>
       </c>
-      <c r="K96" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C97" s="5">
-        <v>1</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" s="7">
-        <v>46123</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H97" s="9">
-        <v>1</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" s="6">
-        <v>2</v>
-      </c>
+      <c r="I97" s="2">
+        <v>-80</v>
+      </c>
+      <c r="J97" s="2"/>
       <c r="K97" s="21" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C98" s="5"/>
+        <v>490</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
       <c r="D98" s="6" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="E98" s="7">
-        <v>46334</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>46112</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G98" s="6"/>
       <c r="H98" s="9">
-        <v>2</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="6">
-        <v>2</v>
-      </c>
-      <c r="K98" s="21" t="s">
-        <v>412</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J98" s="6"/>
+      <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>231</v>
+        <v>491</v>
       </c>
       <c r="C99" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H99" s="12">
-        <v>2</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K99" s="21" t="s">
-        <v>445</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E99" s="7">
+        <v>46721</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="9">
+        <v>4</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J99" s="6"/>
+      <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="C100" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E100" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>301</v>
-      </c>
+        <v>45808</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G100" s="6"/>
       <c r="H100" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J100" s="6"/>
-      <c r="K100" s="21" t="s">
-        <v>439</v>
-      </c>
+      <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E101" s="7">
-        <v>45657</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>330</v>
+        <v>297</v>
+      </c>
+      <c r="E101" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="G101" s="6"/>
-      <c r="H101" s="9">
-        <v>0</v>
+      <c r="H101" s="12">
+        <v>20</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E102" s="4">
-        <v>46112</v>
-      </c>
-      <c r="F102" s="2">
-        <v>32411230</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H102" s="3">
-        <v>4</v>
-      </c>
-      <c r="I102" s="2">
-        <v>-80</v>
-      </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="21" t="s">
-        <v>489</v>
-      </c>
+      <c r="B102" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E102" s="11">
+        <v>45808</v>
+      </c>
+      <c r="F102" s="6">
+        <v>130112201</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H102" s="12">
+        <v>12</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="K102" s="21"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E103" s="7">
-        <v>46112</v>
-      </c>
-      <c r="F103" s="16" t="s">
-        <v>331</v>
+        <v>299</v>
+      </c>
+      <c r="E103" s="11">
+        <v>45808</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="G103" s="6"/>
-      <c r="H103" s="9">
-        <v>7</v>
+      <c r="H103" s="12">
+        <v>4</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="21"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C104" s="5">
         <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="E104" s="7">
-        <v>46721</v>
+        <v>46022</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="21"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E105" s="7">
+        <v>46842</v>
+      </c>
+      <c r="F105" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C105" s="5">
-        <v>2</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E105" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>322</v>
-      </c>
       <c r="G105" s="6"/>
-      <c r="H105" s="12">
-        <v>8</v>
+      <c r="H105" s="9">
+        <v>12</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C106" s="5">
         <v>2</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E106" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G106" s="6"/>
+        <v>45808</v>
+      </c>
+      <c r="F106" s="6">
+        <v>130112202</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="H106" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C107" s="5">
         <v>2</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E107" s="11">
         <v>45808</v>
       </c>
-      <c r="F107" s="6">
-        <v>130112201</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>304</v>
-      </c>
+      <c r="F107" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" s="6"/>
       <c r="H107" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="21"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C108" s="5">
         <v>2</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E108" s="11">
-        <v>45808</v>
+        <v>46022</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="21"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C109" s="5">
         <v>2</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" s="7">
-        <v>46022</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="9">
+        <v>300</v>
+      </c>
+      <c r="E109" s="11">
+        <v>45808</v>
+      </c>
+      <c r="F109" s="6">
+        <v>130112203</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H109" s="12">
         <v>12</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="21"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C110" s="5">
         <v>2</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>305</v>
+        <v>504</v>
       </c>
       <c r="E110" s="7">
-        <v>46842</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>327</v>
+        <v>46173</v>
+      </c>
+      <c r="F110" s="8">
+        <v>29005240</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="9">
-        <v>12</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="J110" s="6"/>
-      <c r="K110" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>492</v>
+        <v>395</v>
       </c>
       <c r="C111" s="5">
         <v>2</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E111" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F111" s="6">
-        <v>130112202</v>
+        <v>153</v>
+      </c>
+      <c r="E111" s="7">
+        <v>46099</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H111" s="12">
-        <v>12</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="J111" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="H111" s="9">
+        <v>2</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="6">
+        <v>4</v>
+      </c>
       <c r="K111" s="21"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C112" s="5">
-        <v>2</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C112" s="5"/>
       <c r="D112" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E112" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="12">
-        <v>5</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J112" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="E112" s="7">
+        <v>46243</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H112" s="9">
+        <v>4</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="6">
+        <v>4</v>
+      </c>
       <c r="K112" s="21"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="C113" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E113" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G113" s="6"/>
+        <v>370</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="H113" s="12">
-        <v>12</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>302</v>
+        <v>7</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="21"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="C114" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E114" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F114" s="6">
-        <v>130112203</v>
+        <v>374</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="H114" s="12">
-        <v>12</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>302</v>
+        <v>9</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="21"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="C115" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="E115" s="7">
-        <v>46173</v>
-      </c>
-      <c r="F115" s="8">
-        <v>29005240</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="9">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="E115" s="11">
+        <v>46337</v>
+      </c>
+      <c r="F115" s="6">
+        <v>24118720</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H115" s="12">
+        <v>8</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="J115" s="6">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K115" s="21"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="C116" s="5">
         <v>2</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E116" s="7">
-        <v>46099</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>160</v>
+        <v>234</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H116" s="9">
-        <v>2</v>
+        <v>236</v>
+      </c>
+      <c r="H116" s="12">
+        <v>3</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="6">
-        <v>4</v>
-      </c>
-      <c r="K116" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K116" s="21" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C117" s="5"/>
+        <v>445</v>
+      </c>
+      <c r="C117" s="5">
+        <v>5</v>
+      </c>
       <c r="D117" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" s="7">
-        <v>46243</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>162</v>
+        <v>101</v>
+      </c>
+      <c r="E117" s="11">
+        <v>46002</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H117" s="9">
-        <v>4</v>
+        <v>103</v>
+      </c>
+      <c r="H117" s="12">
+        <v>17</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="K117" s="21"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C118" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>378</v>
+        <v>16</v>
       </c>
       <c r="H118" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="21"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C119" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E119" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="E119" s="11">
+        <v>53327</v>
+      </c>
       <c r="F119" s="6" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>378</v>
+        <v>61</v>
       </c>
       <c r="H119" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="J119" s="6"/>
-      <c r="K119" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="J119" s="6">
+        <v>4</v>
+      </c>
+      <c r="K119" s="21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C120" s="5">
+        <v>2</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E120" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H120" s="9">
+        <v>3</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J120" s="6">
         <v>4</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E120" s="11">
-        <v>46337</v>
-      </c>
-      <c r="F120" s="6">
-        <v>24118720</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H120" s="12">
-        <v>8</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J120" s="6">
-        <v>2</v>
-      </c>
-      <c r="K120" s="21"/>
+      <c r="K120" s="21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6" t="s">
-        <v>241</v>
+        <v>160</v>
+      </c>
+      <c r="E121" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H121" s="12">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="H121" s="9">
+        <v>30</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>238</v>
+        <v>39</v>
+      </c>
+      <c r="J121" s="6">
+        <v>4</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C122" s="5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" s="11">
-        <v>46002</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E122" s="6"/>
       <c r="F122" s="6" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="H122" s="12">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>110</v>
+        <v>39</v>
+      </c>
+      <c r="J122" s="6">
+        <v>4</v>
       </c>
       <c r="K122" s="21"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H123" s="12">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="C123" s="5">
-        <v>1</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" s="12">
-        <v>1</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J123" s="6"/>
-      <c r="K123" s="21"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" s="5">
+        <v>6</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="12">
         <v>20</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C124" s="5">
-        <v>2</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E124" s="11">
-        <v>53327</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H124" s="12">
-        <v>10</v>
-      </c>
       <c r="I124" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J124" s="6">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C125" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E125" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H125" s="9">
-        <v>3</v>
+        <v>248</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J125" s="6">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C126" s="5">
+        <v>6</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="14">
+        <v>12</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="C126" s="5">
-        <v>2</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E126" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H126" s="9">
-        <v>30</v>
-      </c>
-      <c r="I126" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J126" s="6">
-        <v>4</v>
-      </c>
-      <c r="K126" s="21" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="C127" s="5">
-        <v>50</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>173</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D127" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="E127" s="11">
+        <v>46356</v>
+      </c>
+      <c r="F127" s="6">
+        <v>911360</v>
+      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="12">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J127" s="6">
-        <v>4</v>
-      </c>
-      <c r="K127" s="21"/>
+        <v>369</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D128" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="E128" s="11">
+        <v>46477</v>
+      </c>
+      <c r="F128" s="6">
+        <v>918444</v>
+      </c>
+      <c r="G128" s="6"/>
       <c r="H128" s="12">
-        <v>1</v>
-      </c>
-      <c r="I128" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>369</v>
+      </c>
       <c r="J128" s="6"/>
-      <c r="K128" s="21" t="s">
-        <v>458</v>
-      </c>
+      <c r="K128" s="21"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C129" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="E129" s="11">
+        <v>45957</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H129" s="12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>247</v>
+        <v>11</v>
+      </c>
+      <c r="J129" s="6">
+        <v>4</v>
       </c>
       <c r="K129" s="21" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C130" s="5">
-        <v>6</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="6">
+        <v>900025</v>
+      </c>
+      <c r="E130" s="11">
+        <v>45808</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="G130" s="6"/>
-      <c r="H130" s="14" t="s">
-        <v>461</v>
+      <c r="H130" s="12">
+        <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K130" s="21" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -6533,152 +6508,152 @@
         <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C131" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="14">
-        <v>12</v>
+      <c r="G131" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H131" s="12">
+        <v>8</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K131" s="6" t="s">
-        <v>460</v>
+        <v>241</v>
+      </c>
+      <c r="K131" s="21" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="C132" s="5">
-        <v>10</v>
-      </c>
-      <c r="D132" s="6">
-        <v>6095719</v>
-      </c>
-      <c r="E132" s="11">
-        <v>46356</v>
-      </c>
-      <c r="F132" s="6">
-        <v>911360</v>
-      </c>
-      <c r="G132" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H132" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K132" s="21" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="6">
-        <v>6095719</v>
-      </c>
-      <c r="E133" s="11">
-        <v>46477</v>
-      </c>
-      <c r="F133" s="6">
-        <v>918444</v>
-      </c>
-      <c r="G133" s="6"/>
+        <v>463</v>
+      </c>
+      <c r="C133" s="5">
+        <v>4</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="H133" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="J133" s="6"/>
-      <c r="K133" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K133" s="21" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="C134" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E134" s="11">
-        <v>45957</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>151</v>
+        <v>331</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="13" t="s">
+        <v>332</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="H134" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J134" s="6">
-        <v>4</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J134" s="6"/>
       <c r="K134" s="21" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C135" s="5">
-        <v>1</v>
-      </c>
-      <c r="D135" s="6">
-        <v>900025</v>
-      </c>
-      <c r="E135" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="G135" s="6"/>
+        <v>547</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6">
+        <v>861853</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="H135" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>258</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="J135" s="6"/>
       <c r="K135" s="21" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -6686,152 +6661,156 @@
         <v>0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C136" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="G136" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H136" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C137" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="H137" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>247</v>
+        <v>3</v>
+      </c>
+      <c r="J137" s="6">
+        <v>3</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C138" s="5">
-        <v>4</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>252</v>
+        <v>1</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="G138" s="6"/>
       <c r="H138" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K138" s="21" t="s">
-        <v>467</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="K138" s="21"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C139" s="5">
-        <v>2</v>
+        <v>338</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C139" s="15">
+        <v>1</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E139" s="6"/>
-      <c r="F139" s="13" t="s">
-        <v>338</v>
+      <c r="F139" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H139" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J139" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="K139" s="21" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C140" s="5"/>
+        <v>338</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C140" s="15">
+        <v>1</v>
+      </c>
       <c r="D140" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E140" s="6"/>
-      <c r="F140" s="6">
-        <v>861853</v>
+      <c r="F140" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H140" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="J140" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="K140" s="21" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6839,445 +6818,457 @@
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C141" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
       <c r="H141" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K141" s="21" t="s">
-        <v>516</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K141" s="21"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="C142" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="12">
-        <v>10</v>
+        <v>573</v>
+      </c>
+      <c r="E142" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" s="9">
+        <v>2</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J142" s="6">
-        <v>3</v>
-      </c>
-      <c r="K142" s="21" t="s">
-        <v>472</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="K142" s="21"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E143" s="11">
+        <v>45925</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H143" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="K143" s="21"/>
+        <v>205</v>
+      </c>
+      <c r="K143" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="C144" s="15">
-        <v>1</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C144" s="15"/>
       <c r="D144" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H144" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>474</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J144" s="6"/>
       <c r="K144" s="21" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="C145" s="15">
-        <v>1</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="C145" s="15"/>
       <c r="D145" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H145" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>474</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J145" s="6"/>
       <c r="K145" s="21" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="C146" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="12">
-        <v>3</v>
+        <v>274</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45853</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H146" s="9">
+        <v>1</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K146" s="21"/>
+        <v>205</v>
+      </c>
+      <c r="K146" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C147" s="5">
-        <v>1</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="6" t="s">
-        <v>581</v>
+        <v>274</v>
       </c>
       <c r="E147" s="7">
-        <v>46090</v>
+        <v>45965</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="G147" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="H147" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="K147" s="21"/>
+        <v>205</v>
+      </c>
+      <c r="K147" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>475</v>
+        <v>552</v>
       </c>
       <c r="C148" s="5">
         <v>1</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="E148" s="11">
-        <v>45925</v>
+        <v>45997</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="G148" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H148" s="12">
+        <v>3</v>
+      </c>
+      <c r="I148" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H148" s="12">
-        <v>1</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J148" s="6" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="K148" s="21" t="s">
-        <v>17</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C149" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C149" s="5">
+        <v>4</v>
+      </c>
       <c r="D149" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6" t="s">
-        <v>353</v>
+        <v>212</v>
+      </c>
+      <c r="E149" s="11">
+        <v>45746</v>
+      </c>
+      <c r="F149" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>349</v>
+        <v>211</v>
       </c>
       <c r="H149" s="12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J149" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J149" s="6">
+        <v>4</v>
+      </c>
       <c r="K149" s="21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C150" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C150" s="5">
+        <v>2</v>
+      </c>
       <c r="D150" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E150" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="E150" s="11">
+        <v>45894</v>
+      </c>
       <c r="F150" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>343</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G150" s="6"/>
       <c r="H150" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J150" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="J150" s="6">
+        <v>2</v>
+      </c>
       <c r="K150" s="21" t="s">
-        <v>515</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C151" s="5">
-        <v>1</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C151" s="5"/>
       <c r="D151" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E151" s="7">
-        <v>45853</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>281</v>
+        <v>72</v>
+      </c>
+      <c r="E151" s="11">
+        <v>46021</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H151" s="9">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="H151" s="12">
+        <v>4</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="J151" s="6">
+        <v>2</v>
       </c>
       <c r="K151" s="21" t="s">
-        <v>17</v>
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C152" s="5"/>
+        <v>473</v>
+      </c>
+      <c r="C152" s="5">
+        <v>1</v>
+      </c>
       <c r="D152" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E152" s="7">
-        <v>45965</v>
-      </c>
-      <c r="F152" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E152" s="11">
+        <v>45906</v>
+      </c>
+      <c r="F152" s="6" t="s">
         <v>283</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="H152" s="9">
+        <v>16</v>
+      </c>
+      <c r="H152" s="12">
         <v>1</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K152" s="21" t="s">
-        <v>17</v>
+        <v>399</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C153" s="5">
         <v>1</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="E153" s="11">
-        <v>45997</v>
+        <v>45939</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G153" s="6"/>
       <c r="H153" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="K153" s="21" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="C154" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="E154" s="11">
-        <v>45746</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>219</v>
+        <v>45875</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="H154" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J154" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K154" s="21" t="s">
-        <v>518</v>
+        <v>399</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -7285,32 +7276,34 @@
         <v>0</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="C155" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E155" s="11">
-        <v>45894</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="12">
+        <v>259</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45854</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="9">
         <v>1</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J155" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -7318,1032 +7311,861 @@
         <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C156" s="5"/>
+        <v>513</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1</v>
+      </c>
       <c r="D156" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E156" s="11">
-        <v>46021</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>79</v>
+        <v>259</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45865</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H156" s="12">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="H156" s="9">
+        <v>1</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J156" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="K156" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="C157" s="5">
         <v>1</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="E157" s="11">
-        <v>45906</v>
+        <v>45965</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="G157" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H157" s="12">
+        <v>1</v>
+      </c>
+      <c r="I157" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H157" s="12">
-        <v>1</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J157" s="6" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="K157" s="21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>562</v>
+        <v>474</v>
       </c>
       <c r="C158" s="5">
-        <v>1</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="D158" s="6">
+        <v>94600</v>
       </c>
       <c r="E158" s="11">
-        <v>45939</v>
+        <v>46081</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="12">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="J158" s="6">
+        <v>3</v>
       </c>
       <c r="K158" s="21" t="s">
-        <v>412</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C159" s="5">
         <v>1</v>
       </c>
-      <c r="D159" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E159" s="11">
-        <v>45875</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" s="12">
-        <v>1</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="D159" s="6">
+        <v>94613</v>
+      </c>
+      <c r="E159" s="7">
+        <v>46043</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="H159" s="9">
+        <v>2</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J159" s="6"/>
       <c r="K159" s="21" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="C160" s="5">
         <v>1</v>
       </c>
-      <c r="D160" s="6" t="s">
-        <v>265</v>
+      <c r="D160" s="6">
+        <v>94613</v>
       </c>
       <c r="E160" s="7">
-        <v>45854</v>
+        <v>46121</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G160" s="6"/>
       <c r="H160" s="9">
-        <v>1</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J160" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I160" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J160" s="6"/>
       <c r="K160" s="21" t="s">
-        <v>405</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="C161" s="5">
         <v>1</v>
       </c>
-      <c r="D161" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E161" s="7">
-        <v>45865</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" s="9">
-        <v>1</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="D161" s="6">
+        <v>94614</v>
+      </c>
+      <c r="E161" s="11">
+        <v>46045</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G161" s="6"/>
+      <c r="H161" s="12">
+        <v>4</v>
+      </c>
+      <c r="I161" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J161" s="6"/>
       <c r="K161" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C162" s="5">
-        <v>1</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E162" s="11">
-        <v>45965</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D162" s="6">
+        <v>559</v>
+      </c>
+      <c r="E162" s="6"/>
       <c r="F162" s="6" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="H162" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J162" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K162" s="21" t="s">
-        <v>412</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="J162" s="6"/>
+      <c r="K162" s="21"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>480</v>
+        <v>557</v>
       </c>
       <c r="C163" s="5">
         <v>5</v>
       </c>
-      <c r="D163" s="6">
-        <v>94600</v>
+      <c r="D163" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E163" s="11">
-        <v>46081</v>
+        <v>46160</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G163" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H163" s="12">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J163" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K163" s="21" t="s">
-        <v>17</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="C164" s="5">
-        <v>1</v>
-      </c>
-      <c r="D164" s="6">
-        <v>94613</v>
+        <v>4</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E164" s="7">
-        <v>46043</v>
+        <v>45925</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G164" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H164" s="9">
-        <v>2</v>
-      </c>
-      <c r="I164" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J164" s="6"/>
-      <c r="K164" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J164" s="6">
+        <v>3</v>
+      </c>
+      <c r="K164" s="21"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C165" s="5">
-        <v>1</v>
-      </c>
-      <c r="D165" s="6">
-        <v>94613</v>
+        <v>558</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E165" s="7">
-        <v>46121</v>
+        <v>46215</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G165" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H165" s="9">
-        <v>2</v>
-      </c>
-      <c r="I165" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J165" s="6"/>
-      <c r="K165" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J165" s="6">
+        <v>3</v>
+      </c>
+      <c r="K165" s="21"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C166" s="5">
         <v>1</v>
       </c>
-      <c r="D166" s="6">
-        <v>94614</v>
-      </c>
-      <c r="E166" s="11">
-        <v>46045</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G166" s="6"/>
-      <c r="H166" s="12">
-        <v>4</v>
-      </c>
-      <c r="I166" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J166" s="6"/>
+      <c r="D166" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45905</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="9">
+        <v>1</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="K166" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C167" s="5">
-        <v>2</v>
-      </c>
-      <c r="D167" s="6">
-        <v>559</v>
-      </c>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6" t="s">
-        <v>345</v>
+        <v>475</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" s="7">
+        <v>46122</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="H167" s="12">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="J167" s="6"/>
-      <c r="K167" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K167" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C168" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="E168" s="11">
-        <v>46160</v>
+        <v>46146</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H168" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J168" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="K168" s="21" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C169" s="5">
-        <v>4</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C169" s="5"/>
       <c r="D169" s="6" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="E169" s="7">
-        <v>45925</v>
+        <v>46190</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G169" s="6"/>
       <c r="H169" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J169" s="6">
-        <v>3</v>
-      </c>
-      <c r="K169" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K169" s="21" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="6" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="E170" s="7">
-        <v>46215</v>
+        <v>46258</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G170" s="6"/>
       <c r="H170" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J170" s="6">
-        <v>3</v>
-      </c>
-      <c r="K170" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K170" s="21" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="C171" s="5">
-        <v>1</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E171" s="7">
-        <v>45905</v>
-      </c>
-      <c r="F171" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G171" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="6">
+        <v>11561694</v>
+      </c>
+      <c r="E171" s="11">
+        <v>45838</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G171" s="6"/>
+      <c r="H171" s="12">
+        <v>6</v>
+      </c>
+      <c r="I171" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H171" s="9">
-        <v>1</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="J171" s="6" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="K171" s="21" t="s">
-        <v>17</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C172" s="5"/>
+        <v>477</v>
+      </c>
+      <c r="C172" s="5">
+        <v>2</v>
+      </c>
       <c r="D172" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E172" s="7">
-        <v>46122</v>
-      </c>
-      <c r="F172" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H172" s="9">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="E172" s="11">
+        <v>45809</v>
+      </c>
+      <c r="F172" s="6">
+        <v>10670357</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="H172" s="12">
+        <v>5</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K172" s="21" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J172" s="6">
+        <v>4</v>
+      </c>
+      <c r="K172" s="21"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C173" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E173" s="11">
-        <v>46146</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="E173" s="7">
+        <v>46329</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H173" s="12">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="H173" s="9">
+        <v>4</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="J173" s="6">
+        <v>2</v>
       </c>
       <c r="K173" s="21" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="6" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="E174" s="7">
-        <v>46190</v>
+        <v>46417</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G174" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H174" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="J174" s="6">
+        <v>2</v>
       </c>
       <c r="K174" s="21" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="C175" s="5"/>
+        <v>562</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2</v>
+      </c>
       <c r="D175" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E175" s="7">
-        <v>46258</v>
-      </c>
-      <c r="F175" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="9">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="E175" s="11">
+        <v>45934</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" s="12">
+        <v>14</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J175" s="6" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="J175" s="6">
+        <v>2</v>
       </c>
       <c r="K175" s="21" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>261</v>
+        <v>123</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="C176" s="5">
         <v>2</v>
       </c>
-      <c r="D176" s="6">
-        <v>11561694</v>
+      <c r="D176" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="E176" s="11">
-        <v>45838</v>
+        <v>46089</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J176" s="6" t="s">
-        <v>258</v>
+        <v>11</v>
+      </c>
+      <c r="J176" s="6">
+        <v>2</v>
       </c>
       <c r="K176" s="21" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C177" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E177" s="11">
-        <v>45809</v>
-      </c>
-      <c r="F177" s="6">
-        <v>10670357</v>
-      </c>
-      <c r="G177" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="H177" s="12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J177" s="6">
-        <v>4</v>
-      </c>
-      <c r="K177" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="K177" s="21" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="C178" s="5">
         <v>2</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E178" s="7">
-        <v>46329</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H178" s="9">
-        <v>4</v>
+        <v>376</v>
+      </c>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G178" s="6">
+        <v>1</v>
+      </c>
+      <c r="H178" s="12">
+        <v>3</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J178" s="6">
-        <v>2</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="J178" s="6"/>
       <c r="K178" s="21" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B179" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C179" s="5">
+        <v>2</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="12">
+        <v>3</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K179" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="3">
+        <v>2</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K180" s="21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E179" s="7">
-        <v>46417</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H179" s="9">
-        <v>4</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J179" s="6">
-        <v>2</v>
-      </c>
-      <c r="K179" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="5" t="s">
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C180" s="5">
-        <v>2</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E180" s="11">
-        <v>45934</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" s="12">
-        <v>14</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J180" s="6">
-        <v>2</v>
-      </c>
-      <c r="K180" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C181" s="5">
-        <v>2</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E181" s="11">
-        <v>46089</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="12">
-        <v>4</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J181" s="6">
-        <v>2</v>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="3">
+        <v>2</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="K181" s="21" t="s">
-        <v>411</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C182" s="5">
-        <v>4</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
-      <c r="G182" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H182" s="12">
-        <v>9</v>
-      </c>
-      <c r="I182" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J182" s="6">
-        <v>3</v>
+      <c r="B182" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C182" s="25">
+        <v>1</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="H182" s="26">
+        <v>2</v>
+      </c>
+      <c r="I182" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="K182" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C183" s="5">
-        <v>2</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G183" s="6">
-        <v>1</v>
-      </c>
-      <c r="H183" s="12">
-        <v>3</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="J183" s="6"/>
-      <c r="K183" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="C184" s="5">
-        <v>2</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="12">
-        <v>3</v>
-      </c>
-      <c r="I184" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J184" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="K184" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C185" s="1">
-        <v>1</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="3">
-        <v>2</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="K185" s="21" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="3">
-        <v>2</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="K186" s="21" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B187" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C187" s="25">
-        <v>1</v>
-      </c>
-      <c r="D187" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="H187" s="26">
-        <v>1</v>
-      </c>
-      <c r="I187" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="K187" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K186">
-    <sortCondition ref="B2:B186"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K181">
+    <sortCondition ref="B2:B181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18645007-2A15-4BFF-9C15-7D800EE8F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7FE84-7492-4770-8597-9D5BA445AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="510">
   <si>
     <t>Alinity C</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>10x300 tests</t>
-  </si>
-  <si>
-    <t>04T8620</t>
-  </si>
-  <si>
-    <t>68410UD00</t>
   </si>
   <si>
     <t>07P7220</t>
@@ -412,9 +406,6 @@
     <t>08P2821</t>
   </si>
   <si>
-    <t>65640BE00</t>
-  </si>
-  <si>
     <t>68528BE00</t>
   </si>
   <si>
@@ -595,36 +586,6 @@
     <t>41322Y600</t>
   </si>
   <si>
-    <t>GC2 Test Set</t>
-  </si>
-  <si>
-    <t>1200ab</t>
-  </si>
-  <si>
-    <t>GC3 Test Set</t>
-  </si>
-  <si>
-    <t>1300ab</t>
-  </si>
-  <si>
-    <t>GC4 Test Set</t>
-  </si>
-  <si>
-    <t>1400ab</t>
-  </si>
-  <si>
-    <t>Linearity FD</t>
-  </si>
-  <si>
-    <t>LP Test Set</t>
-  </si>
-  <si>
-    <t>501ab</t>
-  </si>
-  <si>
-    <t>704ab</t>
-  </si>
-  <si>
     <t>02R5250</t>
   </si>
   <si>
@@ -661,9 +622,6 @@
     <t>07P8602</t>
   </si>
   <si>
-    <t>66260FZ00</t>
-  </si>
-  <si>
     <t>Drawer1</t>
   </si>
   <si>
@@ -673,24 +631,6 @@
     <t xml:space="preserve"> Drawer1</t>
   </si>
   <si>
-    <t>Immunoessay for Abbot System</t>
-  </si>
-  <si>
-    <t>K833M-5</t>
-  </si>
-  <si>
-    <t>07021</t>
-  </si>
-  <si>
-    <t>5/box</t>
-  </si>
-  <si>
-    <t>K832M-5</t>
-  </si>
-  <si>
-    <t>07006</t>
-  </si>
-  <si>
     <t>07P4820</t>
   </si>
   <si>
@@ -742,9 +682,6 @@
     <t>04S6202</t>
   </si>
   <si>
-    <t>04S5201</t>
-  </si>
-  <si>
     <t>4, box2</t>
   </si>
   <si>
@@ -799,42 +736,12 @@
     <t>09D4004</t>
   </si>
   <si>
-    <t>08P1141</t>
-  </si>
-  <si>
-    <t>68274FZ00</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
     <t>08P0721</t>
   </si>
   <si>
     <t>76072BE00</t>
   </si>
   <si>
-    <t>Chek-Stik</t>
-  </si>
-  <si>
-    <t>S202432</t>
-  </si>
-  <si>
-    <t>Arlington Scientific</t>
-  </si>
-  <si>
-    <t>4K12R1</t>
-  </si>
-  <si>
-    <t>07P9501</t>
-  </si>
-  <si>
-    <t>66373UD00</t>
-  </si>
-  <si>
-    <t>70547UD00</t>
-  </si>
-  <si>
     <t>07P6001</t>
   </si>
   <si>
@@ -847,12 +754,6 @@
     <t>72280BE00</t>
   </si>
   <si>
-    <t>07P9401</t>
-  </si>
-  <si>
-    <t>67444UD00</t>
-  </si>
-  <si>
     <t>07P6901</t>
   </si>
   <si>
@@ -874,21 +775,12 @@
     <t>07P6801</t>
   </si>
   <si>
-    <t>12179UP00</t>
-  </si>
-  <si>
     <t>2 units</t>
   </si>
   <si>
     <t>12241UP00</t>
   </si>
   <si>
-    <t>08P0501</t>
-  </si>
-  <si>
-    <t>65517BE00</t>
-  </si>
-  <si>
     <t>08P1002</t>
   </si>
   <si>
@@ -907,12 +799,6 @@
     <t>62499UN24</t>
   </si>
   <si>
-    <t>08P4501</t>
-  </si>
-  <si>
-    <t>64447UD00</t>
-  </si>
-  <si>
     <t>08P6901</t>
   </si>
   <si>
@@ -943,9 +829,6 @@
     <t>08P88-10</t>
   </si>
   <si>
-    <t>12 VIALS PER BOX</t>
-  </si>
-  <si>
     <t>08P88-11</t>
   </si>
   <si>
@@ -982,12 +865,6 @@
     <t>1100ab</t>
   </si>
   <si>
-    <t>IBC Test Set</t>
-  </si>
-  <si>
-    <t>203ro</t>
-  </si>
-  <si>
     <t>Detectable Liquid Control UrineDrug Evaluation Panel Box1:Sample 1-to10 Box2: 11-to 20</t>
   </si>
   <si>
@@ -997,15 +874,6 @@
     <t>Technopath</t>
   </si>
   <si>
-    <t>0130112201</t>
-  </si>
-  <si>
-    <t>0130112202</t>
-  </si>
-  <si>
-    <t>0130112203</t>
-  </si>
-  <si>
     <t>0135062301</t>
   </si>
   <si>
@@ -1021,9 +889,6 @@
     <t>08P86-10</t>
   </si>
   <si>
-    <t>037209220</t>
-  </si>
-  <si>
     <t>032411230</t>
   </si>
   <si>
@@ -1033,15 +898,6 @@
     <t>Sysmex</t>
   </si>
   <si>
-    <t>Abbot Lab</t>
-  </si>
-  <si>
-    <t>Assy-Tubing</t>
-  </si>
-  <si>
-    <t>30110174-102</t>
-  </si>
-  <si>
     <t>01R3801</t>
   </si>
   <si>
@@ -1141,18 +997,6 @@
     <t>near Fridge3</t>
   </si>
   <si>
-    <t>Olympus Plastics</t>
-  </si>
-  <si>
-    <t>26-430</t>
-  </si>
-  <si>
-    <t>210719-598-C</t>
-  </si>
-  <si>
-    <t>96tips/unit</t>
-  </si>
-  <si>
     <t>Lab Guard Aptima</t>
   </si>
   <si>
@@ -1243,9 +1087,6 @@
     <t>order_unit</t>
   </si>
   <si>
-    <t>25-OH VitD Calibrator (1 set)</t>
-  </si>
-  <si>
     <t>1 kit</t>
   </si>
   <si>
@@ -1255,9 +1096,6 @@
     <t>2 cartridges per kit</t>
   </si>
   <si>
-    <t>96tips per unit</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4 syringes per bag</t>
   </si>
   <si>
@@ -1288,12 +1126,6 @@
     <t>CRP Vario High Sensitivity Calibrator Kit (1 kit)</t>
   </si>
   <si>
-    <t>Cuvette Dry Tip (1 unit)</t>
-  </si>
-  <si>
-    <t>2 tips per box</t>
-  </si>
-  <si>
     <t>Cuvette Segment (1 unit)</t>
   </si>
   <si>
@@ -1426,9 +1258,6 @@
     <t>Rheumatoid Factor Calibrator (1 kit)</t>
   </si>
   <si>
-    <t>RPR Card Test for Syphilis (1 kit)</t>
-  </si>
-  <si>
     <t>Sample &amp; Wash Solution Syringe O_x0002_Ring (1 unit)</t>
   </si>
   <si>
@@ -1465,9 +1294,6 @@
     <t>2 sets per box</t>
   </si>
   <si>
-    <t>Thyroid for Abbot System (1 unit)</t>
-  </si>
-  <si>
     <t>Total PSA Calibrator (1 kit)</t>
   </si>
   <si>
@@ -1477,12 +1303,6 @@
     <t>TSH Calibrator (1 unit)</t>
   </si>
   <si>
-    <t>6 bottles per box</t>
-  </si>
-  <si>
-    <t>UC4 Test Set (1 set)</t>
-  </si>
-  <si>
     <t>Vial Rack (1 unit)</t>
   </si>
   <si>
@@ -1516,9 +1336,6 @@
     <t>Multichem S Plus Control 3 (one glass vial)</t>
   </si>
   <si>
-    <t>Multichem IA Plus 1 (one glass vial)</t>
-  </si>
-  <si>
     <t>Multichem IA Plus 2 (one glass vial)</t>
   </si>
   <si>
@@ -1582,40 +1399,9 @@
     <t>Source Lamp (1 unit)</t>
   </si>
   <si>
-    <t>5 vials per box</t>
-  </si>
-  <si>
-    <t>Total T3 Calibrator (1 kit)</t>
-  </si>
-  <si>
-    <t>Total T4 Calibrator  (1 kit)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uric Acid 2 </t>
   </si>
   <si>
-    <r>
-      <t>1000 ul Researh Barrier Tip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(unit = bag: 96tips per bag)</t>
-    </r>
-  </si>
-  <si>
     <t>25-OH Vitamin D Reagent Kit (unit = cartridge: 100 reactions per cartridge)</t>
   </si>
   <si>
@@ -1649,9 +1435,6 @@
     <t>Anti HBc IgM Calibrator (1 kit)</t>
   </si>
   <si>
-    <t>Anti HCV Cal ibrator (1 kit)</t>
-  </si>
-  <si>
     <t>Anti HCV Reagent Kit (unit = cartridge: 100 reactions per cartridge)</t>
   </si>
   <si>
@@ -1661,9 +1444,6 @@
     <t>8 bags per box</t>
   </si>
   <si>
-    <t>AST 2 Reagent kit (unit = cartridge: 300 reactions per cartridge)</t>
-  </si>
-  <si>
     <t>Billirubin Total Reagent (unit = cartridge: 275 reactions per cartridge)</t>
   </si>
   <si>
@@ -1746,9 +1526,6 @@
   </si>
   <si>
     <t>TSH Reagent Kit (unit = cartridge:600 reactions per cartridge)</t>
-  </si>
-  <si>
-    <t>UA Diptube Liquid QC (unit = bottle: 15 mL per bottle)</t>
   </si>
   <si>
     <t>Ultra HDL Reagent (unit = cartridge: 350 reactions per cartridge)</t>
@@ -1806,7 +1583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,11 +1602,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1893,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1958,7 +1730,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1968,6 +1739,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2302,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,40 +2101,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2364,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="C2" s="5">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2379,167 +2157,167 @@
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" t="s">
-        <v>403</v>
+        <v>220</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="C3" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="E3" s="11">
-        <v>45492</v>
+        <v>46026</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>367</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>402</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>516</v>
+        <v>432</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="11">
-        <v>46026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>602562</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>323</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
       <c r="H4" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>401</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45868</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="12">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45914</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>13</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>399</v>
+        <v>3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>602562</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
+        <v>452</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>46169</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>45914</v>
+        <v>46224</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -2547,8 +2325,8 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>400</v>
+      <c r="K7" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2556,32 +2334,34 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>453</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7">
-        <v>46169</v>
+        <v>46210</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H8" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>400</v>
+      <c r="K8" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2589,32 +2369,32 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
-        <v>46224</v>
+        <v>46242</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H9" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>400</v>
+      <c r="K9" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2622,67 +2402,68 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>46210</v>
+        <v>45959</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H10" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>404</v>
+      <c r="K10" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7">
-        <v>46242</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="9">
-        <v>8</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>404</v>
+        <v>287</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H11" s="3">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="L11" s="26">
+        <v>45884</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2690,68 +2471,67 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="E12" s="7">
-        <v>45959</v>
+        <v>46011</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="H12" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>400</v>
+      <c r="K12" s="28" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" s="3">
-        <v>35</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="L13" s="27">
-        <v>45884</v>
+        <v>262</v>
+      </c>
+      <c r="E13" s="7">
+        <v>46232</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2759,135 +2539,135 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="7">
-        <v>46011</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>302</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="11">
+        <v>46026</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H14" s="12">
+        <v>7</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>404</v>
+      <c r="K14" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>459</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7">
-        <v>46232</v>
+        <v>45991</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="H15" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>404</v>
+      <c r="K15" s="28" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11">
-        <v>46026</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
+        <v>190</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45978</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="12">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>400</v>
+        <v>17</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="C17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="7">
-        <v>45991</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="9">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2895,91 +2675,89 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="7">
-        <v>45860</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>204</v>
+        <v>106</v>
+      </c>
+      <c r="E18" s="11">
+        <v>45993</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9">
+        <v>53</v>
+      </c>
+      <c r="H18" s="12">
         <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>399</v>
+        <v>108</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>353</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="7">
-        <v>45978</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="9">
-        <v>2</v>
+        <v>248</v>
+      </c>
+      <c r="E19" s="11">
+        <v>46179</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="12">
+        <v>1</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>399</v>
+        <v>191</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="E20" s="11">
-        <v>45939</v>
+        <v>46100</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="12">
         <v>1</v>
       </c>
@@ -2987,10 +2765,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>399</v>
+        <v>63</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2998,34 +2776,34 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>527</v>
+        <v>354</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="E21" s="11">
-        <v>45887</v>
+        <v>46142</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="H21" s="12">
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>399</v>
+        <v>11</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3033,151 +2811,152 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E22" s="11">
-        <v>45993</v>
+        <v>45991</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H22" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>406</v>
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>407</v>
+        <v>312</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="11">
-        <v>46179</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>4003763</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="H23" s="12">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>399</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>529</v>
+        <v>165</v>
       </c>
       <c r="C24" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="11">
-        <v>46100</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="12">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J24" s="6">
+        <v>4</v>
+      </c>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="C25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="11">
-        <v>45061</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="7">
+        <v>46128</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="9">
+        <v>8</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="11">
-        <v>45732</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="6">
-        <v>300</v>
-      </c>
-      <c r="H26" s="12">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>46183</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="9">
+        <v>8</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>11</v>
@@ -3185,34 +2964,34 @@
       <c r="J26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>405</v>
+      <c r="K26" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E27" s="11">
-        <v>46142</v>
+        <v>45980</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H27" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>11</v>
@@ -3220,8 +2999,8 @@
       <c r="J27" s="6">
         <v>4</v>
       </c>
-      <c r="K27" s="21" t="s">
-        <v>399</v>
+      <c r="K27" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3229,25 +3008,23 @@
         <v>19</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E28" s="11">
-        <v>45991</v>
+        <v>46112</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H28" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>11</v>
@@ -3255,391 +3032,388 @@
       <c r="J28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>400</v>
+      <c r="K28" s="21" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="C29" s="5">
-        <v>20</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <v>4003763</v>
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H29" s="12">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="J29" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J29" s="6">
+        <v>3</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="5">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="11">
+        <v>46354</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>396</v>
+      <c r="H30" s="12">
+        <v>8</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J30" s="6">
         <v>4</v>
       </c>
-      <c r="K30" s="23"/>
+      <c r="K30" s="28" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>533</v>
+        <v>357</v>
       </c>
       <c r="C31" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="7">
-        <v>46128</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="E31" s="11">
+        <v>47057</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="9">
-        <v>8</v>
+        <v>185</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J31" s="6">
-        <v>1</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>400</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="7">
-        <v>46183</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="12">
         <v>10</v>
       </c>
-      <c r="H32" s="9">
-        <v>8</v>
-      </c>
       <c r="I32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>400</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="11">
-        <v>45980</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="H33" s="12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="6">
-        <v>4</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>399</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>470</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="11">
-        <v>46112</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="E34" s="7">
+        <v>46046</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="12">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>400</v>
+      <c r="K34" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="E35" s="7">
-        <v>46090</v>
+        <v>46046</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="H35" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="C36" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="E36" s="11">
-        <v>46354</v>
+        <v>46022</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="H36" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J36" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E37" s="11">
-        <v>47057</v>
+        <v>46234</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>198</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="12">
         <v>1</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="22"/>
+      <c r="K37" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>536</v>
+        <v>359</v>
       </c>
       <c r="C38" s="5">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="12">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="15">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>26657</v>
+      </c>
+      <c r="E39" s="11">
+        <v>46234</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="12">
         <v>10</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="H39" s="12">
-        <v>11</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>373</v>
+      <c r="I39" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="22"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="6" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E40" s="7">
-        <v>46046</v>
+        <v>46120</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H40" s="9">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3647,224 +3421,234 @@
         <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>537</v>
+        <v>360</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E41" s="7">
-        <v>46046</v>
+        <v>46197</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H41" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="6">
-        <v>1</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>538</v>
+        <v>361</v>
       </c>
       <c r="C42" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>42</v>
+        <v>115</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45953</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="12">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H42" s="9">
+        <v>13</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J42" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="21" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="12">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E43" s="7">
+        <v>46388</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="9">
+        <v>10</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J43" s="6">
-        <v>4</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>399</v>
+        <v>2</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="11">
-        <v>45639</v>
-      </c>
-      <c r="F44" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D44" s="6">
+        <v>34181200</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="G44" s="6" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="H44" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>414</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="D45" s="6">
+        <v>3469</v>
+      </c>
+      <c r="E45" s="11">
+        <v>46168</v>
+      </c>
+      <c r="F45" s="6">
+        <v>240580</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="6"/>
       <c r="H45" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
       </c>
       <c r="K45" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="11">
+        <v>45949</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C46" s="15">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6">
-        <v>26657</v>
-      </c>
-      <c r="E46" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G46" s="6"/>
       <c r="H46" s="12">
-        <v>10</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>473</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="7">
-        <v>46120</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="E47" s="11">
+        <v>45964</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="9">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="H47" s="12">
+        <v>2</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3872,164 +3656,164 @@
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>365</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
       <c r="D48" s="6" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="E48" s="7">
-        <v>46197</v>
+        <v>46039</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="9">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="6">
-        <v>2</v>
-      </c>
-      <c r="K48" s="21" t="s">
-        <v>400</v>
+        <v>17</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="C49" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="7">
-        <v>45953</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="9">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="E49" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="12">
+        <v>2</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2</v>
+      </c>
       <c r="D50" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="7">
-        <v>46388</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="9">
-        <v>10</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="6">
-        <v>2</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>400</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="E50" s="11">
+        <v>46059</v>
+      </c>
+      <c r="F50" s="6">
+        <v>10691473</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="12">
+        <v>16</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="C51" s="5">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6">
-        <v>34181200</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="11">
+        <v>45930</v>
+      </c>
       <c r="F51" s="6" t="s">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>383</v>
+        <v>10</v>
       </c>
       <c r="H51" s="12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>539</v>
+        <v>370</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
-      <c r="D52" s="6">
-        <v>3469</v>
+      <c r="D52" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E52" s="11">
-        <v>46168</v>
-      </c>
-      <c r="F52" s="6">
-        <v>240580</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>45956</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J52" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -4037,69 +3821,65 @@
         <v>19</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E53" s="11">
-        <v>45949</v>
+        <v>46001</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C54" s="5"/>
       <c r="D54" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="11">
-        <v>45964</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="12">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45918</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="9">
+        <v>1</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>406</v>
+        <v>108</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4107,34 +3887,34 @@
         <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E55" s="7">
-        <v>46039</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>271</v>
+        <v>77</v>
+      </c>
+      <c r="E55" s="11">
+        <v>45912</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="H55" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>399</v>
+        <v>11</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4142,150 +3922,166 @@
         <v>19</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>541</v>
+        <v>369</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="E56" s="11">
-        <v>45939</v>
+        <v>45897</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H56" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>406</v>
+        <v>191</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="C57" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="E57" s="11">
-        <v>46059</v>
-      </c>
-      <c r="F57" s="6">
-        <v>10691473</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>45932</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H57" s="12">
-        <v>16</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="5">
-        <v>2</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E58" s="11">
-        <v>45601</v>
-      </c>
-      <c r="F58" s="6">
-        <v>10686943</v>
+        <v>45974</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="6">
-        <v>4</v>
-      </c>
-      <c r="K58" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>184</v>
+        <v>477</v>
       </c>
       <c r="C59" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="11">
-        <v>45781</v>
-      </c>
-      <c r="F59" s="6">
-        <v>10662819</v>
+        <v>229</v>
+      </c>
+      <c r="E59" s="7">
+        <v>46008</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="G59" s="6"/>
-      <c r="H59" s="12">
-        <v>6</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="21"/>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="C60" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="E60" s="11">
-        <v>45639</v>
-      </c>
-      <c r="F60" s="6">
-        <v>10687231</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>45945</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H60" s="12">
-        <v>5</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J60" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="6">
+        <v>2</v>
+      </c>
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4293,67 +4089,63 @@
         <v>0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C61" s="5">
         <v>2</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>48</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="H61" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="6">
-        <v>2</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>400</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C62" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="E62" s="11">
-        <v>45956</v>
+        <v>45968</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="H62" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J62" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4361,34 +4153,34 @@
         <v>19</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="C63" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E63" s="11">
-        <v>46001</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>273</v>
+        <v>250</v>
+      </c>
+      <c r="E63" s="7">
+        <v>46152</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="12">
-        <v>2</v>
+        <v>252</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4396,199 +4188,187 @@
         <v>19</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="6" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E64" s="7">
-        <v>45832</v>
+        <v>46217</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G64" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="H64" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="7">
-        <v>45918</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>87334</v>
+      </c>
+      <c r="E65" s="11">
+        <v>46203</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="9">
-        <v>1</v>
+      <c r="H65" s="12">
+        <v>2</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J65" s="6">
+        <v>3</v>
+      </c>
+      <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>543</v>
+        <v>138</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>79</v>
+      <c r="D66" s="6">
+        <v>87331</v>
       </c>
       <c r="E66" s="11">
-        <v>45912</v>
+        <v>46022</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J66" s="6">
-        <v>2</v>
-      </c>
-      <c r="K66" s="21" t="s">
-        <v>424</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K66" s="28"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E67" s="11">
-        <v>45897</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="H67" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J67" s="6"/>
       <c r="K67" s="21" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>437</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
       <c r="D68" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E68" s="11">
-        <v>45786</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G68" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="H68" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>252</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J68" s="6"/>
       <c r="K68" s="21" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E69" s="11">
-        <v>45932</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="H69" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J69" s="6"/>
       <c r="K69" s="21" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4596,30 +4376,28 @@
         <v>19</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
       <c r="D70" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" s="11">
-        <v>45974</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>223</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="J70" s="6">
+        <v>3</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4627,193 +4405,195 @@
         <v>19</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>544</v>
+        <v>376</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E71" s="7">
-        <v>46008</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>254</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="9">
-        <v>1</v>
+      <c r="H71" s="12">
+        <v>2</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="J71" s="6">
+        <v>3</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="C72" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="E72" s="11">
-        <v>45835</v>
-      </c>
-      <c r="F72" s="6">
-        <v>10687231</v>
-      </c>
-      <c r="G72" s="6"/>
+        <v>46384</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="H72" s="12">
-        <v>5</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="C73" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="E73" s="11">
-        <v>45945</v>
+        <v>46073</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="H73" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J73" s="6">
-        <v>2</v>
-      </c>
-      <c r="K73" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>495</v>
+        <v>381</v>
       </c>
       <c r="C74" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E74" s="11">
+        <v>53327</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="G74" s="6" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="H74" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K74" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="J74" s="6">
+        <v>4</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="C75" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E75" s="11">
-        <v>45968</v>
+        <v>46084</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="H75" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J75" s="6">
         <v>2</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A76" s="23"/>
       <c r="B76" s="5" t="s">
-        <v>431</v>
+        <v>503</v>
       </c>
       <c r="C76" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E76" s="7">
-        <v>46152</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H76" s="9">
-        <v>1</v>
+        <v>504</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="12">
+        <v>2</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>291</v>
+        <v>498</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>430</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4821,475 +4601,458 @@
         <v>19</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C77" s="5"/>
+        <v>382</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
       <c r="D77" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E77" s="7">
-        <v>46217</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>292</v>
+        <v>147</v>
+      </c>
+      <c r="E77" s="11">
+        <v>46150</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H77" s="9">
-        <v>10</v>
+        <v>149</v>
+      </c>
+      <c r="H77" s="12">
+        <v>1</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>291</v>
+        <v>11</v>
+      </c>
+      <c r="J77" s="6">
+        <v>4</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>430</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>208</v>
+        <v>479</v>
       </c>
       <c r="C78" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="11">
-        <v>45851</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>210</v>
+        <v>73</v>
+      </c>
+      <c r="E78" s="7">
+        <v>46123</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H78" s="12">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="H78" s="9">
+        <v>1</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="6">
-        <v>4</v>
-      </c>
-      <c r="K78" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6">
-        <v>87334</v>
-      </c>
-      <c r="E79" s="11">
-        <v>46203</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="12">
+        <v>479</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="7">
+        <v>46334</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" s="9">
         <v>2</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J79" s="6">
-        <v>3</v>
-      </c>
-      <c r="K79" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="6">
-        <v>87331</v>
-      </c>
-      <c r="E80" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="12">
-        <v>2</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="6">
-        <v>3</v>
-      </c>
-      <c r="K80" s="21"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3">
+        <v>2</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>497</v>
+        <v>205</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>356</v>
+        <v>206</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>355</v>
+        <v>208</v>
       </c>
       <c r="H81" s="12">
         <v>2</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J81" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="K81" s="21" t="s">
-        <v>500</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>498</v>
+        <v>384</v>
       </c>
       <c r="C82" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E82" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="E82" s="11">
+        <v>45930</v>
+      </c>
       <c r="F82" s="6" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="H82" s="12">
-        <v>2</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>334</v>
+        <v>7</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="21" t="s">
-        <v>500</v>
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="H83" s="12">
-        <v>2</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J83" s="6"/>
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E83" s="4">
+        <v>46112</v>
+      </c>
+      <c r="F83" s="2">
+        <v>32411230</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4</v>
+      </c>
+      <c r="I83" s="2">
+        <v>-80</v>
+      </c>
+      <c r="J83" s="2"/>
       <c r="K83" s="21" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>134</v>
+        <v>429</v>
       </c>
       <c r="C84" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+        <v>279</v>
+      </c>
+      <c r="E84" s="7">
+        <v>46112</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="G84" s="6"/>
-      <c r="H84" s="12">
-        <v>2</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="6">
-        <v>3</v>
-      </c>
-      <c r="K84" s="21" t="s">
-        <v>501</v>
-      </c>
+      <c r="H84" s="9">
+        <v>7</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C85" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+        <v>279</v>
+      </c>
+      <c r="E85" s="7">
+        <v>46721</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>281</v>
+      </c>
       <c r="G85" s="6"/>
-      <c r="H85" s="12">
-        <v>2</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J85" s="6">
-        <v>3</v>
-      </c>
-      <c r="K85" s="21" t="s">
-        <v>502</v>
-      </c>
+      <c r="H85" s="9">
+        <v>4</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>545</v>
+        <v>427</v>
       </c>
       <c r="C86" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="E86" s="11">
-        <v>46384</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>46022</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G86" s="6"/>
       <c r="H86" s="12">
-        <v>9</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J86" s="6">
-        <v>4</v>
-      </c>
-      <c r="K86" s="21" t="s">
-        <v>433</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="C87" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E87" s="11">
-        <v>45774</v>
-      </c>
-      <c r="F87" s="6">
-        <v>10693178</v>
+        <v>260</v>
+      </c>
+      <c r="E87" s="7">
+        <v>46022</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="12">
-        <v>5</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="6">
-        <v>4</v>
-      </c>
+      <c r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J87" s="6"/>
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C88" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E88" s="11">
-        <v>46073</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H88" s="12">
-        <v>1</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J88" s="6">
-        <v>5</v>
-      </c>
-      <c r="K88" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="E88" s="7">
+        <v>46842</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C89" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="E89" s="11">
-        <v>53327</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>194</v>
-      </c>
+        <v>46022</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="12">
-        <v>2</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J89" s="6">
-        <v>4</v>
-      </c>
-      <c r="K89" s="21" t="s">
-        <v>436</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="C90" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E90" s="11">
-        <v>46084</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H90" s="12">
+        <v>443</v>
+      </c>
+      <c r="E90" s="7">
+        <v>46173</v>
+      </c>
+      <c r="F90" s="8">
+        <v>29005240</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="9">
+        <v>5</v>
+      </c>
+      <c r="I90" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="J90" s="6">
-        <v>2</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>435</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="C91" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E91" s="11">
-        <v>46150</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="E91" s="7">
+        <v>46099</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>151</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H91" s="12">
-        <v>1</v>
+      <c r="H91" s="9">
+        <v>2</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>11</v>
@@ -5297,588 +5060,589 @@
       <c r="J91" s="6">
         <v>4</v>
       </c>
-      <c r="K91" s="21" t="s">
-        <v>399</v>
-      </c>
+      <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C92" s="5">
-        <v>1</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E92" s="7">
-        <v>46123</v>
+        <v>46243</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="H92" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J92" s="6">
-        <v>2</v>
-      </c>
-      <c r="K92" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>385</v>
+      </c>
+      <c r="C93" s="5">
+        <v>5</v>
+      </c>
       <c r="D93" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="7">
-        <v>46334</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>78</v>
+        <v>318</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H93" s="9">
-        <v>2</v>
+        <v>320</v>
+      </c>
+      <c r="H93" s="12">
+        <v>7</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J93" s="6">
-        <v>2</v>
-      </c>
-      <c r="K93" s="21" t="s">
-        <v>406</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J93" s="6"/>
+      <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>225</v>
+        <v>386</v>
       </c>
       <c r="C94" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="H94" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="K94" s="21" t="s">
-        <v>439</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J94" s="6"/>
+      <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="C95" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>293</v>
+        <v>104</v>
       </c>
       <c r="E95" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>294</v>
+        <v>46337</v>
+      </c>
+      <c r="F95" s="6">
+        <v>24118720</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>295</v>
+        <v>105</v>
       </c>
       <c r="H95" s="12">
-        <v>7</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="21" t="s">
-        <v>433</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" s="6">
+        <v>2</v>
+      </c>
+      <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
       <c r="C96" s="5">
         <v>2</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E96" s="7">
-        <v>45657</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="9">
-        <v>0</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="21"/>
+        <v>213</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H96" s="12">
+        <v>3</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E97" s="4">
-        <v>46112</v>
-      </c>
-      <c r="F97" s="2">
-        <v>32411230</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>385</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="3">
-        <v>4</v>
-      </c>
-      <c r="I97" s="2">
-        <v>-80</v>
-      </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="21" t="s">
-        <v>483</v>
+        <v>2</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
       <c r="C98" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E98" s="7">
-        <v>46112</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="9">
-        <v>7</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J98" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="E98" s="11">
+        <v>46002</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H98" s="12">
+        <v>17</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>491</v>
+        <v>390</v>
       </c>
       <c r="C99" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E99" s="7">
-        <v>46721</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="9">
-        <v>4</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>296</v>
+        <v>303</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="12">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
       <c r="C100" s="5">
         <v>2</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="E100" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>53327</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H100" s="12">
-        <v>8</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J100" s="6"/>
-      <c r="K100" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J100" s="6">
+        <v>4</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="C101" s="5">
         <v>2</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E101" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="12">
-        <v>20</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="E101" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H101" s="9">
+        <v>3</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J101" s="6">
+        <v>4</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>487</v>
+        <v>392</v>
       </c>
       <c r="C102" s="5">
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E102" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F102" s="6">
-        <v>130112201</v>
+        <v>157</v>
+      </c>
+      <c r="E102" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H102" s="12">
-        <v>12</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="H102" s="9">
+        <v>30</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J102" s="6">
+        <v>4</v>
+      </c>
+      <c r="K102" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>486</v>
+        <v>393</v>
       </c>
       <c r="C103" s="5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E103" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="G103" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="H103" s="12">
+        <v>200</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J103" s="6">
         <v>4</v>
       </c>
-      <c r="I103" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J103" s="6"/>
       <c r="K103" s="21"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C104" s="5">
-        <v>2</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C104" s="5"/>
       <c r="D104" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E104" s="7">
-        <v>46022</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="9">
-        <v>12</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>296</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="12">
+        <v>1</v>
+      </c>
+      <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="21"/>
+      <c r="K104" s="21" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>486</v>
+        <v>394</v>
       </c>
       <c r="C105" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E105" s="7">
-        <v>46842</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>321</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="9">
-        <v>12</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J105" s="6"/>
-      <c r="K105" s="21"/>
+      <c r="H105" s="12">
+        <v>20</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K105" s="21" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>486</v>
+        <v>400</v>
       </c>
       <c r="C106" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E106" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F106" s="6">
-        <v>130112202</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H106" s="12">
-        <v>12</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="J106" s="6"/>
-      <c r="K106" s="21"/>
+        <v>227</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K106" s="21" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="C107" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" s="11">
-        <v>45808</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>318</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="12">
-        <v>5</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J107" s="6"/>
-      <c r="K107" s="21"/>
+      <c r="H107" s="14">
+        <v>12</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K107" s="28" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="C108" s="5">
-        <v>2</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>300</v>
+        <v>10</v>
+      </c>
+      <c r="D108" s="6">
+        <v>6095719</v>
       </c>
       <c r="E108" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>322</v>
+        <v>46356</v>
+      </c>
+      <c r="F108" s="6">
+        <v>911360</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="12">
-        <v>12</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>296</v>
+        <v>10</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="J108" s="6"/>
-      <c r="K108" s="21"/>
+      <c r="K108" s="28"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C109" s="5">
-        <v>2</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>300</v>
+        <v>431</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6">
+        <v>6095719</v>
       </c>
       <c r="E109" s="11">
-        <v>45808</v>
+        <v>46477</v>
       </c>
       <c r="F109" s="6">
-        <v>130112203</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>298</v>
-      </c>
+        <v>918444</v>
+      </c>
+      <c r="G109" s="6"/>
       <c r="H109" s="12">
-        <v>12</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>296</v>
+        <v>10</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="21"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>503</v>
+        <v>402</v>
       </c>
       <c r="C110" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E110" s="7">
-        <v>46173</v>
-      </c>
-      <c r="F110" s="8">
-        <v>29005240</v>
-      </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="9">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="E110" s="11">
+        <v>45957</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H110" s="12">
+        <v>1</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J110" s="6">
         <v>4</v>
+      </c>
+      <c r="K110" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -5886,384 +5650,366 @@
         <v>0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C111" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E111" s="7">
-        <v>46099</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
       <c r="G111" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H111" s="9">
-        <v>2</v>
+        <v>222</v>
+      </c>
+      <c r="H111" s="12">
+        <v>8</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J111" s="6">
-        <v>4</v>
-      </c>
-      <c r="K111" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K111" s="21" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C112" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="C112" s="5">
+        <v>4</v>
+      </c>
       <c r="D112" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E112" s="7">
-        <v>46243</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
       <c r="G112" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H112" s="9">
+        <v>208</v>
+      </c>
+      <c r="H112" s="12">
         <v>4</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J112" s="6">
-        <v>4</v>
-      </c>
-      <c r="K112" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K112" s="21" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="C113" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
-        <v>371</v>
-      </c>
+      <c r="F113" s="6"/>
       <c r="G113" s="6" t="s">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="H113" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J113" s="6"/>
-      <c r="K113" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="C114" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="E114" s="6"/>
-      <c r="F114" s="6" t="s">
-        <v>371</v>
+      <c r="F114" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="H114" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="J114" s="6"/>
-      <c r="K114" s="21"/>
+      <c r="K114" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="C115" s="5">
-        <v>4</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C115" s="5"/>
       <c r="D115" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115" s="11">
-        <v>46337</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E115" s="6"/>
       <c r="F115" s="6">
-        <v>24118720</v>
+        <v>861853</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="H115" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J115" s="6">
-        <v>2</v>
-      </c>
-      <c r="K115" s="21"/>
+        <v>321</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="K115" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="C116" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H116" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="K116" s="21" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="C117" s="5">
         <v>5</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E117" s="11">
-        <v>46002</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>102</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="6" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="H117" s="12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K117" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="J117" s="6">
+        <v>3</v>
+      </c>
+      <c r="K117" s="21" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="C118" s="5">
         <v>1</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>351</v>
+      <c r="D118" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
       <c r="H118" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J118" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="K118" s="21"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C119" s="5">
-        <v>2</v>
+        <v>290</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C119" s="15">
+        <v>1</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" s="11">
-        <v>53327</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="H119" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J119" s="6">
-        <v>4</v>
+        <v>286</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C120" s="5">
-        <v>2</v>
+        <v>290</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C120" s="15">
+        <v>1</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E120" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>161</v>
+        <v>296</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H120" s="9">
-        <v>3</v>
+        <v>295</v>
+      </c>
+      <c r="H120" s="12">
+        <v>1</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J120" s="6">
-        <v>4</v>
+        <v>286</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="K120" s="21" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H121" s="9">
-        <v>30</v>
+        <v>209</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="12">
+        <v>3</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J121" s="6">
-        <v>4</v>
-      </c>
-      <c r="K121" s="21" t="s">
-        <v>400</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K121" s="21"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="C122" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H122" s="12">
-        <v>200</v>
+        <v>505</v>
+      </c>
+      <c r="E122" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="9">
+        <v>2</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J122" s="6">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="K122" s="21"/>
     </row>
@@ -6272,224 +6018,250 @@
         <v>0</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>412</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1</v>
+      </c>
       <c r="D123" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+        <v>231</v>
+      </c>
+      <c r="E123" s="11">
+        <v>45925</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="G123" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H123" s="12">
         <v>1</v>
       </c>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="21" t="s">
-        <v>452</v>
+      <c r="I123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K123" s="28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C124" s="5">
-        <v>6</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C124" s="15"/>
       <c r="D124" s="6" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
+      <c r="F124" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="H124" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>241</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J124" s="6"/>
       <c r="K124" s="21" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C125" s="5">
-        <v>6</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C125" s="15"/>
       <c r="D125" s="6" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="14" t="s">
-        <v>455</v>
+      <c r="F125" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H125" s="12">
+        <v>4</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>241</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J125" s="6"/>
       <c r="K125" s="21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C126" s="5">
-        <v>6</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="14">
-        <v>12</v>
+        <v>241</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45965</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H126" s="9">
+        <v>1</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K126" s="6" t="s">
-        <v>454</v>
+        <v>191</v>
+      </c>
+      <c r="K126" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C127" s="5">
-        <v>10</v>
-      </c>
-      <c r="D127" s="6">
-        <v>6095719</v>
+        <v>1</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="E127" s="11">
-        <v>46356</v>
-      </c>
-      <c r="F127" s="6">
-        <v>911360</v>
-      </c>
-      <c r="G127" s="6"/>
+        <v>45997</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H127" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K127" s="21" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="6">
-        <v>6095719</v>
+        <v>486</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E128" s="11">
-        <v>46477</v>
-      </c>
-      <c r="F128" s="6">
-        <v>918444</v>
+        <v>45894</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J128" s="6"/>
-      <c r="K128" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="J128" s="6">
+        <v>2</v>
+      </c>
+      <c r="K128" s="28" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C129" s="5">
-        <v>1</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C129" s="5"/>
       <c r="D129" s="6" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="E129" s="11">
-        <v>45957</v>
+        <v>46021</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="H129" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J129" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K129" s="21" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="C130" s="5">
         <v>1</v>
       </c>
-      <c r="D130" s="6">
-        <v>900025</v>
+      <c r="D130" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E130" s="11">
-        <v>45808</v>
+        <v>45906</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G130" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H130" s="12">
         <v>1</v>
       </c>
@@ -6497,72 +6269,78 @@
         <v>17</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="K130" s="21" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C131" s="5">
+        <v>1</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="12">
         <v>4</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H131" s="12">
-        <v>8</v>
-      </c>
       <c r="I131" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="K131" s="21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C132" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="E132" s="11">
+        <v>45965</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G132" s="6" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="H132" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>461</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -6570,466 +6348,486 @@
         <v>0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="C133" s="5">
-        <v>4</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>94600</v>
+      </c>
+      <c r="E133" s="11">
+        <v>46081</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G133" s="6"/>
       <c r="H133" s="12">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>241</v>
+        <v>11</v>
+      </c>
+      <c r="J133" s="6">
+        <v>3</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="C134" s="5">
-        <v>2</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E134" s="6"/>
-      <c r="F134" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H134" s="12">
-        <v>4</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>334</v>
+        <v>1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>94613</v>
+      </c>
+      <c r="E134" s="7">
+        <v>46043</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="9">
+        <v>2</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="21" t="s">
-        <v>506</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>381</v>
+        <v>125</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6">
-        <v>861853</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H135" s="12">
-        <v>6</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>373</v>
+        <v>424</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1</v>
+      </c>
+      <c r="D135" s="6">
+        <v>94613</v>
+      </c>
+      <c r="E135" s="7">
+        <v>46121</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="9">
+        <v>2</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="J135" s="6"/>
       <c r="K135" s="21" t="s">
-        <v>506</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="C136" s="5">
         <v>1</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E136" s="6"/>
+      <c r="D136" s="6">
+        <v>94614</v>
+      </c>
+      <c r="E136" s="11">
+        <v>46045</v>
+      </c>
       <c r="F136" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>239</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G136" s="6"/>
       <c r="H136" s="12">
-        <v>1</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>232</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J136" s="6"/>
       <c r="K136" s="21" t="s">
-        <v>509</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="C137" s="5">
-        <v>5</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="D137" s="6">
+        <v>559</v>
       </c>
       <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="G137" s="6" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="H137" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J137" s="6">
-        <v>3</v>
-      </c>
-      <c r="K137" s="21" t="s">
-        <v>466</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J137" s="6"/>
+      <c r="K137" s="21"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="C138" s="5">
-        <v>1</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="11">
+        <v>46160</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H138" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="K138" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="J138" s="6">
+        <v>2</v>
+      </c>
+      <c r="K138" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C139" s="15">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C139" s="5">
+        <v>4</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6" t="s">
-        <v>342</v>
+        <v>112</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45925</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H139" s="12">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="H139" s="9">
+        <v>1</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="K139" s="21" t="s">
-        <v>468</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J139" s="6">
+        <v>3</v>
+      </c>
+      <c r="K139" s="21"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C140" s="15">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C140" s="5"/>
       <c r="D140" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6" t="s">
-        <v>345</v>
+        <v>112</v>
+      </c>
+      <c r="E140" s="7">
+        <v>46215</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H140" s="12">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="H140" s="9">
+        <v>4</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J140" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="K140" s="21" t="s">
-        <v>468</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J140" s="6">
+        <v>3</v>
+      </c>
+      <c r="K140" s="21"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>510</v>
+        <v>417</v>
       </c>
       <c r="C141" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="12">
-        <v>3</v>
+        <v>199</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45905</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="9">
+        <v>1</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="K141" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="K141" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="C142" s="5">
-        <v>1</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="6" t="s">
-        <v>573</v>
+        <v>199</v>
       </c>
       <c r="E142" s="7">
-        <v>46090</v>
+        <v>46122</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="G142" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H142" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="K142" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="K142" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="E143" s="11">
-        <v>45925</v>
+        <v>46146</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H143" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="K143" s="21" t="s">
-        <v>16</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="C144" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H144" s="12">
-        <v>3</v>
+        <v>194</v>
+      </c>
+      <c r="E144" s="7">
+        <v>46190</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="9">
+        <v>1</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J144" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="K144" s="21" t="s">
-        <v>507</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="C145" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C145" s="5"/>
       <c r="D145" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H145" s="12">
-        <v>4</v>
+        <v>194</v>
+      </c>
+      <c r="E145" s="7">
+        <v>46258</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" s="6"/>
+      <c r="H145" s="9">
+        <v>2</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J145" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="K145" s="21" t="s">
-        <v>508</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C146" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="E146" s="7">
-        <v>45853</v>
+        <v>46329</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="H146" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>205</v>
+        <v>11</v>
+      </c>
+      <c r="J146" s="6">
+        <v>2</v>
       </c>
       <c r="K146" s="21" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="E147" s="7">
-        <v>45965</v>
+        <v>46417</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="H147" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>205</v>
+        <v>11</v>
+      </c>
+      <c r="J147" s="6">
+        <v>2</v>
       </c>
       <c r="K147" s="21" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -7037,1135 +6835,163 @@
         <v>0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="C148" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="E148" s="11">
-        <v>45997</v>
+        <v>45934</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H148" s="12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="J148" s="6">
+        <v>2</v>
       </c>
       <c r="K148" s="21" t="s">
-        <v>471</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="C149" s="5">
+        <v>2</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E149" s="11">
+        <v>46089</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G149" s="6"/>
+      <c r="H149" s="12">
         <v>4</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E149" s="11">
-        <v>45746</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H149" s="12">
-        <v>15</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J149" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K149" s="21" t="s">
-        <v>511</v>
+        <v>351</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>553</v>
+        <v>418</v>
       </c>
       <c r="C150" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E150" s="11">
-        <v>45894</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G150" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="H150" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J150" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K150" s="21" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C151" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="C151" s="5">
+        <v>2</v>
+      </c>
       <c r="D151" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E151" s="11">
-        <v>46021</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>74</v>
+        <v>325</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1</v>
       </c>
       <c r="H151" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J151" s="6"/>
+      <c r="K151" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C152" s="24">
+        <v>2</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="25">
         <v>3</v>
       </c>
-      <c r="J151" s="6">
-        <v>2</v>
-      </c>
-      <c r="K151" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C152" s="5">
-        <v>1</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E152" s="11">
-        <v>45906</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G152" s="6" t="s">
+      <c r="I152" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K152" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H152" s="12">
-        <v>1</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K152" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C153" s="5">
-        <v>1</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153" s="11">
-        <v>45939</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G153" s="6"/>
-      <c r="H153" s="12">
-        <v>4</v>
-      </c>
-      <c r="I153" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K153" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C154" s="5">
-        <v>1</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E154" s="11">
-        <v>45875</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" s="12">
-        <v>1</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K154" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C155" s="5">
-        <v>1</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E155" s="7">
-        <v>45854</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" s="9">
-        <v>1</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K155" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C156" s="5">
-        <v>1</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E156" s="7">
-        <v>45865</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H156" s="9">
-        <v>1</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K156" s="21" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="C157" s="5">
-        <v>1</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E157" s="11">
-        <v>45965</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H157" s="12">
-        <v>1</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K157" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C158" s="5">
-        <v>5</v>
-      </c>
-      <c r="D158" s="6">
-        <v>94600</v>
-      </c>
-      <c r="E158" s="11">
-        <v>46081</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G158" s="6"/>
-      <c r="H158" s="12">
-        <v>41</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J158" s="6">
-        <v>3</v>
-      </c>
-      <c r="K158" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C159" s="5">
-        <v>1</v>
-      </c>
-      <c r="D159" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E159" s="7">
-        <v>46043</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G159" s="6"/>
-      <c r="H159" s="9">
-        <v>2</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J159" s="6"/>
-      <c r="K159" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C160" s="5">
-        <v>1</v>
-      </c>
-      <c r="D160" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E160" s="7">
-        <v>46121</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G160" s="6"/>
-      <c r="H160" s="9">
-        <v>2</v>
-      </c>
-      <c r="I160" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J160" s="6"/>
-      <c r="K160" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C161" s="5">
-        <v>1</v>
-      </c>
-      <c r="D161" s="6">
-        <v>94614</v>
-      </c>
-      <c r="E161" s="11">
-        <v>46045</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G161" s="6"/>
-      <c r="H161" s="12">
-        <v>4</v>
-      </c>
-      <c r="I161" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J161" s="6"/>
-      <c r="K161" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C162" s="5">
-        <v>2</v>
-      </c>
-      <c r="D162" s="6">
-        <v>559</v>
-      </c>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="H162" s="12">
-        <v>4</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="J162" s="6"/>
-      <c r="K162" s="21"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C163" s="5">
-        <v>5</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E163" s="11">
-        <v>46160</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H163" s="12">
-        <v>6</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J163" s="6">
-        <v>2</v>
-      </c>
-      <c r="K163" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C164" s="5">
-        <v>4</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E164" s="7">
-        <v>45925</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H164" s="9">
-        <v>1</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J164" s="6">
-        <v>3</v>
-      </c>
-      <c r="K164" s="21"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E165" s="7">
-        <v>46215</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H165" s="9">
-        <v>4</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J165" s="6">
-        <v>3</v>
-      </c>
-      <c r="K165" s="21"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C166" s="5">
-        <v>1</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E166" s="7">
-        <v>45905</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H166" s="9">
-        <v>1</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K166" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E167" s="7">
-        <v>46122</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H167" s="9">
-        <v>1</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K167" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C168" s="5">
-        <v>1</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E168" s="11">
-        <v>46146</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H168" s="12">
-        <v>2</v>
-      </c>
-      <c r="I168" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J168" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K168" s="21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C169" s="5"/>
-      <c r="D169" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E169" s="7">
-        <v>46190</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G169" s="6"/>
-      <c r="H169" s="9">
-        <v>1</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J169" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K169" s="21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C170" s="5"/>
-      <c r="D170" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E170" s="7">
-        <v>46258</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G170" s="6"/>
-      <c r="H170" s="9">
-        <v>2</v>
-      </c>
-      <c r="I170" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J170" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K170" s="21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C171" s="5">
-        <v>2</v>
-      </c>
-      <c r="D171" s="6">
-        <v>11561694</v>
-      </c>
-      <c r="E171" s="11">
-        <v>45838</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G171" s="6"/>
-      <c r="H171" s="12">
-        <v>6</v>
-      </c>
-      <c r="I171" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J171" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="K171" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C172" s="5">
-        <v>2</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E172" s="11">
-        <v>45809</v>
-      </c>
-      <c r="F172" s="6">
-        <v>10670357</v>
-      </c>
-      <c r="G172" s="6"/>
-      <c r="H172" s="12">
-        <v>5</v>
-      </c>
-      <c r="I172" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J172" s="6">
-        <v>4</v>
-      </c>
-      <c r="K172" s="21"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C173" s="5">
-        <v>2</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E173" s="7">
-        <v>46329</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H173" s="9">
-        <v>4</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J173" s="6">
-        <v>2</v>
-      </c>
-      <c r="K173" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E174" s="7">
-        <v>46417</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H174" s="9">
-        <v>4</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J174" s="6">
-        <v>2</v>
-      </c>
-      <c r="K174" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="C175" s="5">
-        <v>2</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E175" s="11">
-        <v>45934</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H175" s="12">
-        <v>14</v>
-      </c>
-      <c r="I175" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J175" s="6">
-        <v>2</v>
-      </c>
-      <c r="K175" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="C176" s="5">
-        <v>2</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E176" s="11">
-        <v>46089</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G176" s="6"/>
-      <c r="H176" s="12">
-        <v>4</v>
-      </c>
-      <c r="I176" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J176" s="6">
-        <v>2</v>
-      </c>
-      <c r="K176" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C177" s="5">
-        <v>4</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H177" s="12">
-        <v>9</v>
-      </c>
-      <c r="I177" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J177" s="6">
-        <v>3</v>
-      </c>
-      <c r="K177" s="21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C178" s="5">
-        <v>2</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G178" s="6">
-        <v>1</v>
-      </c>
-      <c r="H178" s="12">
-        <v>3</v>
-      </c>
-      <c r="I178" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="J178" s="6"/>
-      <c r="K178" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C179" s="5">
-        <v>2</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="12">
-        <v>3</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J179" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="K179" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C180" s="1">
-        <v>1</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="3">
-        <v>2</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="J180" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="K180" s="21" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C181" s="1">
-        <v>1</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="3">
-        <v>2</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="J181" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="K181" s="21" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B182" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="C182" s="25">
-        <v>1</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="H182" s="26">
-        <v>2</v>
-      </c>
-      <c r="I182" s="19" t="s">
-        <v>566</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="K182" s="21" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K181">
-    <sortCondition ref="B2:B181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L152">
+    <sortCondition ref="B2:B152"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7FE84-7492-4770-8597-9D5BA445AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98B299-D851-445F-8ED8-CC7B3CF23997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -1665,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1730,7 +1730,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1739,13 +1738,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113:E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,28 +2141,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45894</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>349</v>
+        <v>3</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2171,96 +2174,104 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="E3" s="11">
-        <v>46026</v>
+        <v>45897</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>602562</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45905</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>45914</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
+        <v>246</v>
+      </c>
+      <c r="E5" s="11">
+        <v>45906</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="9">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>347</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2268,32 +2279,34 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>476</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>46169</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="E6" s="11">
+        <v>45912</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>347</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2303,21 +2316,23 @@
       <c r="B7" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>46224</v>
+        <v>45914</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -2331,37 +2346,33 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E8" s="7">
-        <v>46210</v>
+        <v>45918</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2369,101 +2380,102 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>412</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7">
-        <v>46242</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
+        <v>231</v>
+      </c>
+      <c r="E9" s="11">
+        <v>45925</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="9">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>350</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45925</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45959</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="B11" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45930</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="28" t="s">
+      <c r="H11" s="12">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="3">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="L11" s="26">
-        <v>45884</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2471,67 +2483,67 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="C12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="7">
-        <v>46011</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45930</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H12" s="9">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>350</v>
+        <v>257</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="21" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>371</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E13" s="7">
-        <v>46232</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>265</v>
+        <v>233</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45932</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="H13" s="12">
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>350</v>
+        <v>17</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2539,67 +2551,69 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>494</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E14" s="11">
-        <v>46026</v>
+        <v>45934</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="21" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7">
-        <v>45991</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="9">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>351</v>
+        <v>17</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2607,124 +2621,122 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45978</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9">
+        <v>92</v>
+      </c>
+      <c r="E16" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="12">
         <v>2</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>346</v>
+        <v>63</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="E17" s="11">
         <v>45939</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>346</v>
+        <v>63</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E18" s="11">
-        <v>45993</v>
+        <v>45945</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H18" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>352</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E19" s="11">
-        <v>46179</v>
+        <v>45949</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="12">
         <v>1</v>
       </c>
@@ -2734,65 +2746,65 @@
       <c r="J19" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>346</v>
+      <c r="K19" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>463</v>
+        <v>361</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="11">
-        <v>46100</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="12">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45953</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="9">
+        <v>13</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E21" s="11">
-        <v>46142</v>
+        <v>45956</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="12">
         <v>1</v>
       </c>
@@ -2802,205 +2814,216 @@
       <c r="J21" s="6">
         <v>4</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="21" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E22" s="11">
-        <v>45991</v>
+        <v>45957</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="H22" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>347</v>
+        <v>4</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>312</v>
+        <v>455</v>
       </c>
       <c r="C23" s="5">
-        <v>20</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>4003763</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45959</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="12">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="H23" s="9">
+        <v>10</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>165</v>
+        <v>473</v>
       </c>
       <c r="C24" s="5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="E24" s="11">
+        <v>45964</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>344</v>
+        <v>53</v>
+      </c>
+      <c r="H24" s="12">
+        <v>2</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="6">
-        <v>4</v>
-      </c>
-      <c r="K24" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="E25" s="7">
-        <v>46128</v>
+        <v>45965</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="H25" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>488</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7">
-        <v>46183</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="E26" s="11">
+        <v>45965</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>347</v>
+        <v>17</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E27" s="11">
-        <v>45980</v>
+        <v>45968</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H27" s="12">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="J27" s="6">
-        <v>4</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>346</v>
+        <v>2</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3008,32 +3031,30 @@
         <v>19</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>467</v>
+        <v>372</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="E28" s="11">
-        <v>46112</v>
+        <v>45974</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3041,60 +3062,58 @@
         <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C29" s="5">
-        <v>2</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="E29" s="7">
-        <v>46090</v>
+        <v>45978</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="H29" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="6">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E30" s="11">
-        <v>46354</v>
+        <v>45980</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="H30" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>11</v>
@@ -3102,227 +3121,249 @@
       <c r="J30" s="6">
         <v>4</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="21" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>357</v>
+        <v>459</v>
       </c>
       <c r="C31" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="11">
-        <v>47057</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>184</v>
+        <v>29</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45991</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="12">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="H31" s="9">
+        <v>6</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J31" s="6">
-        <v>4</v>
-      </c>
-      <c r="K31" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C32" s="5">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="11">
+        <v>45991</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H32" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>462</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45993</v>
+      </c>
       <c r="F33" s="6" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="H33" s="12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C34" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="7">
-        <v>46046</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>24</v>
+        <v>197</v>
+      </c>
+      <c r="E34" s="11">
+        <v>45997</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="9">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="H34" s="12">
+        <v>3</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>347</v>
+        <v>17</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>367</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="7">
-        <v>46046</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>33</v>
+        <v>239</v>
+      </c>
+      <c r="E35" s="11">
+        <v>46001</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="9">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E36" s="11">
-        <v>46022</v>
+        <v>46002</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="H36" s="12">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>358</v>
+        <v>477</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>178</v>
+        <v>229</v>
+      </c>
+      <c r="E37" s="7">
+        <v>46008</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="12">
+      <c r="H37" s="9">
         <v>1</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3330,21 +3371,25 @@
         <v>0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>359</v>
+        <v>457</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="12">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="E38" s="7">
+        <v>46011</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="9">
+        <v>2</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>37</v>
@@ -3352,65 +3397,73 @@
       <c r="J38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" s="15">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6">
-        <v>26657</v>
+      <c r="K38" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E39" s="11">
-        <v>46234</v>
+        <v>46021</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="H39" s="12">
-        <v>10</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>471</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="7">
-        <v>46120</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="E40" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="9">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="H40" s="12">
+        <v>6</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J40" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>347</v>
@@ -3421,365 +3474,347 @@
         <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="7">
-        <v>46197</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="9">
-        <v>20</v>
+        <v>138</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>87331</v>
+      </c>
+      <c r="E41" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="12">
+        <v>2</v>
       </c>
       <c r="I41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="6">
         <v>3</v>
       </c>
-      <c r="J41" s="6">
-        <v>2</v>
-      </c>
-      <c r="K41" s="28" t="s">
-        <v>347</v>
-      </c>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="C42" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="7">
-        <v>45953</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="9">
-        <v>13</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="6">
-        <v>2</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E42" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="12">
+        <v>20</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="E43" s="7">
-        <v>46388</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>46022</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="9">
-        <v>10</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="6">
-        <v>2</v>
-      </c>
-      <c r="K43" s="28" t="s">
-        <v>347</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="C44" s="5">
-        <v>5</v>
-      </c>
-      <c r="D44" s="6">
-        <v>34181200</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>331</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="12">
-        <v>7</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>321</v>
+        <v>12</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
-      <c r="D45" s="6">
-        <v>3469</v>
+      <c r="D45" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E45" s="11">
-        <v>46168</v>
-      </c>
-      <c r="F45" s="6">
-        <v>240580</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>46026</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="6"/>
       <c r="H45" s="12">
         <v>2</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>363</v>
+        <v>17</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="6" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="E46" s="11">
-        <v>45949</v>
+        <v>46026</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H46" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>191</v>
+        <v>11</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="11">
-        <v>45964</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>82</v>
+        <v>237</v>
+      </c>
+      <c r="E47" s="7">
+        <v>46039</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H47" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>237</v>
+      <c r="D48" s="6">
+        <v>94613</v>
       </c>
       <c r="E48" s="7">
-        <v>46039</v>
+        <v>46043</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="9">
+        <v>2</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="H48" s="12">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>92</v>
+      <c r="D49" s="6">
+        <v>94614</v>
       </c>
       <c r="E49" s="11">
-        <v>45939</v>
+        <v>46045</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="12">
-        <v>2</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J49" s="6"/>
       <c r="K49" s="21" t="s">
-        <v>352</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="C50" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E50" s="11">
-        <v>46059</v>
-      </c>
-      <c r="F50" s="6">
-        <v>10691473</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="12">
-        <v>16</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="E50" s="7">
+        <v>46046</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="9">
+        <v>2</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C51" s="5">
-        <v>2</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="E51" s="7">
+        <v>46046</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="9">
         <v>10</v>
       </c>
-      <c r="H51" s="12">
-        <v>15</v>
-      </c>
       <c r="I51" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J51" s="6">
-        <v>2</v>
-      </c>
-      <c r="K51" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="21" t="s">
         <v>347</v>
       </c>
     </row>
@@ -3788,168 +3823,164 @@
         <v>174</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="C52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="E52" s="11">
-        <v>45956</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>176</v>
+        <v>46059</v>
+      </c>
+      <c r="F52" s="6">
+        <v>10691473</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="12">
-        <v>1</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="6">
-        <v>4</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>346</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="E53" s="11">
-        <v>46001</v>
+        <v>46073</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="G53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="12">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" s="6">
+        <v>5</v>
+      </c>
+      <c r="K53" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="H53" s="12">
-        <v>2</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="7">
-        <v>45918</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>119</v>
+        <v>416</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>94600</v>
+      </c>
+      <c r="E54" s="11">
+        <v>46081</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="G54" s="6"/>
-      <c r="H54" s="9">
-        <v>1</v>
+      <c r="H54" s="12">
+        <v>41</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>352</v>
+        <v>11</v>
+      </c>
+      <c r="J54" s="6">
+        <v>3</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E55" s="11">
-        <v>45912</v>
+        <v>46084</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H55" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J55" s="6">
         <v>2</v>
       </c>
-      <c r="K55" s="28" t="s">
-        <v>368</v>
+      <c r="K55" s="21" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>369</v>
+        <v>450</v>
       </c>
       <c r="C56" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="E56" s="11">
-        <v>45897</v>
+        <v>46089</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>346</v>
+        <v>11</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3957,263 +3988,259 @@
         <v>19</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="C57" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="11">
-        <v>45932</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>234</v>
+        <v>109</v>
+      </c>
+      <c r="E57" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="12">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="H57" s="9">
+        <v>4</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>191</v>
+        <v>37</v>
+      </c>
+      <c r="J57" s="6">
+        <v>3</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>507</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
       <c r="D58" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="11">
-        <v>45974</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>203</v>
+        <v>505</v>
+      </c>
+      <c r="E58" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>506</v>
       </c>
       <c r="G58" s="6"/>
-      <c r="H58" s="12">
-        <v>1</v>
+      <c r="H58" s="9">
+        <v>2</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>346</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>477</v>
+        <v>343</v>
       </c>
       <c r="C59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="E59" s="7">
-        <v>46008</v>
+        <v>46099</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="H59" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>352</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J59" s="6">
+        <v>4</v>
+      </c>
+      <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="C60" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E60" s="11">
-        <v>45945</v>
+        <v>46100</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G60" s="6"/>
       <c r="H60" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J60" s="6">
-        <v>2</v>
-      </c>
-      <c r="K60" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="11">
+        <v>46112</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="12">
+        <v>10</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C61" s="5">
-        <v>2</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C62" s="5">
+      <c r="B62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" s="4">
+        <v>46112</v>
+      </c>
+      <c r="F62" s="2">
+        <v>32411230</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H62" s="3">
         <v>4</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="11">
-        <v>45968</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H62" s="12">
-        <v>5</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="6">
-        <v>2</v>
-      </c>
+      <c r="I62" s="2">
+        <v>-80</v>
+      </c>
+      <c r="J62" s="2"/>
       <c r="K62" s="21" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="C63" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E63" s="7">
-        <v>46152</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>252</v>
-      </c>
+        <v>46112</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="9">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K63" s="21" t="s">
-        <v>374</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="E64" s="7">
-        <v>46217</v>
+        <v>46120</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H64" s="9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>253</v>
+      <c r="J64" s="6">
+        <v>2</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4221,154 +4248,168 @@
         <v>125</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>126</v>
+        <v>424</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="6">
-        <v>87334</v>
-      </c>
-      <c r="E65" s="11">
-        <v>46203</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>127</v>
+        <v>94613</v>
+      </c>
+      <c r="E65" s="7">
+        <v>46121</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="G65" s="6"/>
-      <c r="H65" s="12">
-        <v>2</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="6">
-        <v>3</v>
-      </c>
-      <c r="K65" s="21"/>
+      <c r="H65" s="9">
+        <v>2</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="6">
-        <v>87331</v>
-      </c>
-      <c r="E66" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="12">
-        <v>2</v>
+        <v>417</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="7">
+        <v>46122</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="6">
-        <v>3</v>
-      </c>
-      <c r="K66" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6" t="s">
-        <v>309</v>
+        <v>73</v>
+      </c>
+      <c r="E67" s="7">
+        <v>46123</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H67" s="12">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="H67" s="9">
+        <v>1</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J67" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J67" s="6">
+        <v>2</v>
+      </c>
       <c r="K67" s="21" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="C68" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
-        <v>306</v>
+        <v>42</v>
+      </c>
+      <c r="E68" s="7">
+        <v>46128</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="H68" s="12">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H68" s="9">
+        <v>8</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J68" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
       <c r="K68" s="21" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>438</v>
+        <v>354</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E69" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="E69" s="11">
+        <v>46142</v>
+      </c>
       <c r="F69" s="6" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>307</v>
+        <v>156</v>
       </c>
       <c r="H69" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J69" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J69" s="6">
+        <v>4</v>
+      </c>
       <c r="K69" s="21" t="s">
-        <v>439</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4376,28 +4417,34 @@
         <v>19</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>131</v>
+        <v>492</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="E70" s="11">
+        <v>46146</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="H70" s="12">
         <v>2</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="6">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4405,121 +4452,127 @@
         <v>19</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="E71" s="11">
+        <v>46150</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="H71" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J71" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>441</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>478</v>
+        <v>375</v>
       </c>
       <c r="C72" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E72" s="11">
-        <v>46384</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>172</v>
+        <v>250</v>
+      </c>
+      <c r="E72" s="7">
+        <v>46152</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H72" s="12">
-        <v>9</v>
+        <v>252</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="6">
-        <v>4</v>
-      </c>
-      <c r="K72" s="28" t="s">
-        <v>377</v>
+        <v>3</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>378</v>
+        <v>490</v>
       </c>
       <c r="C73" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="E73" s="11">
-        <v>46073</v>
+        <v>46160</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="H73" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J73" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>179</v>
+      <c r="D74" s="6">
+        <v>3469</v>
       </c>
       <c r="E74" s="11">
-        <v>53327</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>180</v>
+        <v>46168</v>
+      </c>
+      <c r="F74" s="6">
+        <v>240580</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="H74" s="12">
         <v>2</v>
@@ -4528,104 +4581,103 @@
         <v>37</v>
       </c>
       <c r="J74" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C75" s="5"/>
       <c r="D75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="11">
-        <v>46084</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="E75" s="7">
+        <v>46169</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H75" s="12">
+        <v>7</v>
+      </c>
+      <c r="H75" s="9">
+        <v>10</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E76" s="7">
+        <v>46173</v>
+      </c>
+      <c r="F76" s="8">
+        <v>29005240</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="9">
+        <v>5</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" s="6">
-        <v>2</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="12">
-        <v>2</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K76" s="21" t="s">
-        <v>16</v>
+      <c r="J76" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="E77" s="11">
-        <v>46150</v>
+        <v>46179</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>149</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="12">
         <v>1</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>346</v>
@@ -4636,391 +4688,409 @@
         <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C78" s="5"/>
       <c r="D78" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E78" s="7">
-        <v>46123</v>
+        <v>46183</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H78" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J78" s="6">
-        <v>2</v>
-      </c>
-      <c r="K78" s="28" t="s">
-        <v>352</v>
+        <v>1</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E79" s="7">
-        <v>46334</v>
+        <v>46190</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="3">
-        <v>2</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>499</v>
+      <c r="A80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="7">
+        <v>46197</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="9">
+        <v>20</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="6">
+        <v>2</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>500</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="6"/>
+      <c r="D81" s="6">
+        <v>87334</v>
+      </c>
+      <c r="E81" s="11">
+        <v>46203</v>
+      </c>
       <c r="F81" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>208</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="12">
         <v>2</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K81" s="21" t="s">
-        <v>383</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J81" s="6">
+        <v>3</v>
+      </c>
+      <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="C82" s="5">
+        <v>2</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="7">
+        <v>46210</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="9">
+        <v>4</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" s="6">
+        <v>1</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="7">
+        <v>46215</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="9">
+        <v>4</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" s="6">
         <v>3</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E82" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H82" s="12">
-        <v>7</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E83" s="4">
-        <v>46112</v>
-      </c>
-      <c r="F83" s="2">
-        <v>32411230</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4</v>
-      </c>
-      <c r="I83" s="2">
-        <v>-80</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="21" t="s">
-        <v>423</v>
-      </c>
+      <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C84" s="5">
-        <v>2</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C84" s="5"/>
       <c r="D84" s="6" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E84" s="7">
-        <v>46112</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G84" s="6"/>
+        <v>46217</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="H84" s="9">
-        <v>7</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J84" s="6"/>
-      <c r="K84" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C85" s="5">
-        <v>2</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C85" s="5"/>
       <c r="D85" s="6" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="E85" s="7">
-        <v>46721</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G85" s="6"/>
+        <v>46224</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="H85" s="9">
-        <v>4</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J85" s="6"/>
-      <c r="K85" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="6">
+        <v>1</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C86" s="5">
-        <v>2</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C86" s="5"/>
       <c r="D86" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="12">
-        <v>20</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="21"/>
+        <v>262</v>
+      </c>
+      <c r="E86" s="7">
+        <v>46232</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="C87" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="7">
-        <v>46022</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>276</v>
+        <v>177</v>
+      </c>
+      <c r="E87" s="11">
+        <v>46234</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="9">
-        <v>12</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J87" s="6"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C88" s="5">
-        <v>2</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E88" s="7">
-        <v>46842</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>277</v>
+      <c r="H87" s="12">
+        <v>1</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="6">
+        <v>4</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="15">
+        <v>5</v>
+      </c>
+      <c r="D88" s="6">
+        <v>26657</v>
+      </c>
+      <c r="E88" s="11">
+        <v>46234</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="G88" s="6"/>
-      <c r="H88" s="9">
-        <v>12</v>
+      <c r="H88" s="12">
+        <v>10</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C89" s="5">
-        <v>2</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C89" s="5"/>
       <c r="D89" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="12">
-        <v>12</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="E89" s="7">
+        <v>46242</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="9">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C90" s="5">
-        <v>2</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C90" s="5"/>
       <c r="D90" s="6" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
       <c r="E90" s="7">
-        <v>46173</v>
-      </c>
-      <c r="F90" s="8">
-        <v>29005240</v>
-      </c>
-      <c r="G90" s="6"/>
+        <v>46243</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="H90" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>11</v>
@@ -5028,59 +5098,60 @@
       <c r="J90" s="6">
         <v>4</v>
       </c>
+      <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C91" s="5">
-        <v>2</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C91" s="5"/>
       <c r="D91" s="6" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E91" s="7">
-        <v>46099</v>
+        <v>46258</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="9">
         <v>2</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="6">
-        <v>4</v>
-      </c>
-      <c r="K91" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C92" s="5"/>
+        <v>493</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
       <c r="D92" s="6" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="E92" s="7">
-        <v>46243</v>
+        <v>46329</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="H92" s="9">
         <v>4</v>
@@ -5089,350 +5160,352 @@
         <v>11</v>
       </c>
       <c r="J92" s="6">
-        <v>4</v>
-      </c>
-      <c r="K92" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C93" s="5">
-        <v>5</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6" t="s">
-        <v>319</v>
+        <v>73</v>
+      </c>
+      <c r="E93" s="7">
+        <v>46334</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H93" s="12">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="H93" s="9">
+        <v>2</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="J93" s="6">
+        <v>2</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C94" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6" t="s">
-        <v>319</v>
+        <v>104</v>
+      </c>
+      <c r="E94" s="11">
+        <v>46337</v>
+      </c>
+      <c r="F94" s="6">
+        <v>24118720</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="H94" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J94" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J94" s="6">
+        <v>2</v>
+      </c>
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C95" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="E95" s="11">
-        <v>46337</v>
-      </c>
-      <c r="F95" s="6">
-        <v>24118720</v>
+        <v>46354</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="H95" s="12">
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J95" s="6">
-        <v>2</v>
-      </c>
-      <c r="K95" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="K95" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="C96" s="5">
-        <v>2</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>215</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D96" s="6">
+        <v>6095719</v>
+      </c>
+      <c r="E96" s="11">
+        <v>46356</v>
+      </c>
+      <c r="F96" s="6">
+        <v>911360</v>
+      </c>
+      <c r="G96" s="6"/>
       <c r="H96" s="12">
+        <v>10</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C97" s="5">
+        <v>5</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="11">
+        <v>46384</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" s="12">
+        <v>9</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="6">
+        <v>4</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="7">
+        <v>46388</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" s="9">
+        <v>10</v>
+      </c>
+      <c r="I98" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="3">
-        <v>2</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C98" s="5">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="11">
-        <v>46002</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H98" s="12">
-        <v>17</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K98" s="21"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J98" s="6">
+        <v>2</v>
+      </c>
+      <c r="K98" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C99" s="5">
-        <v>1</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C99" s="5"/>
       <c r="D99" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>304</v>
+        <v>83</v>
+      </c>
+      <c r="E99" s="7">
+        <v>46417</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="12">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="H99" s="9">
+        <v>4</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J99" s="6"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="J99" s="6">
+        <v>2</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C100" s="5">
-        <v>2</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>160</v>
+        <v>431</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6">
+        <v>6095719</v>
       </c>
       <c r="E100" s="11">
-        <v>53327</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>46477</v>
+      </c>
+      <c r="F100" s="6">
+        <v>918444</v>
+      </c>
+      <c r="G100" s="6"/>
       <c r="H100" s="12">
         <v>10</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J100" s="6">
+        <v>317</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101" s="7">
+        <v>46721</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="9">
         <v>4</v>
       </c>
-      <c r="K100" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C101" s="5">
-        <v>2</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H101" s="9">
-        <v>3</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J101" s="6">
-        <v>4</v>
-      </c>
-      <c r="K101" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I101" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J101" s="6"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="C102" s="5">
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="E102" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>46842</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G102" s="6"/>
       <c r="H102" s="9">
-        <v>30</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J102" s="6">
-        <v>4</v>
-      </c>
-      <c r="K102" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="C103" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E103" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="E103" s="11">
+        <v>47057</v>
+      </c>
       <c r="F103" s="6" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="H103" s="12">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>37</v>
@@ -5440,474 +5513,507 @@
       <c r="J103" s="6">
         <v>4</v>
       </c>
-      <c r="K103" s="21"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C104" s="5"/>
+        <v>381</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
       <c r="D104" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="E104" s="11">
+        <v>53327</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="G104" s="6" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="H104" s="12">
-        <v>1</v>
-      </c>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J104" s="6">
+        <v>4</v>
+      </c>
       <c r="K104" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C105" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="E105" s="11">
+        <v>53327</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H105" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>220</v>
+      <c r="J105" s="6">
+        <v>4</v>
       </c>
       <c r="K105" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C106" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="14" t="s">
-        <v>399</v>
+        <v>157</v>
+      </c>
+      <c r="E106" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H106" s="9">
+        <v>3</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>220</v>
+      <c r="J106" s="6">
+        <v>4</v>
       </c>
       <c r="K106" s="21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C107" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="14">
-        <v>12</v>
+        <v>157</v>
+      </c>
+      <c r="E107" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H107" s="9">
+        <v>30</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K107" s="28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J107" s="6">
+        <v>4</v>
+      </c>
+      <c r="K107" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="C108" s="5">
-        <v>10</v>
-      </c>
-      <c r="D108" s="6">
-        <v>6095719</v>
+        <v>4</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="E108" s="11">
-        <v>46356</v>
-      </c>
-      <c r="F108" s="6">
-        <v>911360</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J108" s="6"/>
-      <c r="K108" s="28"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K108" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>316</v>
+        <v>49</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C109" s="5"/>
+        <v>432</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0</v>
+      </c>
       <c r="D109" s="6">
-        <v>6095719</v>
+        <v>602562</v>
       </c>
       <c r="E109" s="11">
-        <v>46477</v>
-      </c>
-      <c r="F109" s="6">
-        <v>918444</v>
-      </c>
-      <c r="G109" s="6"/>
+        <v>46368</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
       <c r="H109" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J109" s="6"/>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C110" s="5">
-        <v>1</v>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C110" s="1">
+        <v>8</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="E110" s="11">
-        <v>45957</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H110" s="12">
-        <v>1</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="6">
-        <v>4</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="3">
+        <v>35</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J110" s="2"/>
       <c r="K110" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="L110" s="25">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="C111" s="5">
-        <v>4</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F111" s="6">
+        <v>4003763</v>
+      </c>
       <c r="G111" s="6" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="H111" s="12">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K111" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>405</v>
+        <v>165</v>
       </c>
       <c r="C112" s="5">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="E112" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="G112" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H112" s="12">
-        <v>4</v>
+        <v>164</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K112" s="21" t="s">
-        <v>404</v>
+      <c r="J112" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="C113" s="5">
-        <v>4</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E113" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="11">
+        <v>46368</v>
+      </c>
       <c r="F113" s="6"/>
-      <c r="G113" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K113" s="21" t="s">
-        <v>404</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J113" s="6"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C114" s="5">
-        <v>2</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="13" t="s">
-        <v>284</v>
+        <v>326</v>
+      </c>
+      <c r="E114" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="H114" s="12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J114" s="6"/>
-      <c r="K114" s="21" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C115" s="5"/>
+        <v>359</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1</v>
+      </c>
       <c r="D115" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6">
-        <v>861853</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>285</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E115" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J115" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J115" s="6">
+        <v>1</v>
+      </c>
       <c r="K115" s="21" t="s">
-        <v>445</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="C116" s="5">
-        <v>1</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E116" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D116" s="6">
+        <v>34181200</v>
+      </c>
+      <c r="E116" s="11">
+        <v>46368</v>
+      </c>
       <c r="F116" s="6" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="H116" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J116" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K116" s="21" t="s">
-        <v>448</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J116" s="6"/>
+      <c r="K116" s="21"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="C117" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="E117" s="11">
+        <v>46368</v>
+      </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="H117" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J117" s="6">
-        <v>3</v>
-      </c>
-      <c r="K117" s="21" t="s">
-        <v>409</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K117" s="21"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C118" s="5">
         <v>1</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E118" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="H118" s="12">
         <v>2</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K118" s="21"/>
+        <v>286</v>
+      </c>
+      <c r="J118" s="6"/>
+      <c r="K118" s="21" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C119" s="15">
+        <v>302</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C119" s="5">
         <v>1</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E119" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="E119" s="11">
+        <v>46368</v>
+      </c>
       <c r="F119" s="6" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H119" s="12">
         <v>2</v>
@@ -5915,349 +6021,343 @@
       <c r="I119" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>411</v>
-      </c>
+      <c r="J119" s="6"/>
       <c r="K119" s="21" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C120" s="15">
+        <v>302</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C120" s="5">
         <v>1</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="E120" s="11">
+        <v>46368</v>
+      </c>
       <c r="F120" s="6" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H120" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>411</v>
-      </c>
+      <c r="J120" s="6"/>
       <c r="K120" s="21" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>449</v>
+        <v>131</v>
       </c>
       <c r="C121" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E121" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="E121" s="11">
+        <v>46368</v>
+      </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="12">
+        <v>2</v>
+      </c>
+      <c r="I121" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I121" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K121" s="21"/>
+      <c r="J121" s="6">
+        <v>3</v>
+      </c>
+      <c r="K121" s="21" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>507</v>
+        <v>376</v>
       </c>
       <c r="C122" s="5">
         <v>1</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E122" s="7">
-        <v>46090</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>506</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E122" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="9">
+      <c r="H122" s="12">
         <v>2</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="K122" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="J122" s="6">
+        <v>3</v>
+      </c>
+      <c r="K122" s="21" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A123" s="22"/>
       <c r="B123" s="5" t="s">
-        <v>412</v>
+        <v>503</v>
       </c>
       <c r="C123" s="5">
         <v>1</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>231</v>
+        <v>504</v>
       </c>
       <c r="E123" s="11">
-        <v>45925</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G123" s="6" t="s">
+        <v>46368</v>
+      </c>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="12">
+        <v>2</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K123" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H123" s="12">
-        <v>1</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K123" s="28" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H124" s="12">
-        <v>3</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J124" s="6"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E124" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="3">
+        <v>2</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="K124" s="21" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C125" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
       <c r="D125" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E125" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="E125" s="11">
+        <v>46368</v>
+      </c>
       <c r="F125" s="6" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="H125" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J125" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="K125" s="21" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C126" s="5"/>
+        <v>385</v>
+      </c>
+      <c r="C126" s="5">
+        <v>5</v>
+      </c>
       <c r="D126" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E126" s="7">
-        <v>45965</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>243</v>
+        <v>318</v>
+      </c>
+      <c r="E126" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H126" s="9">
-        <v>1</v>
+        <v>320</v>
+      </c>
+      <c r="H126" s="12">
+        <v>7</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K126" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J126" s="6"/>
+      <c r="K126" s="21"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>485</v>
+        <v>386</v>
       </c>
       <c r="C127" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="E127" s="11">
-        <v>45997</v>
+        <v>46368</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>53</v>
+        <v>320</v>
       </c>
       <c r="H127" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K127" s="21" t="s">
-        <v>414</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="21"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>486</v>
+        <v>388</v>
       </c>
       <c r="C128" s="5">
         <v>2</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="E128" s="11">
-        <v>45894</v>
+        <v>46368</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G128" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="H128" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J128" s="6">
-        <v>2</v>
-      </c>
-      <c r="K128" s="28" t="s">
-        <v>351</v>
+        <v>37</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K128" s="27" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="6" t="s">
-        <v>70</v>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="E129" s="11">
-        <v>46021</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H129" s="12">
-        <v>4</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J129" s="6">
-        <v>2</v>
-      </c>
-      <c r="K129" s="21" t="s">
-        <v>351</v>
+        <v>46368</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="3">
+        <v>2</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K129" s="27" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C130" s="5">
         <v>1</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="E130" s="11">
-        <v>45906</v>
+        <v>46368</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="G130" s="6" t="s">
         <v>16</v>
@@ -6266,81 +6366,69 @@
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J130" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K130" s="21" t="s">
-        <v>346</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="21"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="C131" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E131" s="11">
-        <v>45939</v>
+        <v>46368</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G131" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="H131" s="12">
+        <v>200</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J131" s="6">
         <v>4</v>
       </c>
-      <c r="I131" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K131" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K131" s="21"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C132" s="5">
-        <v>1</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="6" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="E132" s="11">
-        <v>45965</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="6" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H132" s="12">
         <v>1</v>
       </c>
-      <c r="I132" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
       <c r="K132" s="21" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -6348,555 +6436,545 @@
         <v>0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="C133" s="5">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6">
-        <v>94600</v>
+        <v>6</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E133" s="11">
-        <v>46081</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J133" s="6">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C134" s="5">
-        <v>1</v>
-      </c>
-      <c r="D134" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E134" s="7">
-        <v>46043</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>266</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E134" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="9">
-        <v>2</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J134" s="6"/>
+      <c r="H134" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="K134" s="21" t="s">
-        <v>16</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C135" s="5">
-        <v>1</v>
-      </c>
-      <c r="D135" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E135" s="7">
-        <v>46121</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="9">
-        <v>2</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J135" s="6"/>
+      <c r="H135" s="14">
+        <v>12</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="K135" s="21" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C136" s="5">
-        <v>1</v>
-      </c>
-      <c r="D136" s="6">
-        <v>94614</v>
+        <v>4</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="E136" s="11">
-        <v>46045</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G136" s="6"/>
+        <v>46368</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="H136" s="12">
-        <v>4</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J136" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="K136" s="21" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>489</v>
+        <v>405</v>
       </c>
       <c r="C137" s="5">
-        <v>2</v>
-      </c>
-      <c r="D137" s="6">
-        <v>559</v>
-      </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F137" s="6"/>
       <c r="G137" s="6" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="H137" s="12">
         <v>4</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J137" s="6"/>
-      <c r="K137" s="21"/>
+        <v>37</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K137" s="21" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>490</v>
+        <v>406</v>
       </c>
       <c r="C138" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="E138" s="11">
-        <v>46160</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F138" s="6"/>
       <c r="G138" s="6" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="H138" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J138" s="6">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C139" s="5">
+        <v>2</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E139" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H139" s="12">
         <v>4</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E139" s="7">
-        <v>45925</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H139" s="9">
-        <v>1</v>
-      </c>
       <c r="I139" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J139" s="6">
-        <v>3</v>
-      </c>
-      <c r="K139" s="21"/>
+        <v>286</v>
+      </c>
+      <c r="J139" s="6"/>
+      <c r="K139" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" s="7">
-        <v>46215</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>114</v>
+        <v>283</v>
+      </c>
+      <c r="E140" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F140" s="6">
+        <v>861853</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H140" s="9">
-        <v>4</v>
+        <v>285</v>
+      </c>
+      <c r="H140" s="12">
+        <v>6</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J140" s="6">
-        <v>3</v>
-      </c>
-      <c r="K140" s="21"/>
+        <v>321</v>
+      </c>
+      <c r="J140" s="6"/>
+      <c r="K140" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C141" s="5">
         <v>1</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E141" s="7">
-        <v>45905</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>200</v>
+        <v>216</v>
+      </c>
+      <c r="E141" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="9">
+        <v>218</v>
+      </c>
+      <c r="H141" s="12">
         <v>1</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K141" s="21" t="s">
-        <v>16</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C142" s="5"/>
+        <v>408</v>
+      </c>
+      <c r="C142" s="5">
+        <v>5</v>
+      </c>
       <c r="D142" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E142" s="7">
-        <v>46122</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E142" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F142" s="6"/>
       <c r="G142" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="9">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H142" s="12">
+        <v>10</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>191</v>
+        <v>3</v>
+      </c>
+      <c r="J142" s="6">
+        <v>3</v>
       </c>
       <c r="K142" s="21" t="s">
-        <v>16</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>60</v>
+      <c r="D143" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="E143" s="11">
-        <v>46146</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
       <c r="H143" s="12">
         <v>2</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K143" s="21" t="s">
-        <v>380</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="K143" s="21"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C144" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C144" s="15">
+        <v>1</v>
+      </c>
       <c r="D144" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E144" s="7">
-        <v>46190</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G144" s="6"/>
-      <c r="H144" s="9">
-        <v>1</v>
+        <v>293</v>
+      </c>
+      <c r="E144" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H144" s="12">
+        <v>2</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="K144" s="21" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C145" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C145" s="15">
+        <v>1</v>
+      </c>
       <c r="D145" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E145" s="7">
-        <v>46258</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G145" s="6"/>
-      <c r="H145" s="9">
-        <v>2</v>
+        <v>296</v>
+      </c>
+      <c r="E145" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H145" s="12">
+        <v>1</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="K145" s="21" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="C146" s="5">
         <v>2</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E146" s="7">
-        <v>46329</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H146" s="9">
-        <v>4</v>
+        <v>209</v>
+      </c>
+      <c r="E146" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="12">
+        <v>3</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J146" s="6">
-        <v>2</v>
-      </c>
-      <c r="K146" s="21" t="s">
-        <v>351</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K146" s="21"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C147" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C147" s="15"/>
       <c r="D147" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E147" s="7">
-        <v>46417</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>97</v>
+        <v>298</v>
+      </c>
+      <c r="E147" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H147" s="9">
-        <v>4</v>
+        <v>295</v>
+      </c>
+      <c r="H147" s="12">
+        <v>3</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J147" s="6">
-        <v>2</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J147" s="6"/>
       <c r="K147" s="21" t="s">
-        <v>351</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C148" s="5">
-        <v>2</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C148" s="15"/>
       <c r="D148" s="6" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="E148" s="11">
-        <v>45934</v>
+        <v>46368</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="H148" s="12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J148" s="6">
-        <v>2</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J148" s="6"/>
       <c r="K148" s="21" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="C149" s="5">
         <v>2</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>123</v>
+      <c r="D149" s="6">
+        <v>559</v>
       </c>
       <c r="E149" s="11">
-        <v>46089</v>
+        <v>46368</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G149" s="6"/>
+        <v>291</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="H149" s="12">
         <v>4</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J149" s="6">
-        <v>2</v>
-      </c>
-      <c r="K149" s="21" t="s">
-        <v>351</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J149" s="6"/>
+      <c r="K149" s="21"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
@@ -6911,7 +6989,9 @@
       <c r="D150" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E150" s="6"/>
+      <c r="E150" s="11">
+        <v>46368</v>
+      </c>
       <c r="F150" s="6"/>
       <c r="G150" s="6" t="s">
         <v>136</v>
@@ -6942,7 +7022,9 @@
       <c r="D151" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E151" s="6"/>
+      <c r="E151" s="11">
+        <v>46368</v>
+      </c>
       <c r="F151" s="6" t="s">
         <v>325</v>
       </c>
@@ -6961,22 +7043,24 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="29" t="s">
+      <c r="A152" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B152" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="C152" s="24">
+      <c r="C152" s="23">
         <v>2</v>
       </c>
       <c r="D152" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E152" s="28"/>
-      <c r="F152" s="28"/>
-      <c r="G152" s="28"/>
-      <c r="H152" s="25">
+      <c r="E152" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F152" s="21"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="24">
         <v>3</v>
       </c>
       <c r="I152" s="19" t="s">
@@ -6985,13 +7069,13 @@
       <c r="J152" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K152" s="28" t="s">
+      <c r="K152" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L152">
-    <sortCondition ref="B2:B152"/>
+    <sortCondition ref="E2:E152"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98B299-D851-445F-8ED8-CC7B3CF23997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF97782-3C6D-405B-B22E-5DDDB970BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
+    <workbookView xWindow="108" yWindow="2064" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="510">
   <si>
     <t>Alinity C</t>
   </si>
@@ -1741,10 +1741,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113:E152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2141,32 +2141,30 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11">
-        <v>45894</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>351</v>
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2174,140 +2172,91 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="E3" s="11">
-        <v>45897</v>
+        <v>46026</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="7">
-        <v>45905</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45906</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>346</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>77</v>
+      <c r="D6" s="6">
+        <v>602562</v>
       </c>
       <c r="E6" s="11">
-        <v>45912</v>
+        <v>46368</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>79</v>
+        <v>323</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
       </c>
       <c r="H6" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>368</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2340,39 +2289,41 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="28" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>45918</v>
+        <v>46169</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>352</v>
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -2380,102 +2331,100 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45925</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>232</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>46224</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>191</v>
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7">
+        <v>46210</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9">
         <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45925</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="7">
+        <v>46242</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="12">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="9">
+        <v>8</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J11" s="6">
-        <v>2</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>347</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2483,67 +2432,70 @@
         <v>0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45959</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="11">
-        <v>45930</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="12">
-        <v>7</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
       <c r="K12" s="21" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="E13" s="11">
-        <v>45932</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>191</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" s="3">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="21" t="s">
-        <v>346</v>
+        <v>464</v>
+      </c>
+      <c r="L13" s="25">
+        <v>45884</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2551,34 +2503,34 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="11">
-        <v>45934</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>56</v>
+        <v>262</v>
+      </c>
+      <c r="E14" s="7">
+        <v>46011</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="12">
-        <v>14</v>
+        <v>264</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -2586,67 +2538,65 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11">
-        <v>45939</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
+        <v>262</v>
+      </c>
+      <c r="E15" s="7">
+        <v>46232</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="12">
+        <v>264</v>
+      </c>
+      <c r="H15" s="9">
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11">
-        <v>45939</v>
+        <v>46026</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H16" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2654,85 +2604,87 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="C17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="11">
-        <v>45939</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="12">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45991</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="9">
+        <v>6</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="11">
-        <v>45945</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>68</v>
+        <v>190</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45978</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="12">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2</v>
-      </c>
-      <c r="K18" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="E19" s="11">
-        <v>45949</v>
+        <v>45939</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>16</v>
@@ -2744,75 +2696,75 @@
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>361</v>
+        <v>462</v>
       </c>
       <c r="C20" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45953</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45993</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="9">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="E21" s="11">
-        <v>45956</v>
+        <v>46179</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="12">
         <v>1</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K21" s="21" t="s">
         <v>346</v>
@@ -2820,37 +2772,35 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="E22" s="11">
-        <v>45957</v>
+        <v>46100</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="12">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="6">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2858,137 +2808,131 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="C23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>45959</v>
-      </c>
-      <c r="F23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="11">
+        <v>46142</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6">
         <v>4</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="9">
-        <v>10</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
       <c r="K23" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E24" s="11">
-        <v>45964</v>
+        <v>45991</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H24" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="7">
-        <v>45965</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>243</v>
+        <v>312</v>
+      </c>
+      <c r="C25" s="5">
+        <v>20</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4003763</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1</v>
+        <v>314</v>
+      </c>
+      <c r="H25" s="12">
+        <v>70</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>488</v>
+        <v>165</v>
       </c>
       <c r="C26" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="E26" s="11">
-        <v>45965</v>
+        <v>46368</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>352</v>
+        <v>37</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2996,31 +2940,31 @@
         <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="C27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="11">
-        <v>45968</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="E27" s="7">
+        <v>46128</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="12">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="H27" s="9">
+        <v>8</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="21" t="s">
         <v>347</v>
@@ -3028,33 +2972,35 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45974</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="12">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="E28" s="7">
+        <v>46183</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3062,29 +3008,31 @@
         <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>355</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="7">
-        <v>45978</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>192</v>
+        <v>144</v>
+      </c>
+      <c r="E29" s="11">
+        <v>45980</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="9">
-        <v>2</v>
+        <v>146</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>193</v>
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4</v>
       </c>
       <c r="K29" s="21" t="s">
         <v>346</v>
@@ -3095,34 +3043,32 @@
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E30" s="11">
-        <v>45980</v>
+        <v>46112</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="H30" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J30" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3130,624 +3076,619 @@
         <v>19</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E31" s="7">
-        <v>45991</v>
+        <v>46090</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="H31" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J31" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>465</v>
+        <v>356</v>
       </c>
       <c r="C32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="E32" s="11">
-        <v>45991</v>
+        <v>46354</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="H32" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E33" s="11">
-        <v>45993</v>
+        <v>47057</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="H33" s="12">
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>352</v>
+        <v>37</v>
+      </c>
+      <c r="J33" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>197</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="11">
-        <v>45997</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="21" t="s">
-        <v>414</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="E35" s="11">
-        <v>46001</v>
+        <v>46368</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="H35" s="12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>346</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>389</v>
+        <v>470</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="11">
-        <v>46002</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="E36" s="7">
+        <v>46046</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="12">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="H36" s="9">
+        <v>2</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="6" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="E37" s="7">
-        <v>46008</v>
+        <v>46046</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H37" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="C38" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" s="7">
-        <v>46011</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>263</v>
+        <v>39</v>
+      </c>
+      <c r="E38" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="H38" s="12">
+        <v>6</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J38" s="6">
         <v>1</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>358</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
       <c r="D39" s="6" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="E39" s="11">
-        <v>46021</v>
+        <v>46234</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G39" s="6"/>
       <c r="H39" s="12">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="6">
         <v>4</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="6">
-        <v>2</v>
-      </c>
       <c r="K39" s="21" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>471</v>
+        <v>359</v>
       </c>
       <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="15">
         <v>5</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="12">
-        <v>6</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
       <c r="D41" s="6">
-        <v>87331</v>
+        <v>26657</v>
       </c>
       <c r="E41" s="11">
-        <v>46022</v>
+        <v>46234</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="12">
-        <v>2</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="6">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J41" s="6"/>
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="12">
-        <v>20</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="E42" s="7">
+        <v>46120</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="9">
+        <v>19</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7">
-        <v>46022</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>46197</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H43" s="9">
-        <v>12</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="C44" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="12">
-        <v>12</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="21"/>
+        <v>115</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45953</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="9">
+        <v>13</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="11">
-        <v>46026</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="12">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="E45" s="7">
+        <v>46388</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="9">
+        <v>10</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>348</v>
+        <v>3</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
+        <v>362</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6">
+        <v>34181200</v>
       </c>
       <c r="E46" s="11">
-        <v>46026</v>
+        <v>46368</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="H46" s="12">
         <v>7</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="6">
-        <v>1</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="7">
-        <v>46039</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>238</v>
+      <c r="D47" s="6">
+        <v>3469</v>
+      </c>
+      <c r="E47" s="11">
+        <v>46168</v>
+      </c>
+      <c r="F47" s="6">
+        <v>240580</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="H47" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>191</v>
+        <v>37</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E48" s="7">
-        <v>46043</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="9">
-        <v>2</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="11">
+        <v>45949</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="12">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="K48" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
-      <c r="D49" s="6">
-        <v>94614</v>
+      <c r="D49" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E49" s="11">
-        <v>46045</v>
+        <v>45964</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="H49" s="12">
-        <v>4</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J49" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K49" s="21" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3755,67 +3696,67 @@
         <v>0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="C50" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="E50" s="7">
-        <v>46046</v>
+        <v>46039</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="9">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
       <c r="D51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="7">
-        <v>46046</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="9">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="E51" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="12">
+        <v>2</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3849,70 +3790,70 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C53" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="E53" s="11">
-        <v>46073</v>
+        <v>45930</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="H53" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J53" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="C54" s="5">
-        <v>5</v>
-      </c>
-      <c r="D54" s="6">
-        <v>94600</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E54" s="11">
-        <v>46081</v>
+        <v>45956</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="12">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J54" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3920,186 +3861,188 @@
         <v>19</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="E55" s="11">
-        <v>46084</v>
+        <v>46001</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H55" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="11">
-        <v>46089</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45918</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="G56" s="6"/>
-      <c r="H56" s="12">
-        <v>4</v>
+      <c r="H56" s="9">
+        <v>1</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="6">
-        <v>2</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>351</v>
+        <v>17</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C57" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="7">
-        <v>46090</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="E57" s="11">
+        <v>45912</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" s="9">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="H57" s="12">
+        <v>8</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J57" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>282</v>
+        <v>19</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>507</v>
+        <v>369</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E58" s="7">
-        <v>46090</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="9">
-        <v>2</v>
+        <v>244</v>
+      </c>
+      <c r="E58" s="11">
+        <v>45897</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="K58" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="C59" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="7">
-        <v>46099</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>151</v>
+        <v>233</v>
+      </c>
+      <c r="E59" s="11">
+        <v>45932</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" s="9">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="H59" s="12">
+        <v>1</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="6">
-        <v>4</v>
-      </c>
-      <c r="K59" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="6" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="E60" s="11">
-        <v>46100</v>
+        <v>45974</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="12">
@@ -4109,10 +4052,10 @@
         <v>17</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4120,94 +4063,96 @@
         <v>19</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C61" s="5"/>
+        <v>477</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
       <c r="D61" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="11">
-        <v>46112</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H61" s="12">
-        <v>10</v>
+        <v>229</v>
+      </c>
+      <c r="E61" s="7">
+        <v>46008</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="9">
+        <v>1</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E62" s="4">
-        <v>46112</v>
-      </c>
-      <c r="F62" s="2">
-        <v>32411230</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4</v>
-      </c>
-      <c r="I62" s="2">
-        <v>-80</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="21" t="s">
-        <v>423</v>
-      </c>
+      <c r="B62" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="11">
+        <v>45945</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="12">
+        <v>8</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="6">
+        <v>2</v>
+      </c>
+      <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C63" s="5">
         <v>2</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="7">
-        <v>46112</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="9">
-        <v>7</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J63" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="E63" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H63" s="12">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4215,23 +4160,25 @@
         <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>435</v>
+      </c>
+      <c r="C64" s="5">
+        <v>4</v>
+      </c>
       <c r="D64" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="7">
-        <v>46120</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="E64" s="11">
+        <v>45968</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H64" s="9">
-        <v>19</v>
+        <v>130</v>
+      </c>
+      <c r="H64" s="12">
+        <v>5</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>3</v>
@@ -4245,475 +4192,462 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="6">
-        <v>94613</v>
+        <v>4</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E65" s="7">
-        <v>46121</v>
+        <v>46152</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G65" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="H65" s="9">
-        <v>2</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J65" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="K65" s="21" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="E66" s="7">
-        <v>46122</v>
+        <v>46217</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="H66" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>479</v>
+        <v>126</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="7">
-        <v>46123</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H67" s="9">
-        <v>1</v>
+      <c r="D67" s="6">
+        <v>87334</v>
+      </c>
+      <c r="E67" s="11">
+        <v>46203</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="12">
+        <v>2</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J67" s="6">
-        <v>2</v>
-      </c>
-      <c r="K67" s="21" t="s">
-        <v>352</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>466</v>
+        <v>138</v>
       </c>
       <c r="C68" s="5">
-        <v>2</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="7">
-        <v>46128</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="9">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>87331</v>
+      </c>
+      <c r="E68" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="12">
+        <v>2</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J68" s="6">
-        <v>1</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K68" s="21"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="E69" s="11">
-        <v>46142</v>
+        <v>46368</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="H69" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="6">
-        <v>4</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J69" s="6"/>
       <c r="K69" s="21" t="s">
-        <v>346</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="E70" s="11">
-        <v>46146</v>
+        <v>46368</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="H70" s="12">
         <v>2</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J70" s="6"/>
       <c r="K70" s="21" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="E71" s="11">
-        <v>46150</v>
+        <v>46368</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="H71" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J71" s="6">
-        <v>4</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J71" s="6"/>
       <c r="K71" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="C72" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E72" s="7">
-        <v>46152</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H72" s="9">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="E72" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="12">
+        <v>2</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>253</v>
+      <c r="J72" s="6">
+        <v>3</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>490</v>
+        <v>376</v>
       </c>
       <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="12">
+        <v>2</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="6">
+        <v>3</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C74" s="5">
         <v>5</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="11">
-        <v>46160</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="12">
-        <v>6</v>
-      </c>
-      <c r="I73" s="6" t="s">
+      <c r="D74" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="11">
+        <v>46384</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" s="12">
+        <v>9</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="6">
-        <v>2</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C74" s="5">
-        <v>1</v>
-      </c>
-      <c r="D74" s="6">
-        <v>3469</v>
-      </c>
-      <c r="E74" s="11">
-        <v>46168</v>
-      </c>
-      <c r="F74" s="6">
-        <v>240580</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H74" s="12">
-        <v>2</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="J74" s="6">
-        <v>1</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>363</v>
+        <v>4</v>
+      </c>
+      <c r="K74" s="28" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C75" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
       <c r="D75" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="11">
+        <v>46073</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H75" s="12">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J75" s="6">
         <v>5</v>
       </c>
-      <c r="E75" s="7">
-        <v>46169</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="9">
-        <v>10</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J75" s="6">
-        <v>1</v>
-      </c>
       <c r="K75" s="21" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="C76" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E76" s="7">
-        <v>46173</v>
-      </c>
-      <c r="F76" s="8">
-        <v>29005240</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="9">
-        <v>5</v>
+        <v>179</v>
+      </c>
+      <c r="E76" s="11">
+        <v>53327</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H76" s="12">
+        <v>2</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J76" s="6">
         <v>4</v>
       </c>
+      <c r="K76" s="21" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="E77" s="11">
-        <v>46179</v>
+        <v>46084</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G77" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H77" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>191</v>
+        <v>37</v>
+      </c>
+      <c r="J77" s="6">
+        <v>2</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A78" s="22"/>
       <c r="B78" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C78" s="5"/>
+        <v>503</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
       <c r="D78" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="7">
-        <v>46183</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="9">
-        <v>8</v>
+        <v>504</v>
+      </c>
+      <c r="E78" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="12">
+        <v>2</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="6">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="K78" s="21" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4721,30 +4655,34 @@
         <v>19</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C79" s="5"/>
+        <v>382</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
       <c r="D79" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="7">
-        <v>46190</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="9">
+        <v>147</v>
+      </c>
+      <c r="E79" s="11">
+        <v>46150</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" s="12">
         <v>1</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>102</v>
+        <v>11</v>
+      </c>
+      <c r="J79" s="6">
+        <v>4</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4752,418 +4690,401 @@
         <v>0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="5"/>
+        <v>479</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
       <c r="D80" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E80" s="7">
-        <v>46197</v>
+        <v>46123</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H80" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J80" s="6">
         <v>2</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="D81" s="6">
-        <v>87334</v>
-      </c>
-      <c r="E81" s="11">
-        <v>46203</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="12">
+        <v>479</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="7">
+        <v>46334</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" s="9">
         <v>2</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J81" s="6">
-        <v>3</v>
-      </c>
-      <c r="K81" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C82" s="5">
-        <v>2</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="7">
-        <v>46210</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="9">
-        <v>4</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J82" s="6">
-        <v>1</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>350</v>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E82" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3">
+        <v>2</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C83" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
       <c r="D83" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E83" s="7">
-        <v>46215</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>114</v>
+        <v>206</v>
+      </c>
+      <c r="E83" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H83" s="9">
-        <v>4</v>
+        <v>208</v>
+      </c>
+      <c r="H83" s="12">
+        <v>2</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J83" s="6">
-        <v>3</v>
-      </c>
-      <c r="K83" s="21"/>
+      <c r="J83" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C84" s="5"/>
+        <v>384</v>
+      </c>
+      <c r="C84" s="5">
+        <v>3</v>
+      </c>
       <c r="D84" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E84" s="7">
-        <v>46217</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="E84" s="11">
+        <v>45930</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H84" s="9">
-        <v>10</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H84" s="12">
+        <v>7</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J84" s="6"/>
       <c r="K84" s="21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="7">
-        <v>46224</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="9">
-        <v>10</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J85" s="6">
-        <v>1</v>
-      </c>
-      <c r="K85" s="27" t="s">
-        <v>347</v>
+      <c r="B85" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="4">
+        <v>46112</v>
+      </c>
+      <c r="F85" s="2">
+        <v>32411230</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H85" s="3">
+        <v>4</v>
+      </c>
+      <c r="I85" s="2">
+        <v>-80</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="21" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C86" s="5"/>
+        <v>429</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2</v>
+      </c>
       <c r="D86" s="6" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="E86" s="7">
-        <v>46232</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>264</v>
-      </c>
+        <v>46112</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86" s="6"/>
       <c r="H86" s="9">
-        <v>1</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" s="6">
-        <v>1</v>
-      </c>
-      <c r="K86" s="21" t="s">
-        <v>350</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>358</v>
+        <v>430</v>
       </c>
       <c r="C87" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E87" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>178</v>
+        <v>279</v>
+      </c>
+      <c r="E87" s="7">
+        <v>46721</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="G87" s="6"/>
-      <c r="H87" s="12">
-        <v>1</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J87" s="6">
+      <c r="H87" s="9">
         <v>4</v>
       </c>
-      <c r="K87" s="21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="15">
-        <v>5</v>
-      </c>
-      <c r="D88" s="6">
-        <v>26657</v>
+      <c r="I87" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J87" s="6"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="E88" s="11">
-        <v>46234</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>273</v>
+        <v>46022</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C89" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2</v>
+      </c>
       <c r="D89" s="6" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="E89" s="7">
-        <v>46242</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>46022</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="9">
-        <v>8</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" s="6">
-        <v>1</v>
-      </c>
-      <c r="K89" s="27" t="s">
-        <v>350</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J89" s="6"/>
+      <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2</v>
+      </c>
       <c r="D90" s="6" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="E90" s="7">
-        <v>46243</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>46842</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="9">
-        <v>4</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="6">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J90" s="6"/>
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C91" s="5"/>
+        <v>428</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
       <c r="D91" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="7">
-        <v>46258</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>196</v>
+        <v>261</v>
+      </c>
+      <c r="E91" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="9">
-        <v>2</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K91" s="21" t="s">
-        <v>380</v>
-      </c>
+      <c r="H91" s="12">
+        <v>12</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J91" s="6"/>
+      <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="C92" s="5">
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="E92" s="7">
-        <v>46329</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>46173</v>
+      </c>
+      <c r="F92" s="8">
+        <v>29005240</v>
+      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J92" s="6">
-        <v>2</v>
-      </c>
-      <c r="K92" s="21" t="s">
-        <v>351</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5171,20 +5092,22 @@
         <v>0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>343</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2</v>
+      </c>
       <c r="D93" s="6" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="E93" s="7">
-        <v>46334</v>
+        <v>46099</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="H93" s="9">
         <v>2</v>
@@ -5193,319 +5116,323 @@
         <v>11</v>
       </c>
       <c r="J93" s="6">
-        <v>2</v>
-      </c>
-      <c r="K93" s="21" t="s">
-        <v>352</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C94" s="5">
+        <v>343</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="7">
+        <v>46243</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H94" s="9">
         <v>4</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E94" s="11">
-        <v>46337</v>
-      </c>
-      <c r="F94" s="6">
-        <v>24118720</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H94" s="12">
-        <v>8</v>
-      </c>
       <c r="I94" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J94" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="C95" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="E95" s="11">
-        <v>46354</v>
+        <v>46368</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="H95" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J95" s="6">
-        <v>4</v>
-      </c>
-      <c r="K95" s="21" t="s">
-        <v>346</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="C96" s="5">
-        <v>10</v>
-      </c>
-      <c r="D96" s="6">
-        <v>6095719</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="E96" s="11">
-        <v>46356</v>
-      </c>
-      <c r="F96" s="6">
-        <v>911360</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>46368</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="H96" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>478</v>
+        <v>387</v>
       </c>
       <c r="C97" s="5">
+        <v>4</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="11">
+        <v>46337</v>
+      </c>
+      <c r="F97" s="6">
+        <v>24118720</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" s="12">
+        <v>8</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" s="6">
+        <v>2</v>
+      </c>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E98" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H98" s="12">
+        <v>3</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E99" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3">
+        <v>2</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C100" s="5">
         <v>5</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E97" s="11">
-        <v>46384</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H97" s="12">
-        <v>9</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" s="6">
-        <v>4</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E98" s="7">
-        <v>46388</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H98" s="9">
-        <v>10</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="6">
-        <v>2</v>
-      </c>
-      <c r="K98" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E99" s="7">
-        <v>46417</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H99" s="9">
-        <v>4</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J99" s="6">
-        <v>2</v>
-      </c>
-      <c r="K99" s="21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6">
-        <v>6095719</v>
+      <c r="D100" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E100" s="11">
-        <v>46477</v>
-      </c>
-      <c r="F100" s="6">
-        <v>918444</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>46002</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="H100" s="12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J100" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C101" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E101" s="7">
-        <v>46721</v>
-      </c>
-      <c r="F101" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="9">
-        <v>4</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>258</v>
+        <v>303</v>
+      </c>
+      <c r="E101" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="12">
+        <v>1</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="C102" s="5">
         <v>2</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E102" s="7">
-        <v>46842</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="9">
-        <v>12</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="21"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E102" s="11">
+        <v>53327</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H102" s="12">
+        <v>10</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J102" s="6">
+        <v>4</v>
+      </c>
+      <c r="K102" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="C103" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E103" s="11">
-        <v>47057</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="E103" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H103" s="12">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="H103" s="9">
+        <v>3</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>37</v>
@@ -5513,31 +5440,34 @@
       <c r="J103" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K103" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C104" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E104" s="11">
+        <v>157</v>
+      </c>
+      <c r="E104" s="7">
         <v>53327</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>180</v>
+      <c r="F104" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H104" s="12">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="H104" s="9">
+        <v>30</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>37</v>
@@ -5546,33 +5476,33 @@
         <v>4</v>
       </c>
       <c r="K104" s="21" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C105" s="5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E105" s="11">
-        <v>53327</v>
+        <v>46368</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="H105" s="12">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>37</v>
@@ -5580,100 +5510,86 @@
       <c r="J105" s="6">
         <v>4</v>
       </c>
-      <c r="K105" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C106" s="5">
-        <v>2</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C106" s="5"/>
       <c r="D106" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E106" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>158</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E106" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F106" s="6"/>
       <c r="G106" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H106" s="9">
-        <v>3</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J106" s="6">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H106" s="12">
+        <v>1</v>
+      </c>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
       <c r="K106" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C107" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" s="7">
-        <v>53327</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H107" s="9">
-        <v>30</v>
+        <v>226</v>
+      </c>
+      <c r="E107" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="12">
+        <v>20</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J107" s="6">
-        <v>4</v>
+      <c r="J107" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="K107" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="C108" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E108" s="11">
         <v>46368</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="12">
-        <v>15</v>
+      <c r="H108" s="14" t="s">
+        <v>399</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>37</v>
@@ -5681,816 +5597,854 @@
       <c r="J108" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="K108" s="28" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K108" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="C109" s="5">
-        <v>0</v>
-      </c>
-      <c r="D109" s="6">
-        <v>602562</v>
+        <v>6</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="E109" s="11">
         <v>46368</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G109" s="6">
-        <v>1</v>
-      </c>
-      <c r="H109" s="12">
-        <v>1</v>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="14">
+        <v>12</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C110" s="1">
-        <v>8</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>287</v>
+        <v>37</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K109" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C110" s="5">
+        <v>10</v>
+      </c>
+      <c r="D110" s="6">
+        <v>6095719</v>
       </c>
       <c r="E110" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H110" s="3">
-        <v>35</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="L110" s="25">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46356</v>
+      </c>
+      <c r="F110" s="6">
+        <v>911360</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="12">
+        <v>10</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J110" s="6"/>
+      <c r="K110" s="28"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C111" s="5">
-        <v>20</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>313</v>
+        <v>431</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6">
+        <v>6095719</v>
       </c>
       <c r="E111" s="11">
-        <v>46368</v>
+        <v>46477</v>
       </c>
       <c r="F111" s="6">
-        <v>4003763</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>314</v>
-      </c>
+        <v>918444</v>
+      </c>
+      <c r="G111" s="6"/>
       <c r="H111" s="12">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K111" s="21"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="C112" s="5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E112" s="11">
-        <v>46368</v>
+        <v>45957</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>344</v>
+        <v>143</v>
+      </c>
+      <c r="H112" s="12">
+        <v>1</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J112" s="6">
         <v>4</v>
       </c>
+      <c r="K112" s="21" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="C113" s="5">
-        <v>5</v>
-      </c>
-      <c r="D113" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="E113" s="11">
         <v>46368</v>
       </c>
       <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="H113" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J113" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="C114" s="5">
+        <v>4</v>
+      </c>
       <c r="D114" s="6" t="s">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="E114" s="11">
         <v>46368</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>327</v>
-      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="6" t="s">
-        <v>328</v>
+        <v>208</v>
       </c>
       <c r="H114" s="12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J114" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K114" s="21" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C115" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="E115" s="11">
         <v>46368</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="H115" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J115" s="6">
-        <v>1</v>
+      <c r="J115" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="K115" s="21" t="s">
-        <v>16</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>362</v>
+        <v>480</v>
       </c>
       <c r="C116" s="5">
-        <v>5</v>
-      </c>
-      <c r="D116" s="6">
-        <v>34181200</v>
+        <v>2</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="E116" s="11">
         <v>46368</v>
       </c>
-      <c r="F116" s="6" t="s">
-        <v>330</v>
+      <c r="F116" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="H116" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="J116" s="6"/>
-      <c r="K116" s="21"/>
+      <c r="K116" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C117" s="5">
-        <v>2</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C117" s="5"/>
       <c r="D117" s="6" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="E117" s="11">
         <v>46368</v>
       </c>
-      <c r="F117" s="6"/>
+      <c r="F117" s="6">
+        <v>861853</v>
+      </c>
       <c r="G117" s="6" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="H117" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K117" s="21"/>
+        <v>321</v>
+      </c>
+      <c r="J117" s="6"/>
+      <c r="K117" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="C118" s="5">
         <v>1</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="E118" s="11">
         <v>46368</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="H118" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J118" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="K118" s="21" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C119" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c r="E119" s="11">
         <v>46368</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>306</v>
-      </c>
+      <c r="F119" s="6"/>
       <c r="G119" s="6" t="s">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="H119" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J119" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="J119" s="6">
+        <v>3</v>
+      </c>
       <c r="K119" s="21" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="C120" s="5">
         <v>1</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>310</v>
+      <c r="D120" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="E120" s="11">
         <v>46368</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
       <c r="H120" s="12">
         <v>2</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J120" s="6"/>
-      <c r="K120" s="21" t="s">
-        <v>439</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K120" s="21"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C121" s="5">
+        <v>290</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" s="15">
         <v>1</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="E121" s="11">
         <v>46368</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="H121" s="12">
         <v>2</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J121" s="6">
-        <v>3</v>
+        <v>286</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C122" s="5">
+        <v>290</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C122" s="15">
         <v>1</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="E122" s="11">
         <v>46368</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="H122" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J122" s="6">
-        <v>3</v>
+        <v>286</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="K122" s="21" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="22"/>
+      <c r="A123" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="B123" s="5" t="s">
-        <v>503</v>
+        <v>449</v>
       </c>
       <c r="C123" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>504</v>
+        <v>209</v>
       </c>
       <c r="E123" s="11">
         <v>46368</v>
       </c>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
       <c r="H123" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K123" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K123" s="21"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E124" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="3">
-        <v>2</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K124" s="21" t="s">
-        <v>500</v>
-      </c>
+      <c r="A124" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E124" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="9">
+        <v>2</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K124" s="21"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="C125" s="5">
         <v>1</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E125" s="11">
-        <v>46368</v>
+        <v>45925</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="H125" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K125" s="21" t="s">
-        <v>383</v>
+        <v>191</v>
+      </c>
+      <c r="K125" s="28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C126" s="5">
-        <v>5</v>
-      </c>
+      <c r="B126" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C126" s="15"/>
       <c r="D126" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E126" s="11">
         <v>46368</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H126" s="12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="J126" s="6"/>
-      <c r="K126" s="21"/>
+      <c r="K126" s="21" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C127" s="5">
-        <v>5</v>
-      </c>
+      <c r="B127" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C127" s="15"/>
       <c r="D127" s="6" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="E127" s="11">
         <v>46368</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="H127" s="12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="J127" s="6"/>
-      <c r="K127" s="21"/>
+      <c r="K127" s="21" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C128" s="5">
-        <v>2</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C128" s="5"/>
       <c r="D128" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E128" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>214</v>
+        <v>241</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45965</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H128" s="12">
+        <v>242</v>
+      </c>
+      <c r="H128" s="9">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K128" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C129" s="5">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E129" s="11">
+        <v>45997</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H129" s="12">
         <v>3</v>
       </c>
-      <c r="I128" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K128" s="27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C129" s="1">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E129" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="3">
-        <v>2</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K129" s="27" t="s">
-        <v>500</v>
+      <c r="I129" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K129" s="21" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="C130" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>303</v>
+        <v>86</v>
       </c>
       <c r="E130" s="11">
-        <v>46368</v>
+        <v>45894</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G130" s="6"/>
       <c r="H130" s="12">
         <v>1</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J130" s="6"/>
-      <c r="K130" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="J130" s="6">
+        <v>2</v>
+      </c>
+      <c r="K130" s="28" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C131" s="5">
-        <v>50</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C131" s="5"/>
       <c r="D131" s="6" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="E131" s="11">
-        <v>46368</v>
+        <v>46021</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="H131" s="12">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J131" s="6">
-        <v>4</v>
-      </c>
-      <c r="K131" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="K131" s="21" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C132" s="5"/>
+        <v>415</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1</v>
+      </c>
       <c r="D132" s="6" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="E132" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F132" s="6"/>
+        <v>45906</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="G132" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H132" s="12">
         <v>1</v>
       </c>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="I132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="K132" s="21" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
       <c r="C133" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="E133" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F133" s="6"/>
+        <v>45939</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="G133" s="6"/>
       <c r="H133" s="12">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="C134" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="E134" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="14" t="s">
-        <v>399</v>
+        <v>45965</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="12">
+        <v>1</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -6498,152 +6452,148 @@
         <v>0</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C135" s="5">
-        <v>6</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>228</v>
+        <v>5</v>
+      </c>
+      <c r="D135" s="6">
+        <v>94600</v>
       </c>
       <c r="E135" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F135" s="6"/>
+        <v>46081</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="G135" s="6"/>
-      <c r="H135" s="14">
-        <v>12</v>
+      <c r="H135" s="12">
+        <v>41</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>220</v>
+        <v>11</v>
+      </c>
+      <c r="J135" s="6">
+        <v>3</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>398</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C136" s="5">
-        <v>4</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E136" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H136" s="12">
-        <v>8</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D136" s="6">
+        <v>94613</v>
+      </c>
+      <c r="E136" s="7">
+        <v>46043</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="9">
+        <v>2</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J136" s="6"/>
       <c r="K136" s="21" t="s">
-        <v>396</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C137" s="5">
-        <v>4</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E137" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H137" s="12">
-        <v>4</v>
-      </c>
-      <c r="I137" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D137" s="6">
+        <v>94613</v>
+      </c>
+      <c r="E137" s="7">
+        <v>46121</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="9">
+        <v>2</v>
+      </c>
+      <c r="I137" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J137" s="6"/>
       <c r="K137" s="21" t="s">
-        <v>404</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C138" s="5">
+        <v>1</v>
+      </c>
+      <c r="D138" s="6">
+        <v>94614</v>
+      </c>
+      <c r="E138" s="11">
+        <v>46045</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="12">
         <v>4</v>
       </c>
-      <c r="D138" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E138" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H138" s="12">
-        <v>8</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>220</v>
-      </c>
+      <c r="I138" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J138" s="6"/>
       <c r="K138" s="21" t="s">
-        <v>404</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C139" s="5">
         <v>2</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>283</v>
+      <c r="D139" s="6">
+        <v>559</v>
       </c>
       <c r="E139" s="11">
         <v>46368</v>
       </c>
-      <c r="F139" s="13" t="s">
-        <v>284</v>
+      <c r="F139" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H139" s="12">
         <v>4</v>
@@ -6652,430 +6602,508 @@
         <v>286</v>
       </c>
       <c r="J139" s="6"/>
-      <c r="K139" s="21" t="s">
-        <v>445</v>
-      </c>
+      <c r="K139" s="21"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>329</v>
+        <v>120</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C140" s="5"/>
+        <v>490</v>
+      </c>
+      <c r="C140" s="5">
+        <v>5</v>
+      </c>
       <c r="D140" s="6" t="s">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="E140" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F140" s="6">
-        <v>861853</v>
+        <v>46160</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="H140" s="12">
         <v>6</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J140" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J140" s="6">
+        <v>2</v>
+      </c>
       <c r="K140" s="21" t="s">
-        <v>445</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="C141" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E141" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>217</v>
+        <v>112</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45925</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H141" s="12">
+        <v>69</v>
+      </c>
+      <c r="H141" s="9">
         <v>1</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K141" s="21" t="s">
-        <v>448</v>
-      </c>
+      <c r="J141" s="6">
+        <v>3</v>
+      </c>
+      <c r="K141" s="21"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C142" s="5">
-        <v>5</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E142" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="E142" s="7">
+        <v>46215</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G142" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="12">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="H142" s="9">
+        <v>4</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J142" s="6">
         <v>3</v>
       </c>
-      <c r="K142" s="21" t="s">
-        <v>409</v>
-      </c>
+      <c r="K142" s="21"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E143" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="12">
-        <v>2</v>
+      <c r="D143" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45905</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="9">
+        <v>1</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K143" s="21"/>
+        <v>191</v>
+      </c>
+      <c r="K143" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C144" s="15">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E144" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>294</v>
+        <v>199</v>
+      </c>
+      <c r="E144" s="7">
+        <v>46122</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H144" s="12">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="H144" s="9">
+        <v>1</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>411</v>
+        <v>191</v>
       </c>
       <c r="K144" s="21" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C145" s="15">
+        <v>19</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C145" s="5">
         <v>1</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="E145" s="11">
-        <v>46368</v>
+        <v>46146</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="H145" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>411</v>
+        <v>63</v>
       </c>
       <c r="K145" s="21" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C146" s="5">
-        <v>2</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C146" s="5"/>
       <c r="D146" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E146" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F146" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="E146" s="7">
+        <v>46190</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="G146" s="6"/>
-      <c r="H146" s="12">
-        <v>3</v>
+      <c r="H146" s="9">
+        <v>1</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K146" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="K146" s="21" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C147" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C147" s="5"/>
       <c r="D147" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E147" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H147" s="12">
-        <v>3</v>
+        <v>194</v>
+      </c>
+      <c r="E147" s="7">
+        <v>46258</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="9">
+        <v>2</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J147" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="K147" s="21" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C148" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C148" s="5">
+        <v>2</v>
+      </c>
       <c r="D148" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E148" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>301</v>
+        <v>83</v>
+      </c>
+      <c r="E148" s="7">
+        <v>46329</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H148" s="12">
+        <v>85</v>
+      </c>
+      <c r="H148" s="9">
         <v>4</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J148" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J148" s="6">
+        <v>2</v>
+      </c>
       <c r="K148" s="21" t="s">
-        <v>447</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C149" s="5">
-        <v>2</v>
-      </c>
-      <c r="D149" s="6">
-        <v>559</v>
-      </c>
-      <c r="E149" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>291</v>
+        <v>493</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E149" s="7">
+        <v>46417</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="H149" s="12">
+        <v>85</v>
+      </c>
+      <c r="H149" s="9">
         <v>4</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J149" s="6"/>
-      <c r="K149" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="J149" s="6">
+        <v>2</v>
+      </c>
+      <c r="K149" s="21" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="C150" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="E150" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F150" s="6"/>
+        <v>45934</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G150" s="6" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="H150" s="12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J150" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K150" s="21" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C151" s="5">
         <v>2</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="E151" s="11">
-        <v>46368</v>
+        <v>46089</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G151" s="6">
-        <v>1</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G151" s="6"/>
       <c r="H151" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J151" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J151" s="6">
+        <v>2</v>
+      </c>
       <c r="K151" s="21" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C152" s="23">
-        <v>2</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>210</v>
+      <c r="A152" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C152" s="5">
+        <v>4</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E152" s="11">
         <v>46368</v>
       </c>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="24">
+      <c r="F152" s="6"/>
+      <c r="G152" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H152" s="12">
+        <v>9</v>
+      </c>
+      <c r="I152" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I152" s="19" t="s">
+      <c r="J152" s="6">
+        <v>3</v>
+      </c>
+      <c r="K152" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C153" s="5">
+        <v>2</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E153" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G153" s="6">
+        <v>1</v>
+      </c>
+      <c r="H153" s="12">
+        <v>3</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J153" s="6"/>
+      <c r="K153" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C154" s="23">
+        <v>2</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E154" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F154" s="21"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="24">
+        <v>3</v>
+      </c>
+      <c r="I154" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J152" s="6" t="s">
+      <c r="J154" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K152" s="21" t="s">
+      <c r="K154" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L152">
-    <sortCondition ref="E2:E152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L154">
+    <sortCondition ref="B2:B154"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF97782-3C6D-405B-B22E-5DDDB970BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967B5D6-918B-43B6-BD17-87D87BFAFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="2064" windowWidth="23040" windowHeight="12228" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="520">
   <si>
     <t>Alinity C</t>
   </si>
@@ -1577,6 +1577,36 @@
   </si>
   <si>
     <t>removed_date</t>
+  </si>
+  <si>
+    <t>HAV Ab IgM Control (1 kit)</t>
+  </si>
+  <si>
+    <t>08P28</t>
+  </si>
+  <si>
+    <t>25-OH Vitamin D calibrator (1 kit)</t>
+  </si>
+  <si>
+    <t>08P4501</t>
+  </si>
+  <si>
+    <t>Total T3 reagent Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total T3 calibrator </t>
+  </si>
+  <si>
+    <t>07P9401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syphilis reagent </t>
+  </si>
+  <si>
+    <t>Syphilis control (set)</t>
+  </si>
+  <si>
+    <t>07P600</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1742,9 +1772,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,60 +2230,90 @@
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
+        <v>512</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45831</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="28"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>602562</v>
+      </c>
+      <c r="E5" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>321</v>
+      </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>602562</v>
-      </c>
-      <c r="E6" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45914</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>13</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2265,23 +2322,21 @@
       <c r="B7" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="7">
-        <v>45914</v>
+        <v>46169</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>3</v>
@@ -2289,7 +2344,7 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="21" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2305,10 +2360,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>46169</v>
+        <v>46224</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>7</v>
@@ -2322,7 +2377,7 @@
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="19" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2331,32 +2386,34 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>453</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7">
-        <v>46224</v>
+        <v>46210</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>13</v>
+        <v>433</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H9" s="9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2366,23 +2423,21 @@
       <c r="B10" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="7">
-        <v>46210</v>
+        <v>46242</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>37</v>
@@ -2399,103 +2454,105 @@
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>455</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
       <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>45959</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="3">
         <v>35</v>
       </c>
-      <c r="E11" s="7">
-        <v>46242</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="9">
-        <v>8</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="I12" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="L12" s="25">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="7">
+        <v>46011</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19" t="s">
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>45959</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" s="3">
-        <v>35</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="L13" s="25">
-        <v>45884</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -2505,23 +2562,21 @@
       <c r="B14" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
         <v>262</v>
       </c>
       <c r="E14" s="7">
-        <v>46011</v>
+        <v>46232</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>264</v>
       </c>
       <c r="H14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>37</v>
@@ -2538,56 +2593,58 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="7">
-        <v>46232</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>265</v>
+        <v>8</v>
+      </c>
+      <c r="E15" s="11">
+        <v>46026</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="12">
+        <v>7</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J15" s="6">
         <v>1</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>459</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11">
-        <v>46026</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45991</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="12">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="H16" s="9">
+        <v>6</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>11</v>
@@ -2596,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2604,64 +2661,64 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="E17" s="7">
-        <v>45991</v>
+        <v>45978</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H17" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>460</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="7">
-        <v>45978</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>192</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9">
-        <v>2</v>
+      <c r="H18" s="12">
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>346</v>
@@ -2669,25 +2726,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E19" s="11">
-        <v>45939</v>
+        <v>45993</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -2696,34 +2753,32 @@
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="E20" s="11">
-        <v>45993</v>
+        <v>46179</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="12">
         <v>1</v>
       </c>
@@ -2731,30 +2786,30 @@
         <v>17</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>353</v>
+        <v>463</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c r="E21" s="11">
-        <v>46179</v>
+        <v>46100</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="12">
@@ -2764,175 +2819,177 @@
         <v>17</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>463</v>
+        <v>354</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="E22" s="11">
-        <v>46100</v>
+        <v>46142</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="H22" s="12">
         <v>1</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>354</v>
+        <v>465</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="E23" s="11">
-        <v>46142</v>
+        <v>45991</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="H23" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>290</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>465</v>
+        <v>312</v>
       </c>
       <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="D24" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="E24" s="11">
-        <v>45991</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>21</v>
+        <v>46368</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4003763</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="H24" s="12">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="C25" s="5">
-        <v>20</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>313</v>
+        <v>90</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="E25" s="11">
         <v>46368</v>
       </c>
-      <c r="F25" s="6">
-        <v>4003763</v>
+      <c r="F25" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="12">
-        <v>70</v>
+        <v>164</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="J25" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>165</v>
+        <v>466</v>
       </c>
       <c r="C26" s="5">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>167</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>46128</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>344</v>
+        <v>10</v>
+      </c>
+      <c r="H26" s="9">
+        <v>8</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J26" s="6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2942,17 +2999,15 @@
       <c r="B27" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="7">
-        <v>46128</v>
+        <v>46183</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -2972,35 +3027,37 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>355</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="7">
-        <v>46183</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>44</v>
+        <v>144</v>
+      </c>
+      <c r="E28" s="11">
+        <v>45980</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="9">
-        <v>8</v>
+        <v>146</v>
+      </c>
+      <c r="H28" s="12">
+        <v>3</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J28" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3008,34 +3065,32 @@
         <v>19</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E29" s="11">
-        <v>45980</v>
+        <v>46112</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="H29" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J29" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3049,9 +3104,7 @@
       <c r="D30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="11">
-        <v>46112</v>
-      </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="6" t="s">
         <v>27</v>
       </c>
@@ -3896,100 +3949,94 @@
         <v>19</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>510</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
       <c r="D56" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="7">
-        <v>45918</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>119</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="E56" s="11">
+        <v>45870</v>
+      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="9">
-        <v>1</v>
+      <c r="H56" s="12">
+        <v>0</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>352</v>
-      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="11">
-        <v>45912</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57" s="12">
-        <v>8</v>
+        <v>118</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45918</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="9">
+        <v>2</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>369</v>
+        <v>476</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="E58" s="11">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="H58" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K58" s="28" t="s">
-        <v>346</v>
+        <v>11</v>
+      </c>
+      <c r="J58" s="6">
+        <v>2</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3997,19 +4044,19 @@
         <v>19</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E59" s="11">
-        <v>45932</v>
+        <v>45897</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>16</v>
@@ -4032,19 +4079,23 @@
         <v>19</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>371</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
       <c r="D60" s="6" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E60" s="11">
-        <v>45974</v>
+        <v>45932</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>234</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H60" s="12">
         <v>1</v>
       </c>
@@ -4052,7 +4103,7 @@
         <v>17</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="K60" s="21" t="s">
         <v>346</v>
@@ -4063,95 +4114,95 @@
         <v>19</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C61" s="5"/>
       <c r="D61" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" s="7">
-        <v>46008</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>230</v>
+        <v>202</v>
+      </c>
+      <c r="E61" s="11">
+        <v>45974</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="G61" s="6"/>
-      <c r="H61" s="9">
+      <c r="H61" s="12">
         <v>1</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="K61" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>373</v>
+        <v>477</v>
       </c>
       <c r="C62" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="11">
-        <v>45945</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H62" s="12">
-        <v>8</v>
+        <v>229</v>
+      </c>
+      <c r="E62" s="7">
+        <v>46008</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="9">
+        <v>1</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="6">
-        <v>2</v>
-      </c>
-      <c r="K62" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="C63" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="E63" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F63" s="6"/>
+        <v>45945</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="G63" s="6" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="H63" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>220</v>
+      <c r="J63" s="6">
+        <v>2</v>
       </c>
       <c r="K63" s="21"/>
     </row>
@@ -4160,69 +4211,65 @@
         <v>0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C64" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="E64" s="11">
-        <v>45968</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>129</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="H64" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J64" s="6">
-        <v>2</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="C65" s="5">
         <v>4</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="7">
-        <v>46152</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>251</v>
+        <v>128</v>
+      </c>
+      <c r="E65" s="11">
+        <v>45968</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="H65" s="9">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="H65" s="12">
+        <v>5</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>253</v>
+      <c r="J65" s="6">
+        <v>2</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4232,21 +4279,23 @@
       <c r="B66" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5">
+        <v>4</v>
+      </c>
       <c r="D66" s="6" t="s">
         <v>250</v>
       </c>
       <c r="E66" s="7">
-        <v>46217</v>
+        <v>46152</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>252</v>
       </c>
       <c r="H66" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>3</v>
@@ -4260,53 +4309,55 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="6">
-        <v>87334</v>
-      </c>
-      <c r="E67" s="11">
-        <v>46203</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="12">
-        <v>2</v>
+        <v>375</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="7">
+        <v>46217</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H67" s="9">
+        <v>10</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="6">
         <v>3</v>
       </c>
-      <c r="K67" s="21"/>
+      <c r="J67" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
       </c>
       <c r="D68" s="6">
-        <v>87331</v>
+        <v>87334</v>
       </c>
       <c r="E68" s="11">
-        <v>46022</v>
+        <v>46203</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="12">
@@ -4322,55 +4373,53 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>308</v>
+      <c r="D69" s="6">
+        <v>87331</v>
       </c>
       <c r="E69" s="11">
-        <v>46368</v>
+        <v>46022</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>307</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="12">
         <v>2</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="21" t="s">
-        <v>439</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J69" s="6">
+        <v>3</v>
+      </c>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E70" s="11">
         <v>46368</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>307</v>
@@ -4391,19 +4440,19 @@
         <v>302</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E71" s="11">
         <v>46368</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>307</v>
@@ -4421,33 +4470,35 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="E72" s="11">
         <v>46368</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="H72" s="12">
         <v>2</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="6">
-        <v>3</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J72" s="6"/>
       <c r="K72" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4455,13 +4506,13 @@
         <v>19</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E73" s="11">
         <v>46368</v>
@@ -4478,112 +4529,108 @@
         <v>3</v>
       </c>
       <c r="K73" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="12">
+        <v>2</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="6">
+        <v>3</v>
+      </c>
+      <c r="K74" s="21" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C75" s="5">
         <v>5</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>46384</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H75" s="12">
         <v>9</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J75" s="6">
         <v>4</v>
       </c>
-      <c r="K74" s="28" t="s">
+      <c r="K75" s="21" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="11">
-        <v>46073</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H75" s="12">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J75" s="6">
-        <v>5</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E76" s="11">
-        <v>53327</v>
+        <v>46073</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H76" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J76" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4591,133 +4638,133 @@
         <v>19</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="E77" s="11">
-        <v>46084</v>
+        <v>53327</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="H77" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J77" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="11">
+        <v>46084</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="12">
+        <v>11</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J78" s="6">
+        <v>2</v>
+      </c>
+      <c r="K78" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="5" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="22"/>
+      <c r="B79" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>46368</v>
       </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="12">
-        <v>2</v>
-      </c>
-      <c r="I78" s="6" t="s">
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="12">
+        <v>2</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="K78" s="21" t="s">
+      <c r="K79" s="21" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" s="11">
-        <v>46150</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H79" s="12">
-        <v>1</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J79" s="6">
-        <v>4</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>479</v>
+        <v>382</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="7">
-        <v>46123</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>74</v>
+        <v>147</v>
+      </c>
+      <c r="E80" s="11">
+        <v>46150</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" s="9">
+        <v>149</v>
+      </c>
+      <c r="H80" s="12">
         <v>1</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J80" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4727,21 +4774,23 @@
       <c r="B81" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
       <c r="D81" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E81" s="7">
-        <v>46334</v>
+        <v>46123</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H81" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>11</v>
@@ -4754,67 +4803,65 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="7">
+        <v>46334</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="9">
+        <v>2</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="6">
+        <v>2</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="E82" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3">
-        <v>2</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K82" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="E83" s="11">
         <v>46368</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H83" s="12">
-        <v>2</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>204</v>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3">
+        <v>2</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>499</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>383</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4822,102 +4869,108 @@
         <v>0</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" s="12">
+        <v>2</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C85" s="5">
         <v>3</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>45930</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F85" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="12">
         <v>7</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I85" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="J84" s="6"/>
-      <c r="K84" s="21" t="s">
+      <c r="J85" s="6"/>
+      <c r="K85" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C85" s="1">
-        <v>2</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <v>46112</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F86" s="2">
         <v>32411230</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H86" s="3">
         <v>4</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I86" s="2">
         <v>-80</v>
       </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="21" t="s">
+      <c r="J86" s="2"/>
+      <c r="K86" s="21" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C86" s="5">
-        <v>2</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E86" s="7">
-        <v>46112</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="9">
-        <v>7</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C87" s="5">
         <v>2</v>
@@ -4926,14 +4979,14 @@
         <v>279</v>
       </c>
       <c r="E87" s="7">
-        <v>46721</v>
+        <v>46112</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>258</v>
@@ -4946,23 +4999,23 @@
         <v>274</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C88" s="5">
         <v>2</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E88" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
+      </c>
+      <c r="E88" s="7">
+        <v>46721</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="G88" s="6"/>
-      <c r="H88" s="12">
-        <v>20</v>
+      <c r="H88" s="9">
+        <v>4</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>258</v>
@@ -4975,23 +5028,23 @@
         <v>274</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C89" s="5">
         <v>2</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E89" s="7">
+        <v>259</v>
+      </c>
+      <c r="E89" s="11">
         <v>46022</v>
       </c>
-      <c r="F89" s="16" t="s">
-        <v>276</v>
+      <c r="F89" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="G89" s="6"/>
-      <c r="H89" s="9">
-        <v>12</v>
+      <c r="H89" s="12">
+        <v>20</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>258</v>
@@ -5013,10 +5066,10 @@
         <v>260</v>
       </c>
       <c r="E90" s="7">
-        <v>46842</v>
+        <v>46022</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="9">
@@ -5033,22 +5086,22 @@
         <v>274</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C91" s="5">
         <v>2</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E91" s="11">
-        <v>46022</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>278</v>
+        <v>260</v>
+      </c>
+      <c r="E91" s="7">
+        <v>46842</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="12">
+      <c r="H91" s="9">
         <v>12</v>
       </c>
       <c r="I91" s="13" t="s">
@@ -5062,55 +5115,52 @@
         <v>274</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C92" s="5">
         <v>2</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E92" s="7">
-        <v>46173</v>
-      </c>
-      <c r="F92" s="8">
-        <v>29005240</v>
+        <v>261</v>
+      </c>
+      <c r="E92" s="11">
+        <v>46022</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="G92" s="6"/>
-      <c r="H92" s="9">
-        <v>5</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J92" s="6">
-        <v>4</v>
-      </c>
+      <c r="H92" s="12">
+        <v>12</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J92" s="6"/>
+      <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="C93" s="5">
         <v>2</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="E93" s="7">
-        <v>46099</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>46173</v>
+      </c>
+      <c r="F93" s="8">
+        <v>29005240</v>
+      </c>
+      <c r="G93" s="6"/>
       <c r="H93" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>11</v>
@@ -5118,7 +5168,6 @@
       <c r="J93" s="6">
         <v>4</v>
       </c>
-      <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
@@ -5127,21 +5176,23 @@
       <c r="B94" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
       <c r="D94" s="6" t="s">
         <v>150</v>
       </c>
       <c r="E94" s="7">
-        <v>46243</v>
+        <v>46099</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>152</v>
       </c>
       <c r="H94" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>11</v>
@@ -5153,33 +5204,33 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C95" s="5">
-        <v>5</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C95" s="5"/>
       <c r="D95" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E95" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>319</v>
+        <v>150</v>
+      </c>
+      <c r="E95" s="7">
+        <v>46243</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H95" s="12">
-        <v>7</v>
+        <v>152</v>
+      </c>
+      <c r="H95" s="9">
+        <v>4</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="J95" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="J95" s="6">
+        <v>4</v>
+      </c>
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5187,13 +5238,13 @@
         <v>290</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C96" s="5">
         <v>5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E96" s="11">
         <v>46368</v>
@@ -5205,7 +5256,7 @@
         <v>320</v>
       </c>
       <c r="H96" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>321</v>
@@ -5215,224 +5266,220 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C97" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="E97" s="11">
-        <v>46337</v>
-      </c>
-      <c r="F97" s="6">
-        <v>24118720</v>
+        <v>46368</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="H97" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" s="6">
-        <v>2</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J97" s="6"/>
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C98" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="E98" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>214</v>
+        <v>46337</v>
+      </c>
+      <c r="F98" s="6">
+        <v>24118720</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="H98" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J98" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>383</v>
-      </c>
+      <c r="J98" s="6">
+        <v>2</v>
+      </c>
+      <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>497</v>
+      <c r="A99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E99" s="11">
         <v>46368</v>
       </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="3">
-        <v>2</v>
-      </c>
-      <c r="I99" s="2" t="s">
+      <c r="F99" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H99" s="12">
+        <v>3</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E100" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K100" s="6" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C100" s="5">
-        <v>5</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="11">
-        <v>46002</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H100" s="12">
-        <v>17</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C101" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="E101" s="11">
-        <v>46368</v>
+        <v>46002</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="H101" s="12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J101" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="K101" s="21"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C102" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="E102" s="11">
-        <v>53327</v>
+        <v>46368</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H102" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J102" s="6">
-        <v>4</v>
-      </c>
-      <c r="K102" s="21" t="s">
-        <v>347</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J102" s="6"/>
+      <c r="K102" s="21"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" s="7">
+        <v>160</v>
+      </c>
+      <c r="E103" s="11">
         <v>53327</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>158</v>
+      <c r="F103" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H103" s="9">
-        <v>3</v>
+      <c r="H103" s="12">
+        <v>10</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>37</v>
@@ -5461,13 +5508,13 @@
         <v>53327</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H104" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>37</v>
@@ -5481,28 +5528,28 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C105" s="5">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E105" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="E105" s="7">
+        <v>53327</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H105" s="12">
-        <v>200</v>
+        <v>59</v>
+      </c>
+      <c r="H105" s="9">
+        <v>30</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>37</v>
@@ -5510,45 +5557,51 @@
       <c r="J105" s="6">
         <v>4</v>
       </c>
-      <c r="K105" s="21"/>
+      <c r="K105" s="21" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C106" s="5"/>
+        <v>393</v>
+      </c>
+      <c r="C106" s="5">
+        <v>50</v>
+      </c>
       <c r="D106" s="6" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="E106" s="11">
         <v>46368</v>
       </c>
-      <c r="F106" s="6"/>
+      <c r="F106" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="G106" s="6" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="H106" s="12">
-        <v>1</v>
-      </c>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="21" t="s">
-        <v>396</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="6">
+        <v>4</v>
+      </c>
+      <c r="K106" s="21"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C107" s="5">
-        <v>6</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C107" s="5"/>
       <c r="D107" s="6" t="s">
         <v>226</v>
       </c>
@@ -5556,16 +5609,14 @@
         <v>46368</v>
       </c>
       <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="G107" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H107" s="12">
-        <v>20</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>220</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
       <c r="K107" s="21" t="s">
         <v>396</v>
       </c>
@@ -5575,21 +5626,21 @@
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C108" s="5">
         <v>6</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E108" s="11">
         <v>46368</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="14" t="s">
-        <v>399</v>
+      <c r="H108" s="12">
+        <v>20</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>37</v>
@@ -5598,7 +5649,7 @@
         <v>220</v>
       </c>
       <c r="K108" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -5606,21 +5657,21 @@
         <v>0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C109" s="5">
         <v>6</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" s="11">
         <v>46368</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="14">
-        <v>12</v>
+      <c r="H109" s="14" t="s">
+        <v>399</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>37</v>
@@ -5629,37 +5680,39 @@
         <v>220</v>
       </c>
       <c r="K109" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C110" s="5">
-        <v>10</v>
-      </c>
-      <c r="D110" s="6">
-        <v>6095719</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="E110" s="11">
-        <v>46356</v>
-      </c>
-      <c r="F110" s="6">
-        <v>911360</v>
-      </c>
+        <v>46368</v>
+      </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="12">
-        <v>10</v>
+      <c r="H110" s="14">
+        <v>12</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="J110" s="6"/>
-      <c r="K110" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K110" s="21" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
@@ -5668,15 +5721,17 @@
       <c r="B111" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C111" s="5"/>
+      <c r="C111" s="5">
+        <v>10</v>
+      </c>
       <c r="D111" s="6">
         <v>6095719</v>
       </c>
       <c r="E111" s="11">
-        <v>46477</v>
+        <v>46356</v>
       </c>
       <c r="F111" s="6">
-        <v>918444</v>
+        <v>911360</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="12">
@@ -5690,70 +5745,64 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C112" s="5">
-        <v>1</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>141</v>
+        <v>431</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6">
+        <v>6095719</v>
       </c>
       <c r="E112" s="11">
-        <v>45957</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>46477</v>
+      </c>
+      <c r="F112" s="6">
+        <v>918444</v>
+      </c>
+      <c r="G112" s="6"/>
       <c r="H112" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J112" s="6">
-        <v>4</v>
-      </c>
-      <c r="K112" s="21" t="s">
-        <v>346</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="K112" s="21"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E113" s="11">
+        <v>45957</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H113" s="12">
+        <v>1</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="6">
         <v>4</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E113" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H113" s="12">
-        <v>8</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="K113" s="21" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -5761,23 +5810,23 @@
         <v>0</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C114" s="5">
         <v>4</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E114" s="11">
         <v>46368</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H114" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>37</v>
@@ -5786,7 +5835,7 @@
         <v>220</v>
       </c>
       <c r="K114" s="21" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -5794,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C115" s="5">
         <v>4</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E115" s="11">
         <v>46368</v>
@@ -5810,7 +5859,7 @@
         <v>208</v>
       </c>
       <c r="H115" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>37</v>
@@ -5824,62 +5873,64 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="C116" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="E116" s="11">
         <v>46368</v>
       </c>
-      <c r="F116" s="13" t="s">
-        <v>284</v>
-      </c>
+      <c r="F116" s="6"/>
       <c r="G116" s="6" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="H116" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J116" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="K116" s="21" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>329</v>
+        <v>134</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C117" s="5"/>
+      <c r="C117" s="5">
+        <v>2</v>
+      </c>
       <c r="D117" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E117" s="11">
         <v>46368</v>
       </c>
-      <c r="F117" s="6">
-        <v>861853</v>
+      <c r="F117" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>285</v>
       </c>
       <c r="H117" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="21" t="s">
@@ -5888,70 +5939,68 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C118" s="5">
-        <v>1</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C118" s="5"/>
       <c r="D118" s="6" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="E118" s="11">
         <v>46368</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>217</v>
+      <c r="F118" s="6">
+        <v>861853</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="H118" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="J118" s="6"/>
       <c r="K118" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C119" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="E119" s="11">
         <v>46368</v>
       </c>
-      <c r="F119" s="6"/>
+      <c r="F119" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="G119" s="6" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="H119" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J119" s="6">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -5959,89 +6008,87 @@
         <v>134</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C120" s="5">
-        <v>1</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>212</v>
+        <v>5</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E120" s="11">
         <v>46368</v>
       </c>
       <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="H120" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K120" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="J120" s="6">
+        <v>3</v>
+      </c>
+      <c r="K120" s="21" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C121" s="15">
-        <v>1</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>293</v>
+        <v>134</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="E121" s="11">
         <v>46368</v>
       </c>
-      <c r="F121" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>295</v>
-      </c>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
       <c r="H121" s="12">
         <v>2</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="K121" s="21" t="s">
-        <v>411</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="K121" s="21"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C122" s="15">
         <v>1</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E122" s="11">
         <v>46368</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>295</v>
       </c>
       <c r="H122" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>286</v>
@@ -6055,182 +6102,176 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="C123" s="5">
-        <v>2</v>
+        <v>290</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C123" s="15">
+        <v>1</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="E123" s="11">
         <v>46368</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="H123" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K123" s="21"/>
+        <v>411</v>
+      </c>
+      <c r="K123" s="21" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="C124" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E124" s="7">
-        <v>46090</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>506</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E124" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F124" s="6"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="9">
-        <v>2</v>
+      <c r="H124" s="12">
+        <v>3</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="K124" s="21"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>412</v>
+        <v>507</v>
       </c>
       <c r="C125" s="5">
         <v>1</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E125" s="11">
-        <v>45925</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="12">
-        <v>1</v>
+        <v>505</v>
+      </c>
+      <c r="E125" s="7">
+        <v>46090</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="9">
+        <v>2</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K125" s="28" t="s">
-        <v>16</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="K125" s="21"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C126" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1</v>
+      </c>
       <c r="D126" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E126" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H126" s="12">
-        <v>3</v>
+        <v>519</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45962</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="9">
+        <v>1</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="J126" s="6"/>
-      <c r="K126" s="21" t="s">
-        <v>446</v>
-      </c>
+      <c r="K126" s="21"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="C127" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C127" s="5">
+        <v>1</v>
+      </c>
       <c r="D127" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E127" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H127" s="12">
-        <v>4</v>
+        <v>519</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45863</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="9">
+        <v>0</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="J127" s="6"/>
-      <c r="K127" s="21" t="s">
-        <v>447</v>
-      </c>
+      <c r="K127" s="21"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>412</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
       <c r="D128" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E128" s="7">
-        <v>45965</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>243</v>
+        <v>231</v>
+      </c>
+      <c r="E128" s="11">
+        <v>45925</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H128" s="9">
+        <v>16</v>
+      </c>
+      <c r="H128" s="12">
         <v>1</v>
       </c>
       <c r="I128" s="6" t="s">
@@ -6245,565 +6286,537 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C129" s="5">
-        <v>1</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="C129" s="15"/>
       <c r="D129" s="6" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="E129" s="11">
-        <v>45997</v>
+        <v>46368</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="H129" s="12">
         <v>3</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J129" s="6"/>
       <c r="K129" s="21" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C130" s="5">
-        <v>2</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" s="15"/>
       <c r="D130" s="6" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="E130" s="11">
-        <v>45894</v>
+        <v>46368</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G130" s="6"/>
+        <v>301</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="H130" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J130" s="6">
-        <v>2</v>
-      </c>
-      <c r="K130" s="28" t="s">
-        <v>351</v>
+        <v>286</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="21" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="C131" s="5"/>
+        <v>413</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1</v>
+      </c>
       <c r="D131" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E131" s="11">
-        <v>46021</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>71</v>
+        <v>241</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45965</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H131" s="12">
-        <v>4</v>
+        <v>242</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J131" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K131" s="21" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>415</v>
+        <v>485</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="E132" s="11">
-        <v>45906</v>
+        <v>45997</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="H132" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C133" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E133" s="11">
-        <v>45939</v>
+        <v>45894</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="J133" s="6">
+        <v>2</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C134" s="5">
-        <v>1</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C134" s="5"/>
       <c r="D134" s="6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E134" s="11">
-        <v>45965</v>
+        <v>46021</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H134" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="J134" s="6">
+        <v>2</v>
       </c>
       <c r="K134" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C135" s="5">
-        <v>5</v>
-      </c>
-      <c r="D135" s="6">
-        <v>94600</v>
+        <v>1</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E135" s="11">
-        <v>46081</v>
+        <v>45906</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H135" s="12">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J135" s="6">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K135" s="21" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="C136" s="5">
         <v>1</v>
       </c>
-      <c r="D136" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E136" s="7">
-        <v>46043</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>266</v>
+      <c r="D136" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E136" s="11">
+        <v>45939</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="G136" s="6"/>
-      <c r="H136" s="9">
-        <v>2</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J136" s="6"/>
+      <c r="H136" s="12">
+        <v>4</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="K136" s="21" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C137" s="5">
-        <v>1</v>
-      </c>
-      <c r="D137" s="6">
-        <v>94613</v>
-      </c>
-      <c r="E137" s="7">
-        <v>46121</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>268</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="9">
-        <v>2</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>267</v>
-      </c>
+      <c r="H137" s="12"/>
+      <c r="I137" s="6"/>
       <c r="J137" s="6"/>
-      <c r="K137" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="K137" s="21"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>425</v>
+        <v>515</v>
       </c>
       <c r="C138" s="5">
         <v>1</v>
       </c>
-      <c r="D138" s="6">
-        <v>94614</v>
+      <c r="D138" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="E138" s="11">
-        <v>46045</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>269</v>
-      </c>
+        <v>45863</v>
+      </c>
+      <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="12">
-        <v>4</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" s="6"/>
       <c r="J138" s="6"/>
-      <c r="K138" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="21"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C139" s="5">
-        <v>2</v>
-      </c>
-      <c r="D139" s="6">
-        <v>559</v>
+        <v>1</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E139" s="11">
-        <v>46368</v>
+        <v>45965</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>292</v>
+        <v>53</v>
       </c>
       <c r="H139" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J139" s="6"/>
-      <c r="K139" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K139" s="21" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="C140" s="5">
         <v>5</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>121</v>
+      <c r="D140" s="6">
+        <v>94600</v>
       </c>
       <c r="E140" s="11">
-        <v>46160</v>
+        <v>46081</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G140" s="6"/>
       <c r="H140" s="12">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J140" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K140" s="21" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="C141" s="5">
-        <v>4</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D141" s="6">
+        <v>94613</v>
       </c>
       <c r="E141" s="7">
-        <v>45925</v>
+        <v>46043</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G141" s="6"/>
       <c r="H141" s="9">
-        <v>1</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J141" s="6">
-        <v>3</v>
-      </c>
-      <c r="K141" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J141" s="6"/>
+      <c r="K141" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="6" t="s">
-        <v>112</v>
+        <v>424</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+      <c r="D142" s="6">
+        <v>94613</v>
       </c>
       <c r="E142" s="7">
-        <v>46215</v>
+        <v>46121</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G142" s="6"/>
       <c r="H142" s="9">
-        <v>4</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J142" s="6">
-        <v>3</v>
-      </c>
-      <c r="K142" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="I142" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J142" s="6"/>
+      <c r="K142" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E143" s="7">
-        <v>45905</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" s="9">
-        <v>1</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="D143" s="6">
+        <v>94614</v>
+      </c>
+      <c r="E143" s="11">
+        <v>46045</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="12">
+        <v>4</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="J143" s="6"/>
       <c r="K143" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E144" s="7">
-        <v>46122</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>201</v>
+        <v>489</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2</v>
+      </c>
+      <c r="D144" s="6">
+        <v>559</v>
+      </c>
+      <c r="E144" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" s="9">
-        <v>1</v>
+        <v>292</v>
+      </c>
+      <c r="H144" s="12">
+        <v>4</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K144" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="J144" s="6"/>
+      <c r="K144" s="21"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C145" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="E145" s="11">
-        <v>46146</v>
+        <v>46160</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="H145" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="J145" s="6">
+        <v>2</v>
       </c>
       <c r="K145" s="21" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6811,299 +6824,466 @@
         <v>19</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C146" s="5"/>
+        <v>491</v>
+      </c>
+      <c r="C146" s="5">
+        <v>4</v>
+      </c>
       <c r="D146" s="6" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="E146" s="7">
-        <v>46190</v>
+        <v>45925</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G146" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H146" s="9">
         <v>1</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K146" s="21" t="s">
-        <v>380</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J146" s="6">
+        <v>3</v>
+      </c>
+      <c r="K146" s="21"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="E147" s="7">
-        <v>46258</v>
+        <v>46215</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G147" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H147" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K147" s="21" t="s">
-        <v>380</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J147" s="6">
+        <v>3</v>
+      </c>
+      <c r="K147" s="21"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="C148" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="E148" s="7">
-        <v>46329</v>
+        <v>45905</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H148" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J148" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K148" s="21" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>493</v>
+        <v>417</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="6" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="E149" s="7">
-        <v>46417</v>
+        <v>46122</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H149" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J149" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="K149" s="21" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C150" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E150" s="11">
-        <v>45934</v>
+        <v>46146</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H150" s="12">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J150" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K150" s="21" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C151" s="5">
-        <v>2</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C151" s="5"/>
       <c r="D151" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E151" s="11">
-        <v>46089</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>124</v>
+        <v>194</v>
+      </c>
+      <c r="E151" s="7">
+        <v>46190</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="G151" s="6"/>
-      <c r="H151" s="12">
-        <v>4</v>
+      <c r="H151" s="9">
+        <v>1</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J151" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="K151" s="21" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C152" s="5">
-        <v>4</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C152" s="5"/>
       <c r="D152" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E152" s="11">
-        <v>46368</v>
-      </c>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H152" s="12">
-        <v>9</v>
+        <v>194</v>
+      </c>
+      <c r="E152" s="7">
+        <v>46258</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="9">
+        <v>2</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J152" s="6">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="K152" s="21" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C153" s="5">
+        <v>2</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E153" s="7">
+        <v>46329</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H153" s="9">
+        <v>4</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J153" s="6">
+        <v>2</v>
+      </c>
+      <c r="K153" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" s="7">
+        <v>46417</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H154" s="9">
+        <v>4</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" s="6">
+        <v>2</v>
+      </c>
+      <c r="K154" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C155" s="5">
+        <v>2</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E155" s="11">
+        <v>45934</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="12">
+        <v>14</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J155" s="6">
+        <v>2</v>
+      </c>
+      <c r="K155" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C156" s="5">
+        <v>2</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E156" s="11">
+        <v>46089</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="12">
+        <v>4</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J156" s="6">
+        <v>2</v>
+      </c>
+      <c r="K156" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C157" s="5">
+        <v>4</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E157" s="11">
+        <v>46368</v>
+      </c>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H157" s="12">
+        <v>9</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J157" s="6">
+        <v>3</v>
+      </c>
+      <c r="K157" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B158" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C153" s="5">
-        <v>2</v>
-      </c>
-      <c r="D153" s="6" t="s">
+      <c r="C158" s="5">
+        <v>2</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E158" s="11">
         <v>46368</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F158" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G153" s="6">
-        <v>1</v>
-      </c>
-      <c r="H153" s="12">
+      <c r="G158" s="6">
+        <v>1</v>
+      </c>
+      <c r="H158" s="12">
         <v>3</v>
       </c>
-      <c r="I153" s="6" t="s">
+      <c r="I158" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="J153" s="6"/>
-      <c r="K153" s="21" t="s">
+      <c r="J158" s="6"/>
+      <c r="K158" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="26" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B159" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="C154" s="23">
-        <v>2</v>
-      </c>
-      <c r="D154" s="19" t="s">
+      <c r="C159" s="23">
+        <v>2</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E159" s="11">
         <v>46368</v>
       </c>
-      <c r="F154" s="21"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="24">
+      <c r="F159" s="21"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="24">
         <v>3</v>
       </c>
-      <c r="I154" s="19" t="s">
+      <c r="I159" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J154" s="6" t="s">
+      <c r="J159" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K154" s="21" t="s">
+      <c r="K159" s="21" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L154">
-    <sortCondition ref="B2:B154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L159">
+    <sortCondition ref="B2:B159"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMCCCL_supply_july.xlsx
+++ b/MMCCCL_supply_july.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vetdd\Documents\PostGrad_NSS\MMCCCL_supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967B5D6-918B-43B6-BD17-87D87BFAFAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752C75F2-62E5-4025-944A-694CEA15D192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16E4F072-8648-485F-BEC5-19999D3A63FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="522">
   <si>
     <t>Alinity C</t>
   </si>
@@ -1607,6 +1607,12 @@
   </si>
   <si>
     <t>07P600</t>
+  </si>
+  <si>
+    <t>Probe condition solution</t>
+  </si>
+  <si>
+    <t>Fridge 2</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1772,6 +1778,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F06BF6-FE2E-478D-9CAE-09F3C98E411A}">
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2507,7 +2525,7 @@
         <v>289</v>
       </c>
       <c r="H12" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>332</v>
@@ -7281,6 +7299,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C160" s="28">
+        <v>1</v>
+      </c>
+      <c r="E160" s="25">
+        <v>45889</v>
+      </c>
+      <c r="H160" s="29">
+        <v>0</v>
+      </c>
+      <c r="I160" s="30" t="s">
+        <v>521</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L159">
     <sortCondition ref="B2:B159"/>
